--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="301">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -2156,24 +2156,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="164228096"/>
-        <c:axId val="163988224"/>
+        <c:axId val="139708288"/>
+        <c:axId val="139709824"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="164228096"/>
+        <c:axId val="139708288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163988224"/>
+        <c:crossAx val="139709824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="163988224"/>
+        <c:axId val="139709824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,7 +2181,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164228096"/>
+        <c:crossAx val="139708288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6066,7 +6066,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6123,7 +6123,7 @@
       <c r="C4" s="56"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -6357,9 +6357,11 @@
         <v>8</v>
       </c>
       <c r="C13" s="58">
-        <v>45504</v>
-      </c>
-      <c r="D13" s="35"/>
+        <v>45882</v>
+      </c>
+      <c r="D13" s="35">
+        <v>200</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="35">
         <v>200</v>
@@ -7991,7 +7993,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8049,7 +8051,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -8282,10 +8284,12 @@
       <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="9">
-        <v>45504</v>
-      </c>
-      <c r="D13" s="52"/>
+      <c r="C13" s="58">
+        <v>45882</v>
+      </c>
+      <c r="D13" s="52">
+        <v>100</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8">
         <v>100</v>
@@ -8668,8 +8672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8728,7 +8732,7 @@
       <c r="C4" s="69"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -8961,10 +8965,12 @@
       <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="70">
-        <v>45504</v>
-      </c>
-      <c r="D13" s="52"/>
+      <c r="C13" s="58">
+        <v>45882</v>
+      </c>
+      <c r="D13" s="52">
+        <v>100</v>
+      </c>
       <c r="E13" s="52"/>
       <c r="F13" s="52">
         <v>100</v>
@@ -11342,8 +11348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView rightToLeft="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11437,7 +11443,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>13380</v>
+        <v>13780</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -12651,12 +12657,21 @@
       <c r="A44" s="52">
         <v>39</v>
       </c>
-      <c r="B44" s="58"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
+      <c r="B44" s="58">
+        <v>45882</v>
+      </c>
+      <c r="C44" s="62">
+        <v>200</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="52">
+        <v>7</v>
+      </c>
+      <c r="G44" s="52" t="s">
+        <v>243</v>
+      </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -12672,12 +12687,22 @@
       <c r="A45" s="52">
         <v>40</v>
       </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="62"/>
+      <c r="B45" s="58">
+        <v>45882</v>
+      </c>
+      <c r="C45" s="62">
+        <v>100</v>
+      </c>
       <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
+      <c r="E45" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="F45" s="52">
+        <v>4</v>
+      </c>
+      <c r="G45" s="52" t="s">
+        <v>243</v>
+      </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -12693,12 +12718,22 @@
       <c r="A46" s="52">
         <v>41</v>
       </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="62"/>
+      <c r="B46" s="58">
+        <v>45882</v>
+      </c>
+      <c r="C46" s="62">
+        <v>100</v>
+      </c>
       <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
+      <c r="E46" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="52">
+        <v>3</v>
+      </c>
+      <c r="G46" s="52" t="s">
+        <v>243</v>
+      </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
       <c r="J46" s="51"/>
@@ -15017,15 +15052,15 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>13380</v>
+        <v>13780</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>11587</v>
+        <v>11737</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>7396</v>
+        <v>7646</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15383,8 +15418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView rightToLeft="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15419,7 +15454,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>11587</v>
+        <v>11737</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16373,25 +16408,43 @@
       <c r="A55" s="35">
         <v>51</v>
       </c>
-      <c r="B55" s="67"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="52"/>
+      <c r="B55" s="67">
+        <v>45882</v>
+      </c>
+      <c r="C55" s="62">
+        <v>125</v>
+      </c>
+      <c r="D55" s="52" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="18.75">
       <c r="A56" s="35">
         <v>52</v>
       </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="52"/>
+      <c r="B56" s="67">
+        <v>45882</v>
+      </c>
+      <c r="C56" s="62">
+        <v>5</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="18.75">
       <c r="A57" s="35">
         <v>53</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="67">
+        <v>45882</v>
+      </c>
+      <c r="C57" s="62">
+        <v>20</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="18.75">
       <c r="A58" s="35">
@@ -22269,11 +22322,11 @@
       </c>
       <c r="E13" s="28">
         <f>Apartment3!D13</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F13" s="28">
         <f>Apartment4!D13</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G13" s="28">
         <f>Apartment5!D13</f>
@@ -22285,7 +22338,7 @@
       </c>
       <c r="I13" s="28">
         <f>Apartment7!D13</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J13" s="28">
         <f>Apartment8!D13</f>
@@ -22931,12 +22984,12 @@
       </c>
       <c r="C7" s="101">
         <f>Apartment3!D4</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D7" s="102"/>
       <c r="E7" s="104">
         <f t="shared" si="0"/>
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>48</v>
@@ -22958,12 +23011,12 @@
       </c>
       <c r="C8" s="101">
         <f>Apartment4!D4</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D8" s="102"/>
       <c r="E8" s="104">
         <f t="shared" si="0"/>
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>48</v>
@@ -23039,12 +23092,12 @@
       </c>
       <c r="C11" s="101">
         <f>Apartment7!D4</f>
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="D11" s="102"/>
       <c r="E11" s="104">
         <f t="shared" si="0"/>
-        <v>-1400</v>
+        <v>-1600</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>48</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="17"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="302">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -944,6 +944,9 @@
   </si>
   <si>
     <t>تحت حساب نظافة السلم لام احمد عن شهر يولية /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب فاتورة المياه عن شهر اغسطس /2025</t>
   </si>
 </sst>
 </file>
@@ -2156,24 +2159,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="139708288"/>
-        <c:axId val="139709824"/>
+        <c:axId val="160427008"/>
+        <c:axId val="159924992"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="139708288"/>
+        <c:axId val="160427008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139709824"/>
+        <c:crossAx val="159924992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="139709824"/>
+        <c:axId val="159924992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,7 +2184,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139708288"/>
+        <c:crossAx val="160427008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8672,7 +8675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -14986,7 +14989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -15056,11 +15059,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>11737</v>
+        <v>12432</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>7646</v>
+        <v>6951</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15419,7 +15422,7 @@
   <dimension ref="A2:T104"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15454,7 +15457,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>11737</v>
+        <v>12432</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16328,7 +16331,7 @@
         <v>45858</v>
       </c>
       <c r="C49" s="62">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="D49" s="52" t="s">
         <v>294</v>
@@ -16450,17 +16453,29 @@
       <c r="A58" s="35">
         <v>54</v>
       </c>
-      <c r="B58" s="67"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="52"/>
+      <c r="B58" s="67">
+        <v>45887</v>
+      </c>
+      <c r="C58" s="62">
+        <v>680</v>
+      </c>
+      <c r="D58" s="52" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="18.75">
       <c r="A59" s="35">
         <v>55</v>
       </c>
-      <c r="B59" s="67"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="52"/>
+      <c r="B59" s="67">
+        <v>45887</v>
+      </c>
+      <c r="C59" s="62">
+        <v>5</v>
+      </c>
+      <c r="D59" s="52" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="18.75">
       <c r="A60" s="35">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="21"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="307">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -947,6 +947,21 @@
   </si>
   <si>
     <t>تحت حساب فاتورة المياه عن شهر اغسطس /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب شراء لمبة للمدخل الرئيسى الباب الحديد</t>
+  </si>
+  <si>
+    <t>تحت حساب شراء لمبة للترقة عند الحاجة سعاد الدور الرابع</t>
+  </si>
+  <si>
+    <t>تحت حساب نظافة السلم لام احمد عن شهر اغسطس /2025</t>
+  </si>
+  <si>
+    <t>اكرامية لام احمد لشراء اللمبة من اخر شارع عشرة</t>
+  </si>
+  <si>
+    <t>تحت حساب شراء كيس ايريال صغير</t>
   </si>
 </sst>
 </file>
@@ -2159,24 +2174,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="160427008"/>
-        <c:axId val="159924992"/>
+        <c:axId val="114477312"/>
+        <c:axId val="114241536"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="160427008"/>
+        <c:axId val="114477312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159924992"/>
+        <c:crossAx val="114241536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="159924992"/>
+        <c:axId val="114241536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2184,7 +2199,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160427008"/>
+        <c:crossAx val="114477312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14989,7 +15004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -15059,11 +15074,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>12432</v>
+        <v>12907</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>6951</v>
+        <v>6476</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15421,8 +15436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15457,7 +15472,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>12432</v>
+        <v>12907</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16481,41 +16496,71 @@
       <c r="A60" s="35">
         <v>56</v>
       </c>
-      <c r="B60" s="67"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="52"/>
+      <c r="B60" s="67">
+        <v>45898</v>
+      </c>
+      <c r="C60" s="62">
+        <v>25</v>
+      </c>
+      <c r="D60" s="52" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="18.75">
       <c r="A61" s="35">
         <v>57</v>
       </c>
-      <c r="B61" s="67"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="52"/>
+      <c r="B61" s="67">
+        <v>45899</v>
+      </c>
+      <c r="C61" s="62">
+        <v>25</v>
+      </c>
+      <c r="D61" s="52" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="18.75">
       <c r="A62" s="35">
         <v>58</v>
       </c>
-      <c r="B62" s="67"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="52"/>
+      <c r="B62" s="67">
+        <v>45899</v>
+      </c>
+      <c r="C62" s="62">
+        <v>400</v>
+      </c>
+      <c r="D62" s="52" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="18.75">
       <c r="A63" s="35">
         <v>59</v>
       </c>
-      <c r="B63" s="67"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="67">
+        <v>45899</v>
+      </c>
+      <c r="C63" s="62">
+        <v>10</v>
+      </c>
+      <c r="D63" s="52" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="18.75">
       <c r="A64" s="35">
         <v>60</v>
       </c>
-      <c r="B64" s="67"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="52"/>
+      <c r="B64" s="67">
+        <v>45899</v>
+      </c>
+      <c r="C64" s="62">
+        <v>15</v>
+      </c>
+      <c r="D64" s="52" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="18.75">
       <c r="A65" s="35">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="307">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -2174,24 +2174,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="114477312"/>
-        <c:axId val="114241536"/>
+        <c:axId val="163330304"/>
+        <c:axId val="163356672"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="114477312"/>
+        <c:axId val="163330304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114241536"/>
+        <c:crossAx val="163356672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="114241536"/>
+        <c:axId val="163356672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2199,7 +2199,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114477312"/>
+        <c:crossAx val="163330304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6084,7 +6084,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6141,7 +6141,7 @@
       <c r="C4" s="56"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -6401,10 +6401,12 @@
       <c r="B14" s="35">
         <v>9</v>
       </c>
-      <c r="C14" s="58">
-        <v>45536</v>
-      </c>
-      <c r="D14" s="35"/>
+      <c r="C14" s="70">
+        <v>45902</v>
+      </c>
+      <c r="D14" s="35">
+        <v>200</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="35">
         <v>200</v>
@@ -8010,8 +8012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8069,7 +8071,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -8329,10 +8331,12 @@
       <c r="B14" s="8">
         <v>9</v>
       </c>
-      <c r="C14" s="9">
-        <v>45536</v>
-      </c>
-      <c r="D14" s="8"/>
+      <c r="C14" s="70">
+        <v>45902</v>
+      </c>
+      <c r="D14" s="8">
+        <v>100</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8">
         <v>100</v>
@@ -8691,7 +8695,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8750,7 +8754,7 @@
       <c r="C4" s="69"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -9011,9 +9015,11 @@
         <v>9</v>
       </c>
       <c r="C14" s="70">
-        <v>45536</v>
-      </c>
-      <c r="D14" s="52"/>
+        <v>45902</v>
+      </c>
+      <c r="D14" s="52">
+        <v>100</v>
+      </c>
       <c r="E14" s="52"/>
       <c r="F14" s="52">
         <v>100</v>
@@ -11366,8 +11372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView rightToLeft="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11461,7 +11467,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>13780</v>
+        <v>14180</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -12767,12 +12773,21 @@
       <c r="A47" s="52">
         <v>42</v>
       </c>
-      <c r="B47" s="58"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
+      <c r="B47" s="58">
+        <v>45902</v>
+      </c>
+      <c r="C47" s="62">
+        <v>200</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="52">
+        <v>7</v>
+      </c>
+      <c r="G47" s="52" t="s">
+        <v>244</v>
+      </c>
       <c r="H47" s="51"/>
       <c r="I47" s="51"/>
       <c r="J47" s="51"/>
@@ -12788,12 +12803,22 @@
       <c r="A48" s="52">
         <v>43</v>
       </c>
-      <c r="B48" s="58"/>
-      <c r="C48" s="62"/>
+      <c r="B48" s="58">
+        <v>45902</v>
+      </c>
+      <c r="C48" s="62">
+        <v>100</v>
+      </c>
       <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
+      <c r="E48" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" s="52">
+        <v>4</v>
+      </c>
+      <c r="G48" s="52" t="s">
+        <v>244</v>
+      </c>
       <c r="H48" s="51"/>
       <c r="I48" s="51"/>
       <c r="J48" s="51"/>
@@ -12809,11 +12834,22 @@
       <c r="A49" s="52">
         <v>44</v>
       </c>
-      <c r="B49" s="58"/>
-      <c r="C49" s="62"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
+      <c r="B49" s="58">
+        <v>45902</v>
+      </c>
+      <c r="C49" s="62">
+        <v>100</v>
+      </c>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="52">
+        <v>3</v>
+      </c>
+      <c r="G49" s="52" t="s">
+        <v>244</v>
+      </c>
       <c r="H49" s="51"/>
       <c r="I49" s="51"/>
       <c r="J49" s="51"/>
@@ -15070,7 +15106,7 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>13780</v>
+        <v>14180</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
@@ -15078,7 +15114,7 @@
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>6476</v>
+        <v>6876</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15436,8 +15472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView rightToLeft="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22444,11 +22480,11 @@
       </c>
       <c r="E14" s="28">
         <f>Apartment3!D14</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="28">
         <f>Apartment4!D14</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="28">
         <f>Apartment5!D14</f>
@@ -22460,7 +22496,7 @@
       </c>
       <c r="I14" s="28">
         <f>Apartment7!D14</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J14" s="28">
         <f>Apartment8!D14</f>
@@ -23044,12 +23080,12 @@
       </c>
       <c r="C7" s="101">
         <f>Apartment3!D4</f>
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="D7" s="102"/>
       <c r="E7" s="104">
         <f t="shared" si="0"/>
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>48</v>
@@ -23071,12 +23107,12 @@
       </c>
       <c r="C8" s="101">
         <f>Apartment4!D4</f>
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="D8" s="102"/>
       <c r="E8" s="104">
         <f t="shared" si="0"/>
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>48</v>
@@ -23152,12 +23188,12 @@
       </c>
       <c r="C11" s="101">
         <f>Apartment7!D4</f>
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="D11" s="102"/>
       <c r="E11" s="104">
         <f t="shared" si="0"/>
-        <v>-1600</v>
+        <v>-1800</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>48</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="16"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="310">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -962,6 +962,15 @@
   </si>
   <si>
     <t>تحت حساب شراء كيس ايريال صغير</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة الموتور نفخ البلالين وتوسيع فتحة المياه المتصلة بالاوتوماتيك وكانت السبب فى صيق وصول المياه لللاوتوماتيك الذى لم يكن يفصل</t>
+  </si>
+  <si>
+    <t>اكرامية لصبى الصنايعى</t>
+  </si>
+  <si>
+    <t>اكرامية للسباك احمد</t>
   </si>
 </sst>
 </file>
@@ -2174,24 +2183,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="163330304"/>
-        <c:axId val="163356672"/>
+        <c:axId val="162216576"/>
+        <c:axId val="162242944"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="163330304"/>
+        <c:axId val="162216576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163356672"/>
+        <c:crossAx val="162242944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="163356672"/>
+        <c:axId val="162242944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2199,7 +2208,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163330304"/>
+        <c:crossAx val="162216576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7380,7 +7389,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D13"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8012,7 +8021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -15040,8 +15049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15110,11 +15119,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>12907</v>
+        <v>13127</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>6876</v>
+        <v>6656</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15473,7 +15482,7 @@
   <dimension ref="A2:T104"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="M69" sqref="M69"/>
+      <selection activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15508,7 +15517,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>12907</v>
+        <v>13127</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16602,25 +16611,43 @@
       <c r="A65" s="35">
         <v>61</v>
       </c>
-      <c r="B65" s="67"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="52"/>
+      <c r="B65" s="67">
+        <v>45920</v>
+      </c>
+      <c r="C65" s="62">
+        <v>150</v>
+      </c>
+      <c r="D65" s="52" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="18.75">
       <c r="A66" s="35">
         <v>62</v>
       </c>
-      <c r="B66" s="67"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="52"/>
+      <c r="B66" s="67">
+        <v>45920</v>
+      </c>
+      <c r="C66" s="62">
+        <v>50</v>
+      </c>
+      <c r="D66" s="52" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="18.75">
       <c r="A67" s="35">
         <v>63</v>
       </c>
-      <c r="B67" s="67"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="52"/>
+      <c r="B67" s="67">
+        <v>45920</v>
+      </c>
+      <c r="C67" s="62">
+        <v>20</v>
+      </c>
+      <c r="D67" s="52" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="18.75">
       <c r="A68" s="35">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="21"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="312">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -971,6 +971,12 @@
   </si>
   <si>
     <t>اكرامية للسباك احمد</t>
+  </si>
+  <si>
+    <t>تحت حساب كهرباء شهر سبتمبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب كهرباء شهر اغسطس /2025</t>
   </si>
 </sst>
 </file>
@@ -2183,24 +2189,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="162216576"/>
-        <c:axId val="162242944"/>
+        <c:axId val="67185664"/>
+        <c:axId val="67216128"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="162216576"/>
+        <c:axId val="67185664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162242944"/>
+        <c:crossAx val="67216128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="162242944"/>
+        <c:axId val="67216128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,7 +2214,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162216576"/>
+        <c:crossAx val="67185664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15049,7 +15055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -15119,11 +15125,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>13127</v>
+        <v>13238</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>6656</v>
+        <v>6545</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15481,8 +15487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="N69" sqref="N69"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15517,7 +15523,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>13127</v>
+        <v>13238</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16478,7 +16484,7 @@
         <v>125</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18.75">
@@ -16653,9 +16659,15 @@
       <c r="A68" s="35">
         <v>64</v>
       </c>
-      <c r="B68" s="67"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="52"/>
+      <c r="B68" s="67">
+        <v>45922</v>
+      </c>
+      <c r="C68" s="62">
+        <v>111</v>
+      </c>
+      <c r="D68" s="52" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="18.75">
       <c r="A69" s="35">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="314">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -977,6 +977,12 @@
   </si>
   <si>
     <t>تحت حساب كهرباء شهر اغسطس /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة 3شهور 7، 8، 9 / 2025</t>
+  </si>
+  <si>
+    <t>تحت حساب فاتورة المياه عن شهر سبتمبر /2025</t>
   </si>
 </sst>
 </file>
@@ -2189,24 +2195,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="67185664"/>
-        <c:axId val="67216128"/>
+        <c:axId val="165555200"/>
+        <c:axId val="165585664"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="67185664"/>
+        <c:axId val="165555200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67216128"/>
+        <c:crossAx val="165585664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67216128"/>
+        <c:axId val="165585664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,7 +2220,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67185664"/>
+        <c:crossAx val="165555200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10710,7 +10716,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10767,7 +10773,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -10979,7 +10985,9 @@
       <c r="C12" s="58">
         <v>45857</v>
       </c>
-      <c r="D12" s="80"/>
+      <c r="D12" s="80">
+        <v>100</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="80">
         <v>100</v>
@@ -11004,7 +11012,9 @@
       <c r="C13" s="58">
         <v>45941</v>
       </c>
-      <c r="D13" s="80"/>
+      <c r="D13" s="80">
+        <v>100</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="80">
         <v>100</v>
@@ -11029,7 +11039,9 @@
       <c r="C14" s="84">
         <v>45941</v>
       </c>
-      <c r="D14" s="80"/>
+      <c r="D14" s="80">
+        <v>100</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="80">
         <v>100</v>
@@ -11387,8 +11399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView rightToLeft="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11482,7 +11494,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>14180</v>
+        <v>14480</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -12880,12 +12892,22 @@
       <c r="A50" s="52">
         <v>45</v>
       </c>
-      <c r="B50" s="58"/>
-      <c r="C50" s="62"/>
+      <c r="B50" s="58">
+        <v>45923</v>
+      </c>
+      <c r="C50" s="62">
+        <v>300</v>
+      </c>
       <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
+      <c r="E50" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="F50" s="52">
+        <v>1</v>
+      </c>
+      <c r="G50" s="52" t="s">
+        <v>312</v>
+      </c>
       <c r="H50" s="51"/>
       <c r="I50" s="51"/>
       <c r="J50" s="51"/>
@@ -15055,7 +15077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -15121,15 +15143,15 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>14180</v>
+        <v>14480</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>13238</v>
+        <v>13903</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>6545</v>
+        <v>6180</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15487,8 +15509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView rightToLeft="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15523,7 +15545,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>13238</v>
+        <v>13903</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16523,7 +16545,7 @@
         <v>45887</v>
       </c>
       <c r="C58" s="62">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="D58" s="52" t="s">
         <v>301</v>
@@ -16673,17 +16695,29 @@
       <c r="A69" s="35">
         <v>65</v>
       </c>
-      <c r="B69" s="67"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="67">
+        <v>45923</v>
+      </c>
+      <c r="C69" s="62">
+        <v>670</v>
+      </c>
+      <c r="D69" s="52" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="18.75">
       <c r="A70" s="35">
         <v>66</v>
       </c>
-      <c r="B70" s="67"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="52"/>
+      <c r="B70" s="67">
+        <v>45923</v>
+      </c>
+      <c r="C70" s="62">
+        <v>5</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="18.75">
       <c r="A71" s="35">
@@ -22387,7 +22421,7 @@
       </c>
       <c r="C12" s="28">
         <f>Apartment1!D12</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D12" s="28">
         <f>Apartment2!D12</f>
@@ -22449,7 +22483,7 @@
       </c>
       <c r="C13" s="28">
         <f>Apartment1!D13</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D13" s="28">
         <f>Apartment2!D13</f>
@@ -22511,7 +22545,7 @@
       </c>
       <c r="C14" s="28">
         <f>Apartment1!D14</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D14" s="28">
         <f>Apartment2!D14</f>
@@ -23065,12 +23099,12 @@
       </c>
       <c r="C5" s="101">
         <f>Apartment1!D4</f>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="D5" s="102"/>
       <c r="E5" s="104">
         <f>D5-C5</f>
-        <v>-600</v>
+        <v>-900</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>50</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="21"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="316">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -983,6 +983,12 @@
   </si>
   <si>
     <t>تحت حساب فاتورة المياه عن شهر سبتمبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب شراء كيس ايريال كيلو</t>
+  </si>
+  <si>
+    <t>تحت حساب نظافة السلم لام احمد عن شهر سبتمبر /2025</t>
   </si>
 </sst>
 </file>
@@ -2195,24 +2201,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="165555200"/>
-        <c:axId val="165585664"/>
+        <c:axId val="158280704"/>
+        <c:axId val="158311168"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="165555200"/>
+        <c:axId val="158280704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165585664"/>
+        <c:crossAx val="158311168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="165585664"/>
+        <c:axId val="158311168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2220,7 +2226,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165555200"/>
+        <c:crossAx val="158280704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6104,8 +6110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6162,7 +6168,7 @@
       <c r="C4" s="56"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -6450,9 +6456,11 @@
         <v>10</v>
       </c>
       <c r="C15" s="58">
-        <v>45560</v>
-      </c>
-      <c r="D15" s="35"/>
+        <v>45537</v>
+      </c>
+      <c r="D15" s="35">
+        <v>200</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="35">
         <v>200</v>
@@ -8034,7 +8042,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8092,7 +8100,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -8380,9 +8388,11 @@
         <v>10</v>
       </c>
       <c r="C15" s="9">
-        <v>45560</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>45537</v>
+      </c>
+      <c r="D15" s="8">
+        <v>100</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8">
         <v>100</v>
@@ -8716,7 +8726,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8775,7 +8785,7 @@
       <c r="C4" s="69"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -9063,9 +9073,11 @@
         <v>10</v>
       </c>
       <c r="C15" s="70">
-        <v>45560</v>
-      </c>
-      <c r="D15" s="52"/>
+        <v>45537</v>
+      </c>
+      <c r="D15" s="52">
+        <v>100</v>
+      </c>
       <c r="E15" s="52"/>
       <c r="F15" s="52">
         <v>100</v>
@@ -11399,8 +11411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView rightToLeft="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11494,7 +11506,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>14480</v>
+        <v>14880</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -12923,12 +12935,21 @@
       <c r="A51" s="52">
         <v>46</v>
       </c>
-      <c r="B51" s="58"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
+      <c r="B51" s="58">
+        <v>45902</v>
+      </c>
+      <c r="C51" s="62">
+        <v>200</v>
+      </c>
+      <c r="E51" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="52">
+        <v>7</v>
+      </c>
+      <c r="G51" s="52" t="s">
+        <v>245</v>
+      </c>
       <c r="H51" s="2"/>
       <c r="I51" s="51"/>
       <c r="J51" s="51"/>
@@ -12944,12 +12965,22 @@
       <c r="A52" s="52">
         <v>47</v>
       </c>
-      <c r="B52" s="58"/>
-      <c r="C52" s="62"/>
+      <c r="B52" s="58">
+        <v>45902</v>
+      </c>
+      <c r="C52" s="62">
+        <v>100</v>
+      </c>
       <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
+      <c r="E52" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="F52" s="52">
+        <v>4</v>
+      </c>
+      <c r="G52" s="52" t="s">
+        <v>245</v>
+      </c>
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
       <c r="J52" s="51"/>
@@ -12965,12 +12996,22 @@
       <c r="A53" s="52">
         <v>48</v>
       </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="62"/>
+      <c r="B53" s="58">
+        <v>45902</v>
+      </c>
+      <c r="C53" s="62">
+        <v>100</v>
+      </c>
       <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
+      <c r="E53" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="52">
+        <v>3</v>
+      </c>
+      <c r="G53" s="52" t="s">
+        <v>245</v>
+      </c>
       <c r="H53" s="51"/>
       <c r="I53" s="51"/>
       <c r="J53" s="51"/>
@@ -15077,7 +15118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -15143,15 +15184,15 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>14480</v>
+        <v>14880</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>13903</v>
+        <v>14348</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>6180</v>
+        <v>6135</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15509,8 +15550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView rightToLeft="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15545,7 +15586,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>13903</v>
+        <v>14348</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16723,25 +16764,35 @@
       <c r="A71" s="35">
         <v>67</v>
       </c>
-      <c r="B71" s="67"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="52"/>
+      <c r="B71" s="67">
+        <v>45902</v>
+      </c>
+      <c r="C71" s="62">
+        <v>400</v>
+      </c>
+      <c r="D71" s="52" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="18.75">
       <c r="A72" s="35">
         <v>68</v>
       </c>
-      <c r="B72" s="67"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="52"/>
+      <c r="B72" s="67">
+        <v>45902</v>
+      </c>
+      <c r="C72" s="62">
+        <v>45</v>
+      </c>
+      <c r="D72" s="52" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="18.75">
       <c r="A73" s="35">
         <v>69</v>
       </c>
       <c r="B73" s="67"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="52"/>
     </row>
     <row r="74" spans="1:4" ht="18.75">
       <c r="A74" s="35">
@@ -22615,11 +22666,11 @@
       </c>
       <c r="E15" s="28">
         <f>Apartment3!D15</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="28">
         <f>Apartment4!D15</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="28">
         <f>Apartment5!D15</f>
@@ -22631,7 +22682,7 @@
       </c>
       <c r="I15" s="28">
         <f>Apartment7!D15</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J15" s="28">
         <f>Apartment8!D15</f>
@@ -23153,12 +23204,12 @@
       </c>
       <c r="C7" s="101">
         <f>Apartment3!D4</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="D7" s="102"/>
       <c r="E7" s="104">
         <f t="shared" si="0"/>
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>48</v>
@@ -23180,12 +23231,12 @@
       </c>
       <c r="C8" s="101">
         <f>Apartment4!D4</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="D8" s="102"/>
       <c r="E8" s="104">
         <f t="shared" si="0"/>
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>48</v>
@@ -23261,12 +23312,12 @@
       </c>
       <c r="C11" s="101">
         <f>Apartment7!D4</f>
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="D11" s="102"/>
       <c r="E11" s="104">
         <f t="shared" si="0"/>
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>48</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -2201,24 +2201,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="158280704"/>
-        <c:axId val="158311168"/>
+        <c:axId val="64105472"/>
+        <c:axId val="64135936"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="158280704"/>
+        <c:axId val="64105472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158311168"/>
+        <c:crossAx val="64135936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="158311168"/>
+        <c:axId val="64135936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,7 +2226,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158280704"/>
+        <c:crossAx val="64105472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6110,7 +6110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -6456,7 +6456,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="58">
-        <v>45537</v>
+        <v>45567</v>
       </c>
       <c r="D15" s="35">
         <v>200</v>
@@ -8388,7 +8388,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="9">
-        <v>45537</v>
+        <v>45567</v>
       </c>
       <c r="D15" s="8">
         <v>100</v>
@@ -9073,7 +9073,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="70">
-        <v>45537</v>
+        <v>45567</v>
       </c>
       <c r="D15" s="52">
         <v>100</v>
@@ -11412,7 +11412,7 @@
   <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:B53"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12936,7 +12936,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="58">
-        <v>45902</v>
+        <v>45932</v>
       </c>
       <c r="C51" s="62">
         <v>200</v>
@@ -12966,7 +12966,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="58">
-        <v>45902</v>
+        <v>45932</v>
       </c>
       <c r="C52" s="62">
         <v>100</v>
@@ -12997,7 +12997,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="58">
-        <v>45902</v>
+        <v>45932</v>
       </c>
       <c r="C53" s="62">
         <v>100</v>
@@ -15550,8 +15550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16765,7 +16765,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="67">
-        <v>45902</v>
+        <v>45932</v>
       </c>
       <c r="C71" s="62">
         <v>400</v>
@@ -16779,7 +16779,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="67">
-        <v>45902</v>
+        <v>45932</v>
       </c>
       <c r="C72" s="62">
         <v>45</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="319">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -989,6 +989,15 @@
   </si>
   <si>
     <t>تحت حساب نظافة السلم لام احمد عن شهر سبتمبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهور اكتوبر - نوفمبر - ديسمبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهرى يوليو واغسطس /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهرى سبتمبر واكتوبر /2025</t>
   </si>
 </sst>
 </file>
@@ -2201,24 +2210,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64105472"/>
-        <c:axId val="64135936"/>
+        <c:axId val="125053952"/>
+        <c:axId val="125084416"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="64105472"/>
+        <c:axId val="125053952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64135936"/>
+        <c:crossAx val="125084416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="64135936"/>
+        <c:axId val="125084416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,7 +2235,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64105472"/>
+        <c:crossAx val="125053952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9410,8 +9419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9469,7 +9478,7 @@
       <c r="C4" s="83"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -9675,8 +9684,12 @@
       <c r="B12" s="35">
         <v>7</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="52"/>
+      <c r="C12" s="84">
+        <v>45901</v>
+      </c>
+      <c r="D12" s="52">
+        <v>50</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="35">
         <v>50</v>
@@ -9698,8 +9711,12 @@
       <c r="B13" s="35">
         <v>8</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="52"/>
+      <c r="C13" s="84">
+        <v>45901</v>
+      </c>
+      <c r="D13" s="52">
+        <v>50</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="35">
         <v>50</v>
@@ -9721,8 +9738,12 @@
       <c r="B14" s="35">
         <v>9</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="52"/>
+      <c r="C14" s="84">
+        <v>45934</v>
+      </c>
+      <c r="D14" s="52">
+        <v>50</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="35">
         <v>50</v>
@@ -9744,8 +9765,12 @@
       <c r="B15" s="35">
         <v>10</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="52"/>
+      <c r="C15" s="84">
+        <v>45934</v>
+      </c>
+      <c r="D15" s="52">
+        <v>50</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="35">
         <v>50</v>
@@ -10728,7 +10753,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11411,8 +11436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView rightToLeft="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11506,7 +11531,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>14880</v>
+        <v>15680</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -13027,12 +13052,22 @@
       <c r="A54" s="52">
         <v>49</v>
       </c>
-      <c r="B54" s="58"/>
-      <c r="C54" s="62"/>
+      <c r="B54" s="58">
+        <v>45942</v>
+      </c>
+      <c r="C54" s="62">
+        <v>600</v>
+      </c>
       <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
+      <c r="E54" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" s="52">
+        <v>12</v>
+      </c>
+      <c r="G54" s="52" t="s">
+        <v>316</v>
+      </c>
       <c r="H54" s="51"/>
       <c r="I54" s="51"/>
       <c r="J54" s="51"/>
@@ -13048,11 +13083,22 @@
       <c r="A55" s="52">
         <v>50</v>
       </c>
-      <c r="B55" s="58"/>
-      <c r="C55" s="62"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
+      <c r="B55" s="58">
+        <v>45901</v>
+      </c>
+      <c r="C55" s="62">
+        <v>100</v>
+      </c>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="F55" s="52">
+        <v>2</v>
+      </c>
+      <c r="G55" s="52" t="s">
+        <v>317</v>
+      </c>
       <c r="H55" s="51"/>
       <c r="I55" s="51"/>
       <c r="J55" s="51"/>
@@ -13068,12 +13114,22 @@
       <c r="A56" s="52">
         <v>51</v>
       </c>
-      <c r="B56" s="58"/>
-      <c r="C56" s="62"/>
+      <c r="B56" s="58">
+        <v>45934</v>
+      </c>
+      <c r="C56" s="62">
+        <v>100</v>
+      </c>
       <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
+      <c r="E56" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" s="52">
+        <v>2</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>318</v>
+      </c>
       <c r="H56" s="51"/>
       <c r="I56" s="51"/>
       <c r="J56" s="51"/>
@@ -15184,7 +15240,7 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>14880</v>
+        <v>15680</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
@@ -15192,7 +15248,7 @@
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>6135</v>
+        <v>6935</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15550,7 +15606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
@@ -21973,7 +22029,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22476,7 +22532,7 @@
       </c>
       <c r="D12" s="28">
         <f>Apartment2!D12</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E12" s="28">
         <f>Apartment3!D12</f>
@@ -22538,7 +22594,7 @@
       </c>
       <c r="D13" s="28">
         <f>Apartment2!D13</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E13" s="28">
         <f>Apartment3!D13</f>
@@ -22600,7 +22656,7 @@
       </c>
       <c r="D14" s="28">
         <f>Apartment2!D14</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E14" s="28">
         <f>Apartment3!D14</f>
@@ -22662,7 +22718,7 @@
       </c>
       <c r="D15" s="28">
         <f>Apartment2!D15</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E15" s="28">
         <f>Apartment3!D15</f>
@@ -22702,7 +22758,7 @@
       </c>
       <c r="N15" s="28">
         <f>Apartment12!D15</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O15" s="28">
         <f>Apartment13!D15</f>
@@ -22764,7 +22820,7 @@
       </c>
       <c r="N16" s="28">
         <f>Apartment12!D16</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O16" s="28">
         <f>Apartment13!D16</f>
@@ -22826,7 +22882,7 @@
       </c>
       <c r="N17" s="28">
         <f>Apartment12!D17</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O17" s="28">
         <f>Apartment13!D17</f>
@@ -23177,12 +23233,12 @@
       </c>
       <c r="C6" s="101">
         <f>Apartment2!D4</f>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D6" s="102"/>
       <c r="E6" s="104">
         <f t="shared" ref="E6:E18" si="0">D6-C6</f>
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>51</v>
@@ -24390,8 +24446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView rightToLeft="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24449,7 +24505,7 @@
       <c r="C4" s="83"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -24737,9 +24793,11 @@
         <v>10</v>
       </c>
       <c r="C15" s="84">
-        <v>45208</v>
-      </c>
-      <c r="D15" s="35"/>
+        <v>45942</v>
+      </c>
+      <c r="D15" s="35">
+        <v>200</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="35">
         <v>200</v>
@@ -24762,9 +24820,11 @@
         <v>11</v>
       </c>
       <c r="C16" s="84">
-        <v>45208</v>
-      </c>
-      <c r="D16" s="35"/>
+        <v>45942</v>
+      </c>
+      <c r="D16" s="35">
+        <v>200</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="35">
         <v>200</v>
@@ -24787,9 +24847,11 @@
         <v>12</v>
       </c>
       <c r="C17" s="84">
-        <v>45208</v>
-      </c>
-      <c r="D17" s="35"/>
+        <v>45942</v>
+      </c>
+      <c r="D17" s="35">
+        <v>200</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="35">
         <v>200</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="321">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -998,6 +998,12 @@
   </si>
   <si>
     <t>تحت حساب صيانة شهرى سبتمبر واكتوبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب فاتورة المياه عن شهر اكتوبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب نظافة السلم لام احمد عن شهر اكتوبر /2025</t>
   </si>
 </sst>
 </file>
@@ -2210,24 +2216,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="125053952"/>
-        <c:axId val="125084416"/>
+        <c:axId val="157200384"/>
+        <c:axId val="157201920"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="125053952"/>
+        <c:axId val="157200384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125084416"/>
+        <c:crossAx val="157201920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125084416"/>
+        <c:axId val="157201920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2235,7 +2241,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125053952"/>
+        <c:crossAx val="157200384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9419,7 +9425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -15174,7 +15180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -15244,11 +15250,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>14348</v>
+        <v>15578</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>6935</v>
+        <v>5705</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15607,7 +15613,7 @@
   <dimension ref="A2:T104"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15642,7 +15648,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>14348</v>
+        <v>15578</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16848,15 +16854,29 @@
       <c r="A73" s="35">
         <v>69</v>
       </c>
-      <c r="B73" s="67"/>
+      <c r="B73" s="67">
+        <v>45951</v>
+      </c>
+      <c r="C73" s="62">
+        <v>830</v>
+      </c>
+      <c r="D73" s="52" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="18.75">
       <c r="A74" s="35">
         <v>70</v>
       </c>
-      <c r="B74" s="67"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="52"/>
+      <c r="B74" s="67">
+        <v>45952</v>
+      </c>
+      <c r="C74" s="62">
+        <v>400</v>
+      </c>
+      <c r="D74" s="52" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="18.75">
       <c r="A75" s="35">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="21"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="323">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1004,6 +1004,12 @@
   </si>
   <si>
     <t>تحت حساب نظافة السلم لام احمد عن شهر اكتوبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب كهرباء شهر اكتوبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب كهربة خلفية المنزل الشهر اللى فات سبتمبر</t>
   </si>
 </sst>
 </file>
@@ -2216,24 +2222,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="157200384"/>
-        <c:axId val="157201920"/>
+        <c:axId val="168897536"/>
+        <c:axId val="168928000"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="157200384"/>
+        <c:axId val="168897536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157201920"/>
+        <c:crossAx val="168928000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="157201920"/>
+        <c:axId val="168928000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,7 +2247,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157200384"/>
+        <c:crossAx val="168897536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15180,7 +15186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -15250,11 +15256,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>15578</v>
+        <v>15945</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>5705</v>
+        <v>5338</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15612,8 +15618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15648,7 +15654,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>15578</v>
+        <v>15945</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16882,31 +16888,57 @@
       <c r="A75" s="35">
         <v>71</v>
       </c>
-      <c r="B75" s="67"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="52"/>
+      <c r="B75" s="67">
+        <v>45952</v>
+      </c>
+      <c r="C75" s="62">
+        <v>323</v>
+      </c>
+      <c r="D75" s="52" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="76" spans="1:4" ht="18.75">
       <c r="A76" s="35">
         <v>72</v>
       </c>
-      <c r="B76" s="67"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="52"/>
+      <c r="B76" s="67">
+        <v>45952</v>
+      </c>
+      <c r="C76" s="62">
+        <v>4</v>
+      </c>
+      <c r="D76" s="52" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="77" spans="1:4" ht="18.75">
       <c r="A77" s="35">
         <v>73</v>
       </c>
-      <c r="B77" s="67"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="52"/>
+      <c r="B77" s="67">
+        <v>45952</v>
+      </c>
+      <c r="C77" s="62">
+        <v>20</v>
+      </c>
+      <c r="D77" s="52" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="18.75">
       <c r="A78" s="35">
         <v>74</v>
       </c>
-      <c r="B78" s="67"/>
+      <c r="B78" s="67">
+        <v>45952</v>
+      </c>
+      <c r="C78" s="62">
+        <v>20</v>
+      </c>
+      <c r="D78" s="52" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="79" spans="1:4" ht="18.75">
       <c r="A79" s="35">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="324">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1010,6 +1010,9 @@
   </si>
   <si>
     <t>تحت حساب كهربة خلفية المنزل الشهر اللى فات سبتمبر</t>
+  </si>
+  <si>
+    <t>تحت حساب شراء سلم للعمارة من التوحيد والنور</t>
   </si>
 </sst>
 </file>
@@ -2222,24 +2225,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="168897536"/>
-        <c:axId val="168928000"/>
+        <c:axId val="162212864"/>
+        <c:axId val="162243328"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="168897536"/>
+        <c:axId val="162212864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168928000"/>
+        <c:crossAx val="162243328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="168928000"/>
+        <c:axId val="162243328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,7 +2250,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168897536"/>
+        <c:crossAx val="162212864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15186,7 +15189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -15256,11 +15259,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>15945</v>
+        <v>17095</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>5338</v>
+        <v>4188</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15618,7 +15621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
@@ -15654,7 +15657,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>15945</v>
+        <v>17095</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16944,7 +16947,15 @@
       <c r="A79" s="35">
         <v>75</v>
       </c>
-      <c r="B79" s="67"/>
+      <c r="B79" s="67">
+        <v>45958</v>
+      </c>
+      <c r="C79" s="62">
+        <v>1150</v>
+      </c>
+      <c r="D79" s="52" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="18.75">
       <c r="A80" s="35">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="21"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="324">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -526,12 +526,6 @@
     <t>تحت حساب صيانة شهر ديسمبر /2024</t>
   </si>
   <si>
-    <t>تحت حساب صيانة شهر يناير/2024</t>
-  </si>
-  <si>
-    <t>تحت حساب صيانة شهر فبراير/2024</t>
-  </si>
-  <si>
     <t>منال مصطفى</t>
   </si>
   <si>
@@ -1013,6 +1007,12 @@
   </si>
   <si>
     <t>تحت حساب شراء سلم للعمارة من التوحيد والنور</t>
+  </si>
+  <si>
+    <t>ا/سامى</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحت حساب صيانة سنة 2025 بالكامل </t>
   </si>
 </sst>
 </file>
@@ -2225,24 +2225,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="162212864"/>
-        <c:axId val="162243328"/>
+        <c:axId val="153766528"/>
+        <c:axId val="153792896"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="162212864"/>
+        <c:axId val="153766528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162243328"/>
+        <c:crossAx val="153792896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="162243328"/>
+        <c:axId val="153792896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,7 +2250,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162212864"/>
+        <c:crossAx val="153766528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4082,7 +4082,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -4385,7 +4385,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -4793,7 +4793,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -4827,7 +4827,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -5572,7 +5572,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -5599,7 +5599,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -5626,7 +5626,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -5653,7 +5653,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -5680,7 +5680,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -5707,7 +5707,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -5734,7 +5734,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -5834,7 +5834,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -5857,7 +5857,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -6135,7 +6135,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6192,7 +6192,7 @@
       <c r="C4" s="56"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -6247,7 +6247,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -6274,7 +6274,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -6301,7 +6301,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -6328,7 +6328,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -6355,7 +6355,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -6382,7 +6382,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -6409,7 +6409,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -6436,7 +6436,7 @@
         <v>200</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -6463,7 +6463,7 @@
         <v>200</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -6490,7 +6490,7 @@
         <v>200</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -6509,13 +6509,15 @@
       <c r="C16" s="58">
         <v>45597</v>
       </c>
-      <c r="D16" s="35"/>
+      <c r="D16" s="35">
+        <v>200</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="35">
         <v>200</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -7433,7 +7435,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7490,7 +7492,7 @@
       <c r="C4" s="83"/>
       <c r="D4" s="87">
         <f>SUM(D6:D2001)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -7535,15 +7537,17 @@
         <v>1</v>
       </c>
       <c r="C6" s="84">
-        <v>44957</v>
-      </c>
-      <c r="D6" s="88"/>
+        <v>45970</v>
+      </c>
+      <c r="D6" s="88">
+        <v>200</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8">
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -7558,15 +7562,17 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="84">
-        <v>45000</v>
-      </c>
-      <c r="D7" s="88"/>
+        <v>45970</v>
+      </c>
+      <c r="D7" s="88">
+        <v>200</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8">
         <v>200</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -7581,9 +7587,11 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="84">
-        <v>45535</v>
-      </c>
-      <c r="D8" s="88"/>
+        <v>45970</v>
+      </c>
+      <c r="D8" s="88">
+        <v>200</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8">
         <v>200</v>
@@ -7604,9 +7612,11 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="84">
-        <v>45535</v>
-      </c>
-      <c r="D9" s="88"/>
+        <v>45970</v>
+      </c>
+      <c r="D9" s="88">
+        <v>200</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8">
         <v>200</v>
@@ -7627,9 +7637,11 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="84">
-        <v>45535</v>
-      </c>
-      <c r="D10" s="88"/>
+        <v>45970</v>
+      </c>
+      <c r="D10" s="88">
+        <v>200</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8">
         <v>200</v>
@@ -7650,9 +7662,11 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="84">
-        <v>45535</v>
-      </c>
-      <c r="D11" s="88"/>
+        <v>45970</v>
+      </c>
+      <c r="D11" s="88">
+        <v>200</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8">
         <v>200</v>
@@ -7673,9 +7687,11 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="84">
-        <v>45535</v>
-      </c>
-      <c r="D12" s="88"/>
+        <v>45970</v>
+      </c>
+      <c r="D12" s="88">
+        <v>200</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8">
         <v>200</v>
@@ -7696,9 +7712,11 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="84">
-        <v>45535</v>
-      </c>
-      <c r="D13" s="88"/>
+        <v>45970</v>
+      </c>
+      <c r="D13" s="88">
+        <v>200</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8">
         <v>200</v>
@@ -7718,8 +7736,12 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="88"/>
+      <c r="C14" s="84">
+        <v>45970</v>
+      </c>
+      <c r="D14" s="88">
+        <v>200</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8">
         <v>200</v>
@@ -7739,8 +7761,12 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="88"/>
+      <c r="C15" s="84">
+        <v>45970</v>
+      </c>
+      <c r="D15" s="88">
+        <v>200</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8">
         <v>200</v>
@@ -7760,8 +7786,12 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="88"/>
+      <c r="C16" s="84">
+        <v>45970</v>
+      </c>
+      <c r="D16" s="88">
+        <v>200</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8">
         <v>200</v>
@@ -7781,8 +7811,12 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="88"/>
+      <c r="C17" s="84">
+        <v>45970</v>
+      </c>
+      <c r="D17" s="88">
+        <v>200</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8">
         <v>200</v>
@@ -8066,7 +8100,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8124,7 +8158,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -8314,7 +8348,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -8341,7 +8375,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -8368,7 +8402,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -8395,7 +8429,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -8422,7 +8456,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -8439,15 +8473,17 @@
         <v>11</v>
       </c>
       <c r="C16" s="9">
-        <v>45597</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>45970</v>
+      </c>
+      <c r="D16" s="8">
+        <v>100</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8">
         <v>100</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -8464,7 +8500,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="70">
-        <v>45633</v>
+        <v>45992</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -8472,7 +8508,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -8749,8 +8785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView rightToLeft="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8809,7 +8845,7 @@
       <c r="C4" s="69"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -8999,7 +9035,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -9026,7 +9062,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -9053,7 +9089,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -9080,7 +9116,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -9097,7 +9133,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="70">
-        <v>45567</v>
+        <v>45932</v>
       </c>
       <c r="D15" s="52">
         <v>100</v>
@@ -9107,7 +9143,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -9124,15 +9160,17 @@
         <v>11</v>
       </c>
       <c r="C16" s="70">
-        <v>45597</v>
-      </c>
-      <c r="D16" s="52"/>
+        <v>45970</v>
+      </c>
+      <c r="D16" s="52">
+        <v>100</v>
+      </c>
       <c r="E16" s="52"/>
       <c r="F16" s="52">
         <v>100</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -9149,7 +9187,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="70">
-        <v>45633</v>
+        <v>45992</v>
       </c>
       <c r="D17" s="52"/>
       <c r="E17" s="52"/>
@@ -9157,7 +9195,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -9548,7 +9586,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -9575,7 +9613,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -9602,7 +9640,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -9629,7 +9667,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -9656,7 +9694,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -9683,7 +9721,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -9710,7 +9748,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -9737,7 +9775,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -9764,7 +9802,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -9791,7 +9829,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -9814,7 +9852,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -9837,7 +9875,7 @@
         <v>50</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -10131,7 +10169,7 @@
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
       <c r="C2" s="112" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D2" s="112"/>
       <c r="E2" s="112"/>
@@ -10149,7 +10187,7 @@
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="90"/>
       <c r="F3" s="113" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G3" s="113"/>
       <c r="H3" s="113"/>
@@ -10188,7 +10226,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75">
@@ -10212,12 +10250,12 @@
         <v>45736</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75">
@@ -10241,12 +10279,12 @@
         <v>45733</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75">
@@ -10297,7 +10335,7 @@
         <v>45733</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -10324,7 +10362,7 @@
         <v>45733</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -10376,7 +10414,7 @@
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -10403,11 +10441,11 @@
         <v>45733</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -10432,7 +10470,7 @@
         <v>45733</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -10486,7 +10524,7 @@
         <v>45733</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -10540,7 +10578,7 @@
         <v>45733</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -10567,7 +10605,7 @@
         <v>45733</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -10833,7 +10871,7 @@
         <v>1200</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="56.25">
@@ -10883,7 +10921,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -10910,7 +10948,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -10937,7 +10975,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -10964,7 +11002,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -10991,7 +11029,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -11018,7 +11056,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -11045,7 +11083,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -11072,7 +11110,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -11099,7 +11137,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -11124,7 +11162,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -11149,7 +11187,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -11174,7 +11212,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -11451,8 +11489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView rightToLeft="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11469,55 +11507,55 @@
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
       <c r="A2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="110" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="110" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="D2" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="E2" s="110" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="F2" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="G2" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="H2" s="110" t="s">
         <v>199</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="I2" s="110" t="s">
         <v>200</v>
       </c>
-      <c r="H2" s="110" t="s">
+      <c r="J2" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="K2" s="110" t="s">
         <v>202</v>
       </c>
-      <c r="J2" s="110" t="s">
+      <c r="L2" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="K2" s="110" t="s">
+      <c r="M2" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="L2" s="110" t="s">
+      <c r="N2" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="M2" s="110" t="s">
+      <c r="O2" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="N2" s="110" t="s">
+      <c r="P2" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="O2" s="110" t="s">
+      <c r="Q2" s="110" t="s">
         <v>208</v>
-      </c>
-      <c r="P2" s="110" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q2" s="110" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="26.25">
@@ -11546,7 +11584,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>15680</v>
+        <v>18480</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -11610,7 +11648,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -11640,7 +11678,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -11665,13 +11703,13 @@
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F8" s="52">
         <v>4</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -11702,7 +11740,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -11726,13 +11764,13 @@
         <v>200</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F10" s="52">
         <v>8</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -11762,7 +11800,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -11787,13 +11825,13 @@
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F12" s="52">
         <v>4</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -11824,7 +11862,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -11849,13 +11887,13 @@
       </c>
       <c r="D14" s="52"/>
       <c r="E14" s="52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F14" s="52">
         <v>2</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -11879,13 +11917,13 @@
         <v>400</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F15" s="52">
         <v>8</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -11915,7 +11953,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -11940,13 +11978,13 @@
       </c>
       <c r="D17" s="52"/>
       <c r="E17" s="52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F17" s="52">
         <v>4</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -11977,7 +12015,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -12002,13 +12040,13 @@
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F19" s="52">
         <v>1</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -12032,11 +12070,11 @@
         <v>2200</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F20" s="52"/>
       <c r="G20" s="52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -12067,7 +12105,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -12097,7 +12135,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -12122,13 +12160,13 @@
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F23" s="52">
         <v>4</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -12159,7 +12197,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -12184,13 +12222,13 @@
       </c>
       <c r="D25" s="52"/>
       <c r="E25" s="52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F25" s="52">
         <v>2</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -12215,13 +12253,13 @@
       </c>
       <c r="D26" s="52"/>
       <c r="E26" s="52" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F26" s="52">
         <v>10</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -12251,7 +12289,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -12276,13 +12314,13 @@
       </c>
       <c r="D28" s="52"/>
       <c r="E28" s="52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F28" s="52">
         <v>4</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -12313,7 +12351,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -12338,13 +12376,13 @@
       </c>
       <c r="D30" s="52"/>
       <c r="E30" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" s="52" t="s">
         <v>274</v>
-      </c>
-      <c r="F30" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>276</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -12368,13 +12406,13 @@
         <v>400</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F31" s="52">
         <v>8</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -12404,7 +12442,7 @@
         <v>7</v>
       </c>
       <c r="G32" s="52" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -12429,13 +12467,13 @@
       </c>
       <c r="D33" s="52"/>
       <c r="E33" s="52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F33" s="52">
         <v>4</v>
       </c>
       <c r="G33" s="52" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -12466,7 +12504,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="52" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -12491,13 +12529,13 @@
       </c>
       <c r="D35" s="52"/>
       <c r="E35" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F35" s="52">
         <v>1</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
@@ -12522,13 +12560,13 @@
       </c>
       <c r="D36" s="52"/>
       <c r="E36" s="52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F36" s="52">
         <v>2</v>
       </c>
       <c r="G36" s="52" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H36" s="51"/>
       <c r="I36" s="51"/>
@@ -12553,13 +12591,13 @@
       </c>
       <c r="D37" s="52"/>
       <c r="E37" s="52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F37" s="52">
         <v>9</v>
       </c>
       <c r="G37" s="52" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
@@ -12589,7 +12627,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="52" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H38" s="51"/>
       <c r="I38" s="51"/>
@@ -12614,13 +12652,13 @@
       </c>
       <c r="D39" s="52"/>
       <c r="E39" s="52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F39" s="52">
         <v>4</v>
       </c>
       <c r="G39" s="52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H39" s="51"/>
       <c r="I39" s="51"/>
@@ -12651,7 +12689,7 @@
         <v>3</v>
       </c>
       <c r="G40" s="52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H40" s="51"/>
       <c r="I40" s="51"/>
@@ -12682,7 +12720,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="52" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="51"/>
@@ -12706,13 +12744,13 @@
         <v>400</v>
       </c>
       <c r="E42" s="52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F42" s="52">
         <v>8</v>
       </c>
       <c r="G42" s="52" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -12737,13 +12775,13 @@
       </c>
       <c r="D43" s="52"/>
       <c r="E43" s="52" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -12773,7 +12811,7 @@
         <v>7</v>
       </c>
       <c r="G44" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -12798,13 +12836,13 @@
       </c>
       <c r="D45" s="52"/>
       <c r="E45" s="52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F45" s="52">
         <v>4</v>
       </c>
       <c r="G45" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -12835,7 +12873,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
@@ -12865,7 +12903,7 @@
         <v>7</v>
       </c>
       <c r="G47" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H47" s="51"/>
       <c r="I47" s="51"/>
@@ -12890,13 +12928,13 @@
       </c>
       <c r="D48" s="52"/>
       <c r="E48" s="52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F48" s="52">
         <v>4</v>
       </c>
       <c r="G48" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H48" s="51"/>
       <c r="I48" s="51"/>
@@ -12927,7 +12965,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H49" s="51"/>
       <c r="I49" s="51"/>
@@ -12952,13 +12990,13 @@
       </c>
       <c r="D50" s="52"/>
       <c r="E50" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F50" s="52">
         <v>1</v>
       </c>
       <c r="G50" s="52" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H50" s="51"/>
       <c r="I50" s="51"/>
@@ -12988,7 +13026,7 @@
         <v>7</v>
       </c>
       <c r="G51" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="51"/>
@@ -13013,13 +13051,13 @@
       </c>
       <c r="D52" s="52"/>
       <c r="E52" s="52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F52" s="52">
         <v>4</v>
       </c>
       <c r="G52" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
@@ -13050,7 +13088,7 @@
         <v>3</v>
       </c>
       <c r="G53" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H53" s="51"/>
       <c r="I53" s="51"/>
@@ -13081,7 +13119,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="52" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H54" s="51"/>
       <c r="I54" s="51"/>
@@ -13106,13 +13144,13 @@
       </c>
       <c r="D55" s="52"/>
       <c r="E55" s="52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F55" s="52">
         <v>2</v>
       </c>
       <c r="G55" s="52" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H55" s="51"/>
       <c r="I55" s="51"/>
@@ -13137,13 +13175,13 @@
       </c>
       <c r="D56" s="52"/>
       <c r="E56" s="52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F56" s="52">
         <v>2</v>
       </c>
       <c r="G56" s="52" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H56" s="51"/>
       <c r="I56" s="51"/>
@@ -13160,12 +13198,22 @@
       <c r="A57" s="52">
         <v>52</v>
       </c>
-      <c r="B57" s="58"/>
-      <c r="C57" s="62"/>
+      <c r="B57" s="58">
+        <v>45970</v>
+      </c>
+      <c r="C57" s="62">
+        <v>2400</v>
+      </c>
       <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
+      <c r="E57" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="F57" s="52">
+        <v>5</v>
+      </c>
+      <c r="G57" s="52" t="s">
+        <v>323</v>
+      </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -13181,12 +13229,21 @@
       <c r="A58" s="52">
         <v>53</v>
       </c>
-      <c r="B58" s="58"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
+      <c r="B58" s="58">
+        <v>45970</v>
+      </c>
+      <c r="C58" s="62">
+        <v>200</v>
+      </c>
+      <c r="E58" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="52">
+        <v>7</v>
+      </c>
+      <c r="G58" s="52" t="s">
+        <v>244</v>
+      </c>
       <c r="H58" s="51"/>
       <c r="I58" s="51"/>
       <c r="J58" s="51"/>
@@ -13202,12 +13259,22 @@
       <c r="A59" s="52">
         <v>54</v>
       </c>
-      <c r="B59" s="58"/>
-      <c r="C59" s="62"/>
+      <c r="B59" s="58">
+        <v>45970</v>
+      </c>
+      <c r="C59" s="62">
+        <v>100</v>
+      </c>
       <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52"/>
+      <c r="E59" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="F59" s="52">
+        <v>4</v>
+      </c>
+      <c r="G59" s="52" t="s">
+        <v>244</v>
+      </c>
       <c r="H59" s="51"/>
       <c r="I59" s="51"/>
       <c r="J59" s="51"/>
@@ -13223,12 +13290,22 @@
       <c r="A60" s="52">
         <v>55</v>
       </c>
-      <c r="B60" s="58"/>
-      <c r="C60" s="62"/>
+      <c r="B60" s="58">
+        <v>45970</v>
+      </c>
+      <c r="C60" s="62">
+        <v>100</v>
+      </c>
       <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
+      <c r="E60" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="52">
+        <v>3</v>
+      </c>
+      <c r="G60" s="52" t="s">
+        <v>244</v>
+      </c>
       <c r="H60" s="51"/>
       <c r="I60" s="51"/>
       <c r="J60" s="51"/>
@@ -15189,8 +15266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15222,7 +15299,7 @@
     </row>
     <row r="3" spans="1:15" ht="18.75">
       <c r="B3" s="48" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C3" s="74">
         <v>5603</v>
@@ -15255,7 +15332,7 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>15680</v>
+        <v>18480</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
@@ -15263,7 +15340,7 @@
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>4188</v>
+        <v>6988</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15621,7 +15698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
@@ -15694,7 +15771,7 @@
         <v>150</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
@@ -15716,7 +15793,7 @@
         <v>111</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -15740,7 +15817,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -15764,7 +15841,7 @@
         <v>570</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -15788,7 +15865,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
@@ -15810,7 +15887,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -15834,7 +15911,7 @@
         <v>400</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -15858,7 +15935,7 @@
         <v>100</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -15876,7 +15953,7 @@
         <v>66</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="S13">
         <v>4</v>
@@ -15893,7 +15970,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -15910,7 +15987,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -15933,7 +16010,7 @@
         <v>570</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S16">
         <v>6</v>
@@ -15950,7 +16027,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -15973,7 +16050,7 @@
         <v>400</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -15996,7 +16073,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -16015,7 +16092,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -16042,7 +16119,7 @@
         <v>2450</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -16065,7 +16142,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -16088,7 +16165,7 @@
         <v>570</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -16111,7 +16188,7 @@
         <v>61</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -16134,7 +16211,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -16154,7 +16231,7 @@
         <v>400</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -16171,7 +16248,7 @@
         <v>60</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -16194,7 +16271,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -16214,7 +16291,7 @@
         <v>200</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -16234,7 +16311,7 @@
         <v>136</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -16254,7 +16331,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -16274,7 +16351,7 @@
         <v>570</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -16294,7 +16371,7 @@
         <v>400</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -16317,7 +16394,7 @@
         <v>100</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -16337,7 +16414,7 @@
         <v>20</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="18.75">
@@ -16351,7 +16428,7 @@
         <v>136</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="18.75">
@@ -16365,7 +16442,7 @@
         <v>20</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="18.75">
@@ -16379,7 +16456,7 @@
         <v>670</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="18.75">
@@ -16393,7 +16470,7 @@
         <v>40</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="18.75">
@@ -16407,7 +16484,7 @@
         <v>400</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -16422,7 +16499,7 @@
         <v>670</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="18.75">
@@ -16436,7 +16513,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="18.75">
@@ -16450,7 +16527,7 @@
         <v>68</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="18.75">
@@ -16464,7 +16541,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="18.75">
@@ -16478,7 +16555,7 @@
         <v>20</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="18.75">
@@ -16492,7 +16569,7 @@
         <v>400</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="18.75">
@@ -16506,7 +16583,7 @@
         <v>126</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="18.75">
@@ -16520,7 +16597,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75">
@@ -16534,7 +16611,7 @@
         <v>680</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.75">
@@ -16548,7 +16625,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18.75">
@@ -16562,7 +16639,7 @@
         <v>130</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="18.75">
@@ -16576,7 +16653,7 @@
         <v>400</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="18.75">
@@ -16590,7 +16667,7 @@
         <v>100</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="18.75">
@@ -16604,7 +16681,7 @@
         <v>20</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18.75">
@@ -16618,7 +16695,7 @@
         <v>125</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18.75">
@@ -16632,7 +16709,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18.75">
@@ -16646,7 +16723,7 @@
         <v>20</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18.75">
@@ -16660,7 +16737,7 @@
         <v>670</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18.75">
@@ -16674,7 +16751,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="18.75">
@@ -16688,7 +16765,7 @@
         <v>25</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18.75">
@@ -16702,7 +16779,7 @@
         <v>25</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18.75">
@@ -16716,7 +16793,7 @@
         <v>400</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18.75">
@@ -16730,7 +16807,7 @@
         <v>10</v>
       </c>
       <c r="D63" s="52" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="18.75">
@@ -16744,7 +16821,7 @@
         <v>15</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="18.75">
@@ -16758,7 +16835,7 @@
         <v>150</v>
       </c>
       <c r="D65" s="52" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18.75">
@@ -16772,7 +16849,7 @@
         <v>50</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18.75">
@@ -16786,7 +16863,7 @@
         <v>20</v>
       </c>
       <c r="D67" s="52" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18.75">
@@ -16800,7 +16877,7 @@
         <v>111</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="18.75">
@@ -16814,7 +16891,7 @@
         <v>670</v>
       </c>
       <c r="D69" s="52" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="18.75">
@@ -16828,7 +16905,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="52" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="18.75">
@@ -16842,7 +16919,7 @@
         <v>400</v>
       </c>
       <c r="D71" s="52" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="18.75">
@@ -16856,7 +16933,7 @@
         <v>45</v>
       </c>
       <c r="D72" s="52" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="18.75">
@@ -16870,7 +16947,7 @@
         <v>830</v>
       </c>
       <c r="D73" s="52" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="18.75">
@@ -16884,7 +16961,7 @@
         <v>400</v>
       </c>
       <c r="D74" s="52" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="18.75">
@@ -16898,7 +16975,7 @@
         <v>323</v>
       </c>
       <c r="D75" s="52" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="18.75">
@@ -16912,7 +16989,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="52" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="18.75">
@@ -16926,7 +17003,7 @@
         <v>20</v>
       </c>
       <c r="D77" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="18.75">
@@ -16940,7 +17017,7 @@
         <v>20</v>
       </c>
       <c r="D78" s="52" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="18.75">
@@ -16954,7 +17031,7 @@
         <v>1150</v>
       </c>
       <c r="D79" s="52" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="18.75">
@@ -17219,7 +17296,7 @@
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
       <c r="C2" s="112" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D2" s="112"/>
       <c r="E2" s="112"/>
@@ -17237,7 +17314,7 @@
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="90"/>
       <c r="F3" s="113" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G3" s="113"/>
       <c r="H3" s="113"/>
@@ -17292,7 +17369,7 @@
       </c>
       <c r="F5" s="53"/>
       <c r="G5" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -17313,7 +17390,7 @@
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -17355,7 +17432,7 @@
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -17376,7 +17453,7 @@
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -17418,7 +17495,7 @@
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -17439,7 +17516,7 @@
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -17460,7 +17537,7 @@
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -17502,7 +17579,7 @@
       </c>
       <c r="F15" s="53"/>
       <c r="G15" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -17544,7 +17621,7 @@
       </c>
       <c r="F17" s="53"/>
       <c r="G17" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -17565,7 +17642,7 @@
       </c>
       <c r="F18" s="53"/>
       <c r="G18" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -22235,7 +22312,7 @@
       </c>
       <c r="G6" s="28">
         <f>Apartment5!D6</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H6" s="28">
         <f>Apartment6!D6</f>
@@ -22297,7 +22374,7 @@
       </c>
       <c r="G7" s="28">
         <f>Apartment5!D7</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H7" s="28">
         <f>Apartment6!D7</f>
@@ -22359,7 +22436,7 @@
       </c>
       <c r="G8" s="28">
         <f>Apartment5!D8</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H8" s="28">
         <f>Apartment6!D8</f>
@@ -22421,7 +22498,7 @@
       </c>
       <c r="G9" s="28">
         <f>Apartment5!D9</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H9" s="28">
         <f>Apartment6!D9</f>
@@ -22483,7 +22560,7 @@
       </c>
       <c r="G10" s="28">
         <f>Apartment5!D10</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H10" s="28">
         <f>Apartment6!D10</f>
@@ -22545,7 +22622,7 @@
       </c>
       <c r="G11" s="28">
         <f>Apartment5!D11</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H11" s="28">
         <f>Apartment6!D11</f>
@@ -22607,7 +22684,7 @@
       </c>
       <c r="G12" s="28">
         <f>Apartment5!D12</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H12" s="28">
         <f>Apartment6!D12</f>
@@ -22669,7 +22746,7 @@
       </c>
       <c r="G13" s="28">
         <f>Apartment5!D13</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H13" s="28">
         <f>Apartment6!D13</f>
@@ -22731,7 +22808,7 @@
       </c>
       <c r="G14" s="28">
         <f>Apartment5!D14</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H14" s="28">
         <f>Apartment6!D14</f>
@@ -22793,7 +22870,7 @@
       </c>
       <c r="G15" s="28">
         <f>Apartment5!D15</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H15" s="28">
         <f>Apartment6!D15</f>
@@ -22847,15 +22924,15 @@
       </c>
       <c r="E16" s="28">
         <f>Apartment3!D16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F16" s="28">
         <f>Apartment4!D16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G16" s="28">
         <f>Apartment5!D16</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H16" s="28">
         <f>Apartment6!D16</f>
@@ -22863,7 +22940,7 @@
       </c>
       <c r="I16" s="28">
         <f>Apartment7!D16</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J16" s="28">
         <f>Apartment8!D16</f>
@@ -22917,7 +22994,7 @@
       </c>
       <c r="G17" s="28">
         <f>Apartment5!D17</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H17" s="28">
         <f>Apartment6!D17</f>
@@ -23323,12 +23400,12 @@
       </c>
       <c r="C7" s="101">
         <f>Apartment3!D4</f>
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D7" s="102"/>
       <c r="E7" s="104">
         <f t="shared" si="0"/>
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>48</v>
@@ -23350,12 +23427,12 @@
       </c>
       <c r="C8" s="101">
         <f>Apartment4!D4</f>
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="D8" s="102"/>
       <c r="E8" s="104">
         <f t="shared" si="0"/>
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>48</v>
@@ -23377,12 +23454,12 @@
       </c>
       <c r="C9" s="101">
         <f>Apartment5!D4</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="D9" s="102"/>
       <c r="E9" s="104">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>119</v>
@@ -23431,12 +23508,12 @@
       </c>
       <c r="C11" s="101">
         <f>Apartment7!D4</f>
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="D11" s="102"/>
       <c r="E11" s="104">
         <f t="shared" si="0"/>
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>48</v>
@@ -23945,7 +24022,7 @@
         <v>85</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -24623,7 +24700,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -25665,7 +25742,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="2"/>
       <c r="I21" s="116" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J21" s="116"/>
       <c r="K21" s="116"/>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="326">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1013,6 +1013,12 @@
   </si>
   <si>
     <t xml:space="preserve">تحت حساب صيانة سنة 2025 بالكامل </t>
+  </si>
+  <si>
+    <t>تحت حساب الكهربائي لتركيب واسبدال طبق الكهرباء 40 وات بمدخل العمارة</t>
+  </si>
+  <si>
+    <t>تحت حساب شراء طبق 40 وات لتركيبها بمدخل العمارة</t>
   </si>
 </sst>
 </file>
@@ -2225,24 +2231,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="153766528"/>
-        <c:axId val="153792896"/>
+        <c:axId val="164572160"/>
+        <c:axId val="164606720"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="153766528"/>
+        <c:axId val="164572160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153792896"/>
+        <c:crossAx val="164606720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="153792896"/>
+        <c:axId val="164606720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,7 +2256,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153766528"/>
+        <c:crossAx val="164572160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15266,7 +15272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -15336,11 +15342,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>17095</v>
+        <v>17395</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>6988</v>
+        <v>6688</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15698,8 +15704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView rightToLeft="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15734,7 +15740,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>17095</v>
+        <v>17395</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -17038,92 +17044,108 @@
       <c r="A80" s="35">
         <v>76</v>
       </c>
-      <c r="B80" s="67"/>
-    </row>
-    <row r="81" spans="1:2" ht="18.75">
+      <c r="B80" s="67">
+        <v>45971</v>
+      </c>
+      <c r="C80" s="62">
+        <v>150</v>
+      </c>
+      <c r="D80" s="52" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="18.75">
       <c r="A81" s="35">
         <v>77</v>
       </c>
-      <c r="B81" s="67"/>
-    </row>
-    <row r="82" spans="1:2" ht="18.75">
+      <c r="B81" s="67">
+        <v>45971</v>
+      </c>
+      <c r="C81" s="62">
+        <v>150</v>
+      </c>
+      <c r="D81" s="52" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="18.75">
       <c r="A82" s="35">
         <v>78</v>
       </c>
       <c r="B82" s="67"/>
     </row>
-    <row r="83" spans="1:2" ht="18.75">
+    <row r="83" spans="1:4" ht="18.75">
       <c r="A83" s="35">
         <v>79</v>
       </c>
       <c r="B83" s="67"/>
     </row>
-    <row r="84" spans="1:2" ht="18.75">
+    <row r="84" spans="1:4" ht="18.75">
       <c r="A84" s="35">
         <v>80</v>
       </c>
       <c r="B84" s="67"/>
     </row>
-    <row r="85" spans="1:2" ht="18.75">
+    <row r="85" spans="1:4" ht="18.75">
       <c r="A85" s="35">
         <v>81</v>
       </c>
       <c r="B85" s="67"/>
     </row>
-    <row r="86" spans="1:2" ht="18.75">
+    <row r="86" spans="1:4" ht="18.75">
       <c r="A86" s="35">
         <v>82</v>
       </c>
       <c r="B86" s="67"/>
     </row>
-    <row r="87" spans="1:2" ht="18.75">
+    <row r="87" spans="1:4" ht="18.75">
       <c r="A87" s="35">
         <v>83</v>
       </c>
       <c r="B87" s="67"/>
     </row>
-    <row r="88" spans="1:2" ht="18.75">
+    <row r="88" spans="1:4" ht="18.75">
       <c r="A88" s="35">
         <v>84</v>
       </c>
       <c r="B88" s="67"/>
     </row>
-    <row r="89" spans="1:2" ht="18.75">
+    <row r="89" spans="1:4" ht="18.75">
       <c r="A89" s="35">
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="18.75">
+    <row r="90" spans="1:4" ht="18.75">
       <c r="A90" s="35">
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18.75">
+    <row r="91" spans="1:4" ht="18.75">
       <c r="A91" s="35">
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="18.75">
+    <row r="92" spans="1:4" ht="18.75">
       <c r="A92" s="35">
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="18.75">
+    <row r="93" spans="1:4" ht="18.75">
       <c r="A93" s="35">
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="18.75">
+    <row r="94" spans="1:4" ht="18.75">
       <c r="A94" s="35">
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="18.75">
+    <row r="95" spans="1:4" ht="18.75">
       <c r="A95" s="35">
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="18.75">
+    <row r="96" spans="1:4" ht="18.75">
       <c r="A96" s="35">
         <v>92</v>
       </c>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="21"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="328">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1019,6 +1019,12 @@
   </si>
   <si>
     <t>تحت حساب شراء طبق 40 وات لتركيبها بمدخل العمارة</t>
+  </si>
+  <si>
+    <t>تحت حساب شراء طبق الكهرباء القديم لمدخل السلم لحسابى الشخصى</t>
+  </si>
+  <si>
+    <t>10/11//25</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1659,6 +1665,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2231,24 +2240,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="164572160"/>
-        <c:axId val="164606720"/>
+        <c:axId val="156707840"/>
+        <c:axId val="156738304"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="164572160"/>
+        <c:axId val="156707840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164606720"/>
+        <c:crossAx val="156738304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="164606720"/>
+        <c:axId val="156738304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,7 +2265,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164572160"/>
+        <c:crossAx val="156707840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11496,7 +11505,7 @@
   <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13332,7 +13341,6 @@
       <c r="D61" s="52"/>
       <c r="E61" s="52"/>
       <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
       <c r="H61" s="51"/>
       <c r="I61" s="51"/>
       <c r="J61" s="51"/>
@@ -15272,7 +15280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -15342,11 +15350,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>17395</v>
+        <v>17325</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>6688</v>
+        <v>6758</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15704,8 +15712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15740,7 +15748,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>17395</v>
+        <v>17325</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -17072,7 +17080,15 @@
       <c r="A82" s="35">
         <v>78</v>
       </c>
-      <c r="B82" s="67"/>
+      <c r="B82" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="C82" s="124">
+        <v>-70</v>
+      </c>
+      <c r="D82" s="52" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="83" spans="1:4" ht="18.75">
       <c r="A83" s="35">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="329">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1025,6 +1025,9 @@
   </si>
   <si>
     <t>10/11//25</t>
+  </si>
+  <si>
+    <t>تحت حساب شراء لمبتين 25 وات لمدخل العمارة</t>
   </si>
 </sst>
 </file>
@@ -1627,6 +1630,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1665,9 +1671,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2240,24 +2243,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="156707840"/>
-        <c:axId val="156738304"/>
+        <c:axId val="109722240"/>
+        <c:axId val="109748608"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="156707840"/>
+        <c:axId val="109722240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156738304"/>
+        <c:crossAx val="109748608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="156738304"/>
+        <c:axId val="109748608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2265,7 +2268,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156707840"/>
+        <c:crossAx val="109722240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2649,23 +2652,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="91"/>
@@ -3359,23 +3362,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -3999,23 +4002,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="55"/>
@@ -4689,23 +4692,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
     </row>
     <row r="3" spans="1:22" ht="57.75">
       <c r="C3" s="64"/>
@@ -4724,16 +4727,16 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="112" t="s">
+      <c r="O3" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
     </row>
     <row r="4" spans="1:22" ht="18.75">
       <c r="C4" s="56"/>
@@ -4783,12 +4786,12 @@
       <c r="Q5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="118" t="s">
+      <c r="R5" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="121"/>
     </row>
     <row r="6" spans="1:22" ht="18.75">
       <c r="A6" s="8">
@@ -5025,10 +5028,10 @@
         <f>SUM(Q6:Q11)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="121"/>
-      <c r="S12" s="122"/>
-      <c r="T12" s="122"/>
-      <c r="U12" s="123"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="124"/>
     </row>
     <row r="13" spans="1:22" ht="18.75">
       <c r="A13" s="8">
@@ -5489,23 +5492,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="82"/>
@@ -6164,23 +6167,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="64"/>
@@ -6849,23 +6852,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -7464,23 +7467,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="82"/>
@@ -8130,23 +8133,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -8817,23 +8820,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="107"/>
@@ -9503,23 +9506,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="82"/>
@@ -10183,38 +10186,38 @@
   <sheetData>
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="113" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
       <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="90"/>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="114" t="s">
         <v>250</v>
       </c>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
     </row>
     <row r="4" spans="1:17" ht="37.5">
       <c r="A4" s="12" t="s">
@@ -10835,23 +10838,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -15295,21 +15298,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="26.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
     </row>
     <row r="3" spans="1:15" ht="18.75">
       <c r="B3" s="48" t="s">
@@ -15350,11 +15353,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>17325</v>
+        <v>17405</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>6758</v>
+        <v>6678</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15713,7 +15716,7 @@
   <dimension ref="A2:T104"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15726,21 +15729,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="26.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
     </row>
     <row r="3" spans="1:20" ht="18.75">
       <c r="B3" s="65" t="s">
@@ -15748,7 +15751,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>17325</v>
+        <v>17405</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -17083,7 +17086,7 @@
       <c r="B82" s="67" t="s">
         <v>327</v>
       </c>
-      <c r="C82" s="124">
+      <c r="C82" s="111">
         <v>-70</v>
       </c>
       <c r="D82" s="52" t="s">
@@ -17094,7 +17097,15 @@
       <c r="A83" s="35">
         <v>79</v>
       </c>
-      <c r="B83" s="67"/>
+      <c r="B83" s="67">
+        <v>45884</v>
+      </c>
+      <c r="C83" s="62">
+        <v>80</v>
+      </c>
+      <c r="D83" s="52" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="84" spans="1:4" ht="18.75">
       <c r="A84" s="35">
@@ -17333,38 +17344,38 @@
   <sheetData>
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
       <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="90"/>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="114" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
     </row>
     <row r="4" spans="1:17" ht="37.5">
       <c r="A4" s="12" t="s">
@@ -17894,38 +17905,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" ht="26.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="111"/>
-      <c r="AD2" s="111"/>
-      <c r="AE2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
     </row>
     <row r="3" spans="1:32" ht="18.75">
       <c r="B3" s="10"/>
@@ -22222,37 +22233,37 @@
   <sheetData>
     <row r="1" spans="1:20" ht="26.25">
       <c r="B1" s="18"/>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
     </row>
     <row r="2" spans="1:20" ht="26.25">
       <c r="B2" s="18"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
     </row>
     <row r="3" spans="1:20">
       <c r="B3" s="23"/>
@@ -23322,28 +23333,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
     </row>
     <row r="3" spans="1:14" ht="18.75">
       <c r="C3" s="90"/>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
     </row>
     <row r="4" spans="1:14" ht="56.25">
       <c r="A4" s="12" t="s">
@@ -23962,23 +23973,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="97"/>
@@ -24640,23 +24651,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="82"/>
@@ -25328,23 +25339,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="64"/>
@@ -25761,14 +25772,14 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="116" t="s">
+      <c r="I20" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
     </row>
     <row r="21" spans="1:17" ht="23.25">
       <c r="A21" s="8"/>
@@ -25779,14 +25790,14 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="116" t="s">
+      <c r="I21" s="117" t="s">
         <v>296</v>
       </c>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
     </row>
     <row r="22" spans="1:17" ht="18.75">
       <c r="A22" s="8"/>
@@ -25824,13 +25835,13 @@
       <c r="G23" s="54"/>
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="118"/>
       <c r="Q23" s="51"/>
     </row>
     <row r="24" spans="1:17" ht="18.75">
@@ -25845,13 +25856,13 @@
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
       <c r="Q24" s="51"/>
     </row>
     <row r="25" spans="1:17" ht="36" customHeight="1">
@@ -25866,13 +25877,13 @@
       </c>
       <c r="H25" s="54"/>
       <c r="I25" s="54"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
       <c r="Q25" s="51"/>
     </row>
     <row r="26" spans="1:17" ht="23.25">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="331">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1028,6 +1028,12 @@
   </si>
   <si>
     <t>تحت حساب شراء لمبتين 25 وات لمدخل العمارة</t>
+  </si>
+  <si>
+    <t>تحت حساب كهرباء شهر نوفمبر /2025</t>
+  </si>
+  <si>
+    <t>اكرامية المحصل</t>
   </si>
 </sst>
 </file>
@@ -2243,24 +2249,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="109722240"/>
-        <c:axId val="109748608"/>
+        <c:axId val="163863552"/>
+        <c:axId val="164041472"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="109722240"/>
+        <c:axId val="163863552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109748608"/>
+        <c:crossAx val="164041472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="109748608"/>
+        <c:axId val="164041472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,7 +2274,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109722240"/>
+        <c:crossAx val="163863552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15353,11 +15359,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>17405</v>
+        <v>18279</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>6678</v>
+        <v>5804</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15715,8 +15721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15751,7 +15757,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>17405</v>
+        <v>18279</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -17111,19 +17117,43 @@
       <c r="A84" s="35">
         <v>80</v>
       </c>
-      <c r="B84" s="67"/>
+      <c r="B84" s="67">
+        <v>45983</v>
+      </c>
+      <c r="C84" s="62">
+        <v>849</v>
+      </c>
+      <c r="D84" s="52" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="85" spans="1:4" ht="18.75">
       <c r="A85" s="35">
         <v>81</v>
       </c>
-      <c r="B85" s="67"/>
+      <c r="B85" s="67">
+        <v>45983</v>
+      </c>
+      <c r="C85" s="62">
+        <v>20</v>
+      </c>
+      <c r="D85" s="52" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="86" spans="1:4" ht="18.75">
       <c r="A86" s="35">
         <v>82</v>
       </c>
-      <c r="B86" s="67"/>
+      <c r="B86" s="67">
+        <v>45983</v>
+      </c>
+      <c r="C86" s="62">
+        <v>5</v>
+      </c>
+      <c r="D86" s="52" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="87" spans="1:4" ht="18.75">
       <c r="A87" s="35">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="334">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1034,6 +1034,15 @@
   </si>
   <si>
     <t>اكرامية المحصل</t>
+  </si>
+  <si>
+    <t>تحت حساب شراء 5 لمبات لد 9 وات  و 5 لمبات لد 40 وات  الواحدة ب 20 جنيه عن طريق ام احمد</t>
+  </si>
+  <si>
+    <t>تحت حساب شراء 5 لمبات لد 9 وات الواحدة ب 10 جنيه عن طريق ام احمد</t>
+  </si>
+  <si>
+    <t>تحت حساب مصنعية كهربائى لتصليح وتركيب لمبة لد بالدور الثانى والرابع بعد الارضى</t>
   </si>
 </sst>
 </file>
@@ -2249,24 +2258,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="163863552"/>
-        <c:axId val="164041472"/>
+        <c:axId val="169487360"/>
+        <c:axId val="169521920"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="163863552"/>
+        <c:axId val="169487360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164041472"/>
+        <c:crossAx val="169521920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="164041472"/>
+        <c:axId val="169521920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,7 +2283,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163863552"/>
+        <c:crossAx val="169487360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15359,11 +15368,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>18279</v>
+        <v>19509</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>5804</v>
+        <v>4574</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15721,8 +15730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15757,7 +15766,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>18279</v>
+        <v>19509</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -17159,22 +17168,56 @@
       <c r="A87" s="35">
         <v>83</v>
       </c>
-      <c r="B87" s="67"/>
+      <c r="B87" s="67">
+        <v>45983</v>
+      </c>
+      <c r="C87" s="62">
+        <v>50</v>
+      </c>
+      <c r="D87" s="52" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="88" spans="1:4" ht="18.75">
       <c r="A88" s="35">
         <v>84</v>
       </c>
-      <c r="B88" s="67"/>
+      <c r="B88" s="67">
+        <v>45983</v>
+      </c>
+      <c r="C88" s="62">
+        <v>150</v>
+      </c>
+      <c r="D88" s="52" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="89" spans="1:4" ht="18.75">
       <c r="A89" s="35">
         <v>85</v>
       </c>
+      <c r="B89" s="67">
+        <v>45985</v>
+      </c>
+      <c r="C89" s="62">
+        <v>930</v>
+      </c>
+      <c r="D89" s="52" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="90" spans="1:4" ht="18.75">
       <c r="A90" s="35">
         <v>86</v>
+      </c>
+      <c r="B90" s="67">
+        <v>45984</v>
+      </c>
+      <c r="C90" s="62">
+        <v>100</v>
+      </c>
+      <c r="D90" s="52" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="18.75">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="335">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -856,9 +856,6 @@
     <t>حاج/ حسين</t>
   </si>
   <si>
-    <t>تحت حساب صيانة سنة 2025 بالكامل ولم يتم حساب صيانة شقة 6 بالدور الاول</t>
-  </si>
-  <si>
     <t>م/منال</t>
   </si>
   <si>
@@ -1043,6 +1040,12 @@
   </si>
   <si>
     <t>تحت حساب مصنعية كهربائى لتصليح وتركيب لمبة لد بالدور الثانى والرابع بعد الارضى</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهرى نوفمبر وديسمبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة سنة 2025 بالكامل ولم يتم حساب صيانة شقة  10 بالدور الثالث</t>
   </si>
 </sst>
 </file>
@@ -2258,24 +2261,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="169487360"/>
-        <c:axId val="169521920"/>
+        <c:axId val="154545152"/>
+        <c:axId val="154575616"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="169487360"/>
+        <c:axId val="154545152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169521920"/>
+        <c:crossAx val="154575616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="169521920"/>
+        <c:axId val="154575616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,7 +2286,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169487360"/>
+        <c:crossAx val="154545152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4001,8 +4004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView rightToLeft="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4060,7 +4063,7 @@
       <c r="C4" s="69"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -4108,7 +4111,7 @@
         <v>45318</v>
       </c>
       <c r="D6" s="35">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8">
@@ -4135,7 +4138,7 @@
         <v>45318</v>
       </c>
       <c r="D7" s="35">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8">
@@ -4162,7 +4165,7 @@
         <v>45318</v>
       </c>
       <c r="D8" s="35">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8">
@@ -4189,7 +4192,7 @@
         <v>45318</v>
       </c>
       <c r="D9" s="35">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8">
@@ -4216,7 +4219,7 @@
         <v>45318</v>
       </c>
       <c r="D10" s="35">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8">
@@ -4243,7 +4246,7 @@
         <v>45318</v>
       </c>
       <c r="D11" s="35">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8">
@@ -4270,7 +4273,7 @@
         <v>45569</v>
       </c>
       <c r="D12" s="35">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8">
@@ -4297,7 +4300,7 @@
         <v>45569</v>
       </c>
       <c r="D13" s="35">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8">
@@ -4324,7 +4327,7 @@
         <v>45569</v>
       </c>
       <c r="D14" s="35">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8">
@@ -4351,7 +4354,7 @@
         <v>45569</v>
       </c>
       <c r="D15" s="35">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8">
@@ -4378,7 +4381,7 @@
         <v>45569</v>
       </c>
       <c r="D16" s="35">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8">
@@ -4405,7 +4408,7 @@
         <v>45569</v>
       </c>
       <c r="D17" s="35">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8">
@@ -4417,9 +4420,6 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
@@ -6852,14 +6852,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="4.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
@@ -6910,12 +6910,12 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
         <f>SUM(F6:F2001)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="56.25">
@@ -6954,13 +6954,19 @@
       <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="9">
+        <v>45777</v>
+      </c>
+      <c r="D6" s="8">
+        <v>200</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>238</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -6975,13 +6981,19 @@
       <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="53">
+        <v>45777</v>
+      </c>
+      <c r="D7" s="52">
+        <v>200</v>
+      </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8"/>
+      <c r="F7" s="52">
+        <v>200</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>239</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -6996,13 +7008,19 @@
       <c r="B8" s="8">
         <v>3</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="53">
+        <v>45777</v>
+      </c>
+      <c r="D8" s="52">
+        <v>200</v>
+      </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8"/>
+      <c r="F8" s="52">
+        <v>200</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>100</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -7017,13 +7035,19 @@
       <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="53">
+        <v>45777</v>
+      </c>
+      <c r="D9" s="52">
+        <v>200</v>
+      </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8"/>
+      <c r="F9" s="52">
+        <v>200</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>101</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -7038,13 +7062,19 @@
       <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="53">
+        <v>45777</v>
+      </c>
+      <c r="D10" s="52">
+        <v>200</v>
+      </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8"/>
+      <c r="F10" s="52">
+        <v>200</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>102</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -7059,13 +7089,19 @@
       <c r="B11" s="8">
         <v>6</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="53">
+        <v>45777</v>
+      </c>
+      <c r="D11" s="52">
+        <v>200</v>
+      </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8"/>
+      <c r="F11" s="52">
+        <v>200</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>103</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -7080,13 +7116,19 @@
       <c r="B12" s="8">
         <v>7</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="53">
+        <v>45777</v>
+      </c>
+      <c r="D12" s="52">
+        <v>200</v>
+      </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8"/>
+      <c r="F12" s="52">
+        <v>200</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>104</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -7101,13 +7143,19 @@
       <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="53">
+        <v>45777</v>
+      </c>
+      <c r="D13" s="52">
+        <v>200</v>
+      </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8"/>
+      <c r="F13" s="52">
+        <v>200</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>105</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -7122,13 +7170,19 @@
       <c r="B14" s="8">
         <v>9</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="53">
+        <v>45777</v>
+      </c>
+      <c r="D14" s="52">
+        <v>200</v>
+      </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8"/>
+      <c r="F14" s="52">
+        <v>200</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>106</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -7143,13 +7197,19 @@
       <c r="B15" s="8">
         <v>10</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="53">
+        <v>45777</v>
+      </c>
+      <c r="D15" s="52">
+        <v>200</v>
+      </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8"/>
+      <c r="F15" s="52">
+        <v>200</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>107</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -7164,13 +7224,19 @@
       <c r="B16" s="8">
         <v>11</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="53">
+        <v>45777</v>
+      </c>
+      <c r="D16" s="52">
+        <v>200</v>
+      </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8"/>
+      <c r="F16" s="52">
+        <v>200</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>108</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -7185,17 +7251,25 @@
       <c r="B17" s="8">
         <v>12</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="53">
+        <v>45777</v>
+      </c>
+      <c r="D17" s="52">
+        <v>200</v>
+      </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8"/>
+      <c r="F17" s="52">
+        <v>200</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>109</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
@@ -7468,7 +7542,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G6" sqref="G6:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9506,7 +9580,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9564,7 +9638,7 @@
       <c r="C4" s="83"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -9878,8 +9952,12 @@
       <c r="B16" s="35">
         <v>11</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="52"/>
+      <c r="C16" s="84">
+        <v>45985</v>
+      </c>
+      <c r="D16" s="52">
+        <v>50</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="35">
         <v>50</v>
@@ -9901,8 +9979,12 @@
       <c r="B17" s="35">
         <v>12</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="52"/>
+      <c r="C17" s="84">
+        <v>45985</v>
+      </c>
+      <c r="D17" s="52">
+        <v>50</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="35">
         <v>50</v>
@@ -11522,8 +11604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView rightToLeft="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11617,7 +11699,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>18480</v>
+        <v>18580</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -12289,10 +12371,10 @@
         <v>270</v>
       </c>
       <c r="F26" s="52">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -12409,13 +12491,13 @@
       </c>
       <c r="D30" s="52"/>
       <c r="E30" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="F30" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="F30" s="52" t="s">
+      <c r="G30" s="52" t="s">
         <v>273</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>274</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -12445,7 +12527,7 @@
         <v>8</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -12475,7 +12557,7 @@
         <v>7</v>
       </c>
       <c r="G32" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -12506,7 +12588,7 @@
         <v>4</v>
       </c>
       <c r="G33" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -12537,7 +12619,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -12568,7 +12650,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
@@ -12599,7 +12681,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H36" s="51"/>
       <c r="I36" s="51"/>
@@ -12630,7 +12712,7 @@
         <v>9</v>
       </c>
       <c r="G37" s="52" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
@@ -12660,7 +12742,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H38" s="51"/>
       <c r="I38" s="51"/>
@@ -12753,7 +12835,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="51"/>
@@ -12783,7 +12865,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -12808,13 +12890,13 @@
       </c>
       <c r="D43" s="52"/>
       <c r="E43" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="F43" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="F43" s="52" t="s">
-        <v>273</v>
-      </c>
       <c r="G43" s="52" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -13029,7 +13111,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="52" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H50" s="51"/>
       <c r="I50" s="51"/>
@@ -13152,7 +13234,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="52" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H54" s="51"/>
       <c r="I54" s="51"/>
@@ -13183,7 +13265,7 @@
         <v>2</v>
       </c>
       <c r="G55" s="52" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H55" s="51"/>
       <c r="I55" s="51"/>
@@ -13214,7 +13296,7 @@
         <v>2</v>
       </c>
       <c r="G56" s="52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H56" s="51"/>
       <c r="I56" s="51"/>
@@ -13239,13 +13321,13 @@
       </c>
       <c r="D57" s="52"/>
       <c r="E57" s="52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F57" s="52">
         <v>5</v>
       </c>
       <c r="G57" s="52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -13354,11 +13436,22 @@
       <c r="A61" s="52">
         <v>56</v>
       </c>
-      <c r="B61" s="58"/>
-      <c r="C61" s="62"/>
+      <c r="B61" s="58">
+        <v>45985</v>
+      </c>
+      <c r="C61" s="62">
+        <v>100</v>
+      </c>
       <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
+      <c r="E61" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="F61" s="52">
+        <v>2</v>
+      </c>
+      <c r="G61" s="52" t="s">
+        <v>333</v>
+      </c>
       <c r="H61" s="51"/>
       <c r="I61" s="51"/>
       <c r="J61" s="51"/>
@@ -15364,7 +15457,7 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>18480</v>
+        <v>18580</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
@@ -15372,7 +15465,7 @@
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>4574</v>
+        <v>4674</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15730,7 +15823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
@@ -16403,7 +16496,7 @@
         <v>400</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -16460,7 +16553,7 @@
         <v>136</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="18.75">
@@ -16488,7 +16581,7 @@
         <v>670</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="18.75">
@@ -16516,7 +16609,7 @@
         <v>400</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -16531,7 +16624,7 @@
         <v>670</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="18.75">
@@ -16545,7 +16638,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="18.75">
@@ -16559,7 +16652,7 @@
         <v>68</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="18.75">
@@ -16573,7 +16666,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="18.75">
@@ -16601,7 +16694,7 @@
         <v>400</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="18.75">
@@ -16615,7 +16708,7 @@
         <v>126</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="18.75">
@@ -16643,7 +16736,7 @@
         <v>680</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.75">
@@ -16657,7 +16750,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18.75">
@@ -16685,7 +16778,7 @@
         <v>400</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="18.75">
@@ -16699,7 +16792,7 @@
         <v>100</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="18.75">
@@ -16727,7 +16820,7 @@
         <v>125</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18.75">
@@ -16741,7 +16834,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18.75">
@@ -16769,7 +16862,7 @@
         <v>670</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18.75">
@@ -16783,7 +16876,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="18.75">
@@ -16797,7 +16890,7 @@
         <v>25</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18.75">
@@ -16811,7 +16904,7 @@
         <v>25</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18.75">
@@ -16825,7 +16918,7 @@
         <v>400</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18.75">
@@ -16839,7 +16932,7 @@
         <v>10</v>
       </c>
       <c r="D63" s="52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="18.75">
@@ -16853,7 +16946,7 @@
         <v>15</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="18.75">
@@ -16867,7 +16960,7 @@
         <v>150</v>
       </c>
       <c r="D65" s="52" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18.75">
@@ -16881,7 +16974,7 @@
         <v>50</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18.75">
@@ -16895,7 +16988,7 @@
         <v>20</v>
       </c>
       <c r="D67" s="52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18.75">
@@ -16909,7 +17002,7 @@
         <v>111</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="18.75">
@@ -16923,7 +17016,7 @@
         <v>670</v>
       </c>
       <c r="D69" s="52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="18.75">
@@ -16937,7 +17030,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="18.75">
@@ -16951,7 +17044,7 @@
         <v>400</v>
       </c>
       <c r="D71" s="52" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="18.75">
@@ -16965,7 +17058,7 @@
         <v>45</v>
       </c>
       <c r="D72" s="52" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="18.75">
@@ -16979,7 +17072,7 @@
         <v>830</v>
       </c>
       <c r="D73" s="52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="18.75">
@@ -16993,7 +17086,7 @@
         <v>400</v>
       </c>
       <c r="D74" s="52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="18.75">
@@ -17007,7 +17100,7 @@
         <v>323</v>
       </c>
       <c r="D75" s="52" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="18.75">
@@ -17021,7 +17114,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="18.75">
@@ -17049,7 +17142,7 @@
         <v>20</v>
       </c>
       <c r="D78" s="52" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="18.75">
@@ -17063,7 +17156,7 @@
         <v>1150</v>
       </c>
       <c r="D79" s="52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="18.75">
@@ -17077,7 +17170,7 @@
         <v>150</v>
       </c>
       <c r="D80" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="18.75">
@@ -17091,7 +17184,7 @@
         <v>150</v>
       </c>
       <c r="D81" s="52" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="18.75">
@@ -17099,13 +17192,13 @@
         <v>78</v>
       </c>
       <c r="B82" s="67" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C82" s="111">
         <v>-70</v>
       </c>
       <c r="D82" s="52" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="18.75">
@@ -17119,7 +17212,7 @@
         <v>80</v>
       </c>
       <c r="D83" s="52" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="18.75">
@@ -17133,7 +17226,7 @@
         <v>849</v>
       </c>
       <c r="D84" s="52" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="18.75">
@@ -17161,7 +17254,7 @@
         <v>5</v>
       </c>
       <c r="D86" s="52" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="18.75">
@@ -17175,7 +17268,7 @@
         <v>50</v>
       </c>
       <c r="D87" s="52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="18.75">
@@ -17189,7 +17282,7 @@
         <v>150</v>
       </c>
       <c r="D88" s="52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="18.75">
@@ -17203,7 +17296,7 @@
         <v>930</v>
       </c>
       <c r="D89" s="52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="18.75">
@@ -17217,7 +17310,7 @@
         <v>100</v>
       </c>
       <c r="D90" s="52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="18.75">
@@ -22438,7 +22531,7 @@
       </c>
       <c r="H6" s="28">
         <f>Apartment6!D6</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I6" s="28">
         <f>Apartment7!D6</f>
@@ -22454,7 +22547,7 @@
       </c>
       <c r="L6" s="28">
         <f>Apartment10!D6</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M6" s="28">
         <f>Apartment11!D6</f>
@@ -22500,7 +22593,7 @@
       </c>
       <c r="H7" s="28">
         <f>Apartment6!D7</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I7" s="28">
         <f>Apartment7!D7</f>
@@ -22516,7 +22609,7 @@
       </c>
       <c r="L7" s="28">
         <f>Apartment10!D7</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M7" s="28">
         <f>Apartment11!D7</f>
@@ -22562,7 +22655,7 @@
       </c>
       <c r="H8" s="28">
         <f>Apartment6!D8</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I8" s="28">
         <f>Apartment7!D8</f>
@@ -22578,7 +22671,7 @@
       </c>
       <c r="L8" s="28">
         <f>Apartment10!D8</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M8" s="28">
         <f>Apartment11!D8</f>
@@ -22624,7 +22717,7 @@
       </c>
       <c r="H9" s="28">
         <f>Apartment6!D9</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I9" s="28">
         <f>Apartment7!D9</f>
@@ -22640,7 +22733,7 @@
       </c>
       <c r="L9" s="28">
         <f>Apartment10!D9</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M9" s="28">
         <f>Apartment11!D9</f>
@@ -22686,7 +22779,7 @@
       </c>
       <c r="H10" s="28">
         <f>Apartment6!D10</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I10" s="28">
         <f>Apartment7!D10</f>
@@ -22702,7 +22795,7 @@
       </c>
       <c r="L10" s="28">
         <f>Apartment10!D10</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M10" s="28">
         <f>Apartment11!D10</f>
@@ -22748,7 +22841,7 @@
       </c>
       <c r="H11" s="28">
         <f>Apartment6!D11</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I11" s="28">
         <f>Apartment7!D11</f>
@@ -22764,7 +22857,7 @@
       </c>
       <c r="L11" s="28">
         <f>Apartment10!D11</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M11" s="28">
         <f>Apartment11!D11</f>
@@ -22810,7 +22903,7 @@
       </c>
       <c r="H12" s="28">
         <f>Apartment6!D12</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I12" s="28">
         <f>Apartment7!D12</f>
@@ -22826,7 +22919,7 @@
       </c>
       <c r="L12" s="28">
         <f>Apartment10!D12</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M12" s="28">
         <f>Apartment11!D12</f>
@@ -22872,7 +22965,7 @@
       </c>
       <c r="H13" s="28">
         <f>Apartment6!D13</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I13" s="28">
         <f>Apartment7!D13</f>
@@ -22888,7 +22981,7 @@
       </c>
       <c r="L13" s="28">
         <f>Apartment10!D13</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M13" s="28">
         <f>Apartment11!D13</f>
@@ -22934,7 +23027,7 @@
       </c>
       <c r="H14" s="28">
         <f>Apartment6!D14</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I14" s="28">
         <f>Apartment7!D14</f>
@@ -22950,7 +23043,7 @@
       </c>
       <c r="L14" s="28">
         <f>Apartment10!D14</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M14" s="28">
         <f>Apartment11!D14</f>
@@ -22996,7 +23089,7 @@
       </c>
       <c r="H15" s="28">
         <f>Apartment6!D15</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I15" s="28">
         <f>Apartment7!D15</f>
@@ -23012,7 +23105,7 @@
       </c>
       <c r="L15" s="28">
         <f>Apartment10!D15</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M15" s="28">
         <f>Apartment11!D15</f>
@@ -23042,7 +23135,7 @@
       </c>
       <c r="D16" s="28">
         <f>Apartment2!D16</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E16" s="28">
         <f>Apartment3!D16</f>
@@ -23058,7 +23151,7 @@
       </c>
       <c r="H16" s="28">
         <f>Apartment6!D16</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I16" s="28">
         <f>Apartment7!D16</f>
@@ -23074,7 +23167,7 @@
       </c>
       <c r="L16" s="28">
         <f>Apartment10!D16</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M16" s="28">
         <f>Apartment11!D16</f>
@@ -23104,7 +23197,7 @@
       </c>
       <c r="D17" s="28">
         <f>Apartment2!D17</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E17" s="28">
         <f>Apartment3!D17</f>
@@ -23120,7 +23213,7 @@
       </c>
       <c r="H17" s="28">
         <f>Apartment6!D17</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I17" s="28">
         <f>Apartment7!D17</f>
@@ -23136,7 +23229,7 @@
       </c>
       <c r="L17" s="28">
         <f>Apartment10!D17</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M17" s="28">
         <f>Apartment11!D17</f>
@@ -23495,12 +23588,12 @@
       </c>
       <c r="C6" s="101">
         <f>Apartment2!D4</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D6" s="102"/>
       <c r="E6" s="104">
         <f t="shared" ref="E6:E18" si="0">D6-C6</f>
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>51</v>
@@ -23603,12 +23696,12 @@
       </c>
       <c r="C10" s="101">
         <f>Apartment6!D4</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="D10" s="102"/>
       <c r="E10" s="104">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>52</v>
@@ -23711,12 +23804,12 @@
       </c>
       <c r="C14" s="101">
         <f>Apartment10!D4</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="D14" s="102"/>
       <c r="E14" s="104">
         <f t="shared" si="0"/>
-        <v>-2400</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>52</v>
@@ -24144,7 +24237,7 @@
         <v>85</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -25864,7 +25957,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="2"/>
       <c r="I21" s="117" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J21" s="117"/>
       <c r="K21" s="117"/>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="336">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1046,6 +1046,9 @@
   </si>
   <si>
     <t>تحت حساب صيانة سنة 2025 بالكامل ولم يتم حساب صيانة شقة  10 بالدور الثالث</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهرى اغسطس و سبتمبر /2025</t>
   </si>
 </sst>
 </file>
@@ -2261,24 +2264,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="154545152"/>
-        <c:axId val="154575616"/>
+        <c:axId val="159198208"/>
+        <c:axId val="159232768"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="154545152"/>
+        <c:axId val="159198208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154575616"/>
+        <c:crossAx val="159232768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="154575616"/>
+        <c:axId val="159232768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2286,7 +2289,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154545152"/>
+        <c:crossAx val="159198208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5493,7 +5496,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5550,7 +5553,7 @@
       <c r="C4" s="83"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -5784,9 +5787,11 @@
         <v>8</v>
       </c>
       <c r="C13" s="84">
-        <v>45971</v>
-      </c>
-      <c r="D13" s="35"/>
+        <v>45989</v>
+      </c>
+      <c r="D13" s="35">
+        <v>200</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="35">
         <v>200</v>
@@ -5809,9 +5814,11 @@
         <v>9</v>
       </c>
       <c r="C14" s="84">
-        <v>45971</v>
-      </c>
-      <c r="D14" s="35"/>
+        <v>45989</v>
+      </c>
+      <c r="D14" s="35">
+        <v>200</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="35">
         <v>200</v>
@@ -6852,7 +6859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -11604,8 +11611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView rightToLeft="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11699,7 +11706,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>18580</v>
+        <v>18980</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -13467,12 +13474,21 @@
       <c r="A62" s="52">
         <v>57</v>
       </c>
-      <c r="B62" s="58"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
+      <c r="B62" s="58">
+        <v>45989</v>
+      </c>
+      <c r="C62" s="62">
+        <v>400</v>
+      </c>
+      <c r="E62" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="F62" s="52">
+        <v>8</v>
+      </c>
+      <c r="G62" s="52" t="s">
+        <v>335</v>
+      </c>
       <c r="H62" s="51"/>
       <c r="I62" s="51"/>
       <c r="J62" s="51"/>
@@ -15392,7 +15408,7 @@
   <dimension ref="A2:O33"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15457,7 +15473,7 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>18580</v>
+        <v>18980</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
@@ -15465,7 +15481,7 @@
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>4674</v>
+        <v>5074</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15823,7 +15839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
@@ -22973,7 +22989,7 @@
       </c>
       <c r="J13" s="28">
         <f>Apartment8!D13</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K13" s="28">
         <f>Apartment9!D13</f>
@@ -23035,7 +23051,7 @@
       </c>
       <c r="J14" s="28">
         <f>Apartment8!D14</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K14" s="28">
         <f>Apartment9!D14</f>
@@ -23750,12 +23766,12 @@
       </c>
       <c r="C12" s="101">
         <f>Apartment8!D4</f>
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="D12" s="102"/>
       <c r="E12" s="104">
         <f t="shared" si="0"/>
-        <v>-1400</v>
+        <v>-1800</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>120</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="337">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1049,6 +1049,9 @@
   </si>
   <si>
     <t>تحت حساب صيانة شهرى اغسطس و سبتمبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب نظافة السلم لام احمد عن شهر نوفمبر /2025</t>
   </si>
 </sst>
 </file>
@@ -2264,24 +2267,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="159198208"/>
-        <c:axId val="159232768"/>
+        <c:axId val="157035520"/>
+        <c:axId val="157065984"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="159198208"/>
+        <c:axId val="157035520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159232768"/>
+        <c:crossAx val="157065984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="159232768"/>
+        <c:axId val="157065984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,7 +2292,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159198208"/>
+        <c:crossAx val="157035520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6175,7 +6178,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6232,7 +6235,7 @@
       <c r="C4" s="56"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -6574,9 +6577,11 @@
         <v>12</v>
       </c>
       <c r="C17" s="58">
-        <v>45633</v>
-      </c>
-      <c r="D17" s="35"/>
+        <v>45993</v>
+      </c>
+      <c r="D17" s="35">
+        <v>200</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="35">
         <v>200</v>
@@ -8213,8 +8218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8272,7 +8277,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -8613,10 +8618,12 @@
       <c r="B17" s="8">
         <v>12</v>
       </c>
-      <c r="C17" s="70">
-        <v>45992</v>
-      </c>
-      <c r="D17" s="8"/>
+      <c r="C17" s="53">
+        <v>45993</v>
+      </c>
+      <c r="D17" s="8">
+        <v>100</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8">
         <v>100</v>
@@ -8900,7 +8907,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8959,7 +8966,7 @@
       <c r="C4" s="69"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -9303,7 +9310,9 @@
       <c r="C17" s="70">
         <v>45992</v>
       </c>
-      <c r="D17" s="52"/>
+      <c r="D17" s="52">
+        <v>100</v>
+      </c>
       <c r="E17" s="52"/>
       <c r="F17" s="52">
         <v>100</v>
@@ -11611,8 +11620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView rightToLeft="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11706,7 +11715,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>18980</v>
+        <v>19380</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -13504,12 +13513,21 @@
       <c r="A63" s="52">
         <v>58</v>
       </c>
-      <c r="B63" s="58"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
+      <c r="B63" s="58">
+        <v>45993</v>
+      </c>
+      <c r="C63" s="62">
+        <v>200</v>
+      </c>
+      <c r="E63" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" s="52">
+        <v>7</v>
+      </c>
+      <c r="G63" s="52" t="s">
+        <v>230</v>
+      </c>
       <c r="H63" s="51"/>
       <c r="I63" s="51"/>
       <c r="J63" s="51"/>
@@ -13525,11 +13543,22 @@
       <c r="A64" s="52">
         <v>59</v>
       </c>
-      <c r="B64" s="58"/>
-      <c r="C64" s="62"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
+      <c r="B64" s="58">
+        <v>45993</v>
+      </c>
+      <c r="C64" s="62">
+        <v>100</v>
+      </c>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="F64" s="52">
+        <v>4</v>
+      </c>
+      <c r="G64" s="52" t="s">
+        <v>230</v>
+      </c>
       <c r="H64" s="51"/>
       <c r="I64" s="51"/>
       <c r="J64" s="51"/>
@@ -13545,12 +13574,22 @@
       <c r="A65" s="52">
         <v>60</v>
       </c>
-      <c r="B65" s="58"/>
-      <c r="C65" s="62"/>
+      <c r="B65" s="58">
+        <v>45993</v>
+      </c>
+      <c r="C65" s="62">
+        <v>100</v>
+      </c>
       <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
+      <c r="E65" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="52">
+        <v>3</v>
+      </c>
+      <c r="G65" s="52" t="s">
+        <v>230</v>
+      </c>
       <c r="H65" s="51"/>
       <c r="I65" s="51"/>
       <c r="J65" s="51"/>
@@ -15473,15 +15512,15 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>18980</v>
+        <v>19380</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>19509</v>
+        <v>20009</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>5074</v>
+        <v>4974</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15839,8 +15878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView rightToLeft="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15875,7 +15914,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>19509</v>
+        <v>20009</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -17332,6 +17371,15 @@
     <row r="91" spans="1:4" ht="18.75">
       <c r="A91" s="35">
         <v>87</v>
+      </c>
+      <c r="B91" s="67">
+        <v>45901</v>
+      </c>
+      <c r="C91" s="62">
+        <v>500</v>
+      </c>
+      <c r="D91" s="52" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="18.75">
@@ -23217,11 +23265,11 @@
       </c>
       <c r="E17" s="28">
         <f>Apartment3!D17</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="28">
         <f>Apartment4!D17</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="28">
         <f>Apartment5!D17</f>
@@ -23233,7 +23281,7 @@
       </c>
       <c r="I17" s="28">
         <f>Apartment7!D17</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J17" s="28">
         <f>Apartment8!D17</f>
@@ -23631,12 +23679,12 @@
       </c>
       <c r="C7" s="101">
         <f>Apartment3!D4</f>
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="D7" s="102"/>
       <c r="E7" s="104">
         <f t="shared" si="0"/>
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>48</v>
@@ -23658,12 +23706,12 @@
       </c>
       <c r="C8" s="101">
         <f>Apartment4!D4</f>
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="D8" s="102"/>
       <c r="E8" s="104">
         <f t="shared" si="0"/>
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>48</v>
@@ -23739,12 +23787,12 @@
       </c>
       <c r="C11" s="101">
         <f>Apartment7!D4</f>
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="D11" s="102"/>
       <c r="E11" s="104">
         <f t="shared" si="0"/>
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>48</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="16"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -2267,24 +2267,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="157035520"/>
-        <c:axId val="157065984"/>
+        <c:axId val="161688576"/>
+        <c:axId val="161719040"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="157035520"/>
+        <c:axId val="161688576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157065984"/>
+        <c:crossAx val="161719040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="157065984"/>
+        <c:axId val="161719040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2292,7 +2292,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157035520"/>
+        <c:crossAx val="161688576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8218,7 +8218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -15878,8 +15878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17373,7 +17373,7 @@
         <v>87</v>
       </c>
       <c r="B91" s="67">
-        <v>45901</v>
+        <v>45992</v>
       </c>
       <c r="C91" s="62">
         <v>500</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="340">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1052,6 +1052,15 @@
   </si>
   <si>
     <t>تحت حساب نظافة السلم لام احمد عن شهر نوفمبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهور اكتوبر و نوفمبر وديسمبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة 3شهور 10 - 11 - 12 / 2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهور من 7 - 12 /2025</t>
   </si>
 </sst>
 </file>
@@ -2267,24 +2276,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="161688576"/>
-        <c:axId val="161719040"/>
+        <c:axId val="150605824"/>
+        <c:axId val="150607360"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="161688576"/>
+        <c:axId val="150605824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161719040"/>
+        <c:crossAx val="150607360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161719040"/>
+        <c:axId val="150607360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2292,7 +2301,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161688576"/>
+        <c:crossAx val="150605824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4698,7 +4707,7 @@
   <dimension ref="A2:V37"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:Q2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4763,7 +4772,7 @@
       <c r="C4" s="56"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2004)</f>
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -5026,9 +5035,11 @@
         <v>7</v>
       </c>
       <c r="C12" s="58">
-        <v>45830</v>
-      </c>
-      <c r="D12" s="62"/>
+        <v>45994</v>
+      </c>
+      <c r="D12" s="62">
+        <v>100</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="52">
         <v>100</v>
@@ -5062,9 +5073,11 @@
         <v>8</v>
       </c>
       <c r="C13" s="58">
-        <v>45830</v>
-      </c>
-      <c r="D13" s="62"/>
+        <v>45994</v>
+      </c>
+      <c r="D13" s="62">
+        <v>100</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="52">
         <v>100</v>
@@ -5092,9 +5105,11 @@
         <v>9</v>
       </c>
       <c r="C14" s="58">
-        <v>45830</v>
-      </c>
-      <c r="D14" s="62"/>
+        <v>45994</v>
+      </c>
+      <c r="D14" s="62">
+        <v>100</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="52">
         <v>100</v>
@@ -5128,9 +5143,11 @@
         <v>10</v>
       </c>
       <c r="C15" s="58">
-        <v>45999</v>
-      </c>
-      <c r="D15" s="62"/>
+        <v>45994</v>
+      </c>
+      <c r="D15" s="62">
+        <v>100</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="52">
         <v>100</v>
@@ -5158,9 +5175,11 @@
         <v>11</v>
       </c>
       <c r="C16" s="58">
-        <v>45999</v>
-      </c>
-      <c r="D16" s="62"/>
+        <v>45994</v>
+      </c>
+      <c r="D16" s="62">
+        <v>100</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="52">
         <v>100</v>
@@ -5183,9 +5202,11 @@
         <v>12</v>
       </c>
       <c r="C17" s="58">
-        <v>45999</v>
-      </c>
-      <c r="D17" s="62"/>
+        <v>45994</v>
+      </c>
+      <c r="D17" s="62">
+        <v>100</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="52">
         <v>100</v>
@@ -5499,7 +5520,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5556,7 +5577,7 @@
       <c r="C4" s="83"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -5844,9 +5865,11 @@
         <v>10</v>
       </c>
       <c r="C15" s="84">
-        <v>45971</v>
-      </c>
-      <c r="D15" s="35"/>
+        <v>45992</v>
+      </c>
+      <c r="D15" s="35">
+        <v>200</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="35">
         <v>200</v>
@@ -5869,9 +5892,11 @@
         <v>11</v>
       </c>
       <c r="C16" s="84">
-        <v>45971</v>
-      </c>
-      <c r="D16" s="35"/>
+        <v>45992</v>
+      </c>
+      <c r="D16" s="35">
+        <v>200</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="35">
         <v>200</v>
@@ -5893,8 +5918,12 @@
       <c r="B17" s="8">
         <v>12</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="84">
+        <v>45992</v>
+      </c>
+      <c r="D17" s="35">
+        <v>200</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="35">
         <v>200</v>
@@ -10937,7 +10966,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10994,7 +11023,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -11285,9 +11314,11 @@
         <v>10</v>
       </c>
       <c r="C15" s="84">
-        <v>45941</v>
-      </c>
-      <c r="D15" s="80"/>
+        <v>45995</v>
+      </c>
+      <c r="D15" s="80">
+        <v>100</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="80">
         <v>100</v>
@@ -11310,9 +11341,11 @@
         <v>11</v>
       </c>
       <c r="C16" s="84">
-        <v>45941</v>
-      </c>
-      <c r="D16" s="80"/>
+        <v>45995</v>
+      </c>
+      <c r="D16" s="80">
+        <v>100</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="80">
         <v>100</v>
@@ -11335,9 +11368,11 @@
         <v>12</v>
       </c>
       <c r="C17" s="84">
-        <v>45999</v>
-      </c>
-      <c r="D17" s="80"/>
+        <v>45995</v>
+      </c>
+      <c r="D17" s="80">
+        <v>100</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="80">
         <v>100</v>
@@ -11620,8 +11655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:B65"/>
+    <sheetView rightToLeft="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11715,7 +11750,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>19380</v>
+        <v>20880</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -13605,12 +13640,22 @@
       <c r="A66" s="52">
         <v>61</v>
       </c>
-      <c r="B66" s="58"/>
-      <c r="C66" s="62"/>
+      <c r="B66" s="58">
+        <v>45992</v>
+      </c>
+      <c r="C66" s="62">
+        <v>600</v>
+      </c>
       <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
+      <c r="E66" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="F66" s="52">
+        <v>8</v>
+      </c>
+      <c r="G66" s="52" t="s">
+        <v>337</v>
+      </c>
       <c r="H66" s="51"/>
       <c r="I66" s="51"/>
       <c r="J66" s="51"/>
@@ -13626,12 +13671,22 @@
       <c r="A67" s="52">
         <v>62</v>
       </c>
-      <c r="B67" s="58"/>
-      <c r="C67" s="62"/>
+      <c r="B67" s="58">
+        <v>45995</v>
+      </c>
+      <c r="C67" s="62">
+        <v>300</v>
+      </c>
       <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
+      <c r="E67" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F67" s="52">
+        <v>1</v>
+      </c>
+      <c r="G67" s="52" t="s">
+        <v>338</v>
+      </c>
       <c r="H67" s="51"/>
       <c r="I67" s="51"/>
       <c r="J67" s="51"/>
@@ -13647,12 +13702,22 @@
       <c r="A68" s="52">
         <v>63</v>
       </c>
-      <c r="B68" s="58"/>
-      <c r="C68" s="62"/>
+      <c r="B68" s="58">
+        <v>45994</v>
+      </c>
+      <c r="C68" s="62">
+        <v>600</v>
+      </c>
       <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
+      <c r="E68" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="F68" s="52">
+        <v>9</v>
+      </c>
+      <c r="G68" s="52" t="s">
+        <v>339</v>
+      </c>
       <c r="H68" s="51"/>
       <c r="I68" s="51"/>
       <c r="J68" s="51"/>
@@ -15446,8 +15511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15512,7 +15577,7 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>19380</v>
+        <v>20880</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
@@ -15520,7 +15585,7 @@
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>4974</v>
+        <v>6474</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15878,7 +15943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A78" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A78" workbookViewId="0">
       <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
@@ -22448,7 +22513,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22979,7 +23044,7 @@
       </c>
       <c r="K12" s="28">
         <f>Apartment9!D12</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12" s="28">
         <f>Apartment10!D12</f>
@@ -23041,7 +23106,7 @@
       </c>
       <c r="K13" s="28">
         <f>Apartment9!D13</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L13" s="28">
         <f>Apartment10!D13</f>
@@ -23103,7 +23168,7 @@
       </c>
       <c r="K14" s="28">
         <f>Apartment9!D14</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L14" s="28">
         <f>Apartment10!D14</f>
@@ -23133,7 +23198,7 @@
       </c>
       <c r="C15" s="28">
         <f>Apartment1!D15</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D15" s="28">
         <f>Apartment2!D15</f>
@@ -23161,11 +23226,11 @@
       </c>
       <c r="J15" s="28">
         <f>Apartment8!D15</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K15" s="28">
         <f>Apartment9!D15</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="28">
         <f>Apartment10!D15</f>
@@ -23195,7 +23260,7 @@
       </c>
       <c r="C16" s="28">
         <f>Apartment1!D16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D16" s="28">
         <f>Apartment2!D16</f>
@@ -23223,11 +23288,11 @@
       </c>
       <c r="J16" s="28">
         <f>Apartment8!D16</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K16" s="28">
         <f>Apartment9!D16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L16" s="28">
         <f>Apartment10!D16</f>
@@ -23257,7 +23322,7 @@
       </c>
       <c r="C17" s="28">
         <f>Apartment1!D17</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D17" s="28">
         <f>Apartment2!D17</f>
@@ -23285,11 +23350,11 @@
       </c>
       <c r="J17" s="28">
         <f>Apartment8!D17</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K17" s="28">
         <f>Apartment9!D17</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="28">
         <f>Apartment10!D17</f>
@@ -23625,12 +23690,12 @@
       </c>
       <c r="C5" s="101">
         <f>Apartment1!D4</f>
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="D5" s="102"/>
       <c r="E5" s="104">
         <f>D5-C5</f>
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>50</v>
@@ -23814,12 +23879,12 @@
       </c>
       <c r="C12" s="101">
         <f>Apartment8!D4</f>
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="D12" s="102"/>
       <c r="E12" s="104">
         <f t="shared" si="0"/>
-        <v>-1800</v>
+        <v>-2400</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>120</v>
@@ -23841,12 +23906,12 @@
       </c>
       <c r="C13" s="101">
         <f>Apartment9!D4</f>
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="D13" s="102"/>
       <c r="E13" s="104">
         <f t="shared" si="0"/>
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>53</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="21"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="344">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1061,6 +1061,18 @@
   </si>
   <si>
     <t>تحت حساب صيانة شهور من 7 - 12 /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب فاتورة المياه عن شهر نوفمبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب فاتورة المياه عن شهر ديسمبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهور 8، 9، 10، 11، 12 /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة الموتور تم تغيير الاوتوماتيك ايطالى سعره 1200جنيه ومصنعية 200جنيه ، بدل الاتوماتيك اللى اتحرق</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1653,9 +1665,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="2"/>
@@ -2276,24 +2285,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="150605824"/>
-        <c:axId val="150607360"/>
+        <c:axId val="157497984"/>
+        <c:axId val="157524352"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="150605824"/>
+        <c:axId val="157497984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150607360"/>
+        <c:crossAx val="157524352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="150607360"/>
+        <c:axId val="157524352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2301,7 +2310,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150605824"/>
+        <c:crossAx val="157497984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2685,23 +2694,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="91"/>
@@ -3395,23 +3404,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -4035,23 +4044,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="55"/>
@@ -4722,23 +4731,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="26.25">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="1:22" ht="57.75">
       <c r="C3" s="64"/>
@@ -4757,16 +4766,16 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="113" t="s">
+      <c r="O3" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="113"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
     </row>
     <row r="4" spans="1:22" ht="18.75">
       <c r="C4" s="56"/>
@@ -4816,12 +4825,12 @@
       <c r="Q5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="119" t="s">
+      <c r="R5" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="121"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="120"/>
     </row>
     <row r="6" spans="1:22" ht="18.75">
       <c r="A6" s="8">
@@ -5060,10 +5069,10 @@
         <f>SUM(Q6:Q11)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="122"/>
-      <c r="S12" s="123"/>
-      <c r="T12" s="123"/>
-      <c r="U12" s="124"/>
+      <c r="R12" s="121"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="123"/>
     </row>
     <row r="13" spans="1:22" ht="18.75">
       <c r="A13" s="8">
@@ -5534,23 +5543,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="82"/>
@@ -6221,23 +6230,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="64"/>
@@ -6908,23 +6917,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -7597,23 +7606,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="82"/>
@@ -8263,23 +8272,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -8952,23 +8961,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="107"/>
@@ -9640,23 +9649,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="82"/>
@@ -10328,38 +10337,38 @@
   <sheetData>
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="112" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
       <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="90"/>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="113" t="s">
         <v>250</v>
       </c>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
     </row>
     <row r="4" spans="1:17" ht="37.5">
       <c r="A4" s="12" t="s">
@@ -10980,23 +10989,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -11655,8 +11664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView rightToLeft="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11675,74 +11684,74 @@
       <c r="A2" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="109" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="109" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="109" t="s">
         <v>196</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="109" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="G2" s="109" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="110" t="s">
+      <c r="H2" s="109" t="s">
         <v>199</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="109" t="s">
         <v>200</v>
       </c>
-      <c r="J2" s="110" t="s">
+      <c r="J2" s="109" t="s">
         <v>201</v>
       </c>
-      <c r="K2" s="110" t="s">
+      <c r="K2" s="109" t="s">
         <v>202</v>
       </c>
-      <c r="L2" s="110" t="s">
+      <c r="L2" s="109" t="s">
         <v>203</v>
       </c>
-      <c r="M2" s="110" t="s">
+      <c r="M2" s="109" t="s">
         <v>204</v>
       </c>
-      <c r="N2" s="110" t="s">
+      <c r="N2" s="109" t="s">
         <v>205</v>
       </c>
-      <c r="O2" s="110" t="s">
+      <c r="O2" s="109" t="s">
         <v>206</v>
       </c>
-      <c r="P2" s="110" t="s">
+      <c r="P2" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="Q2" s="110" t="s">
+      <c r="Q2" s="109" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="26.25">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
     </row>
     <row r="4" spans="1:17" ht="18.75">
       <c r="B4" s="56" t="s">
@@ -11750,7 +11759,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>20880</v>
+        <v>21880</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -13733,12 +13742,22 @@
       <c r="A69" s="52">
         <v>64</v>
       </c>
-      <c r="B69" s="58"/>
-      <c r="C69" s="62"/>
+      <c r="B69" s="58">
+        <v>46006</v>
+      </c>
+      <c r="C69" s="62">
+        <v>1000</v>
+      </c>
       <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
+      <c r="E69" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="F69" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="G69" s="52" t="s">
+        <v>342</v>
+      </c>
       <c r="H69" s="51"/>
       <c r="I69" s="51"/>
       <c r="J69" s="51"/>
@@ -15511,8 +15530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15526,21 +15545,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="26.25">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
     </row>
     <row r="3" spans="1:15" ht="18.75">
       <c r="B3" s="48" t="s">
@@ -15577,15 +15596,15 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>20880</v>
+        <v>21880</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>20009</v>
+        <v>22339</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>6474</v>
+        <v>5144</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15943,8 +15962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15957,21 +15976,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="26.25">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
     </row>
     <row r="3" spans="1:20" ht="18.75">
       <c r="B3" s="65" t="s">
@@ -15979,7 +15998,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>20009</v>
+        <v>22339</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16680,7 +16699,7 @@
       <c r="A37" s="35">
         <v>33</v>
       </c>
-      <c r="B37" s="109">
+      <c r="B37" s="108">
         <v>45789</v>
       </c>
       <c r="C37" s="62">
@@ -17314,7 +17333,7 @@
       <c r="B82" s="67" t="s">
         <v>326</v>
       </c>
-      <c r="C82" s="111">
+      <c r="C82" s="110">
         <v>-70</v>
       </c>
       <c r="D82" s="52" t="s">
@@ -17416,7 +17435,7 @@
         <v>930</v>
       </c>
       <c r="D89" s="52" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="18.75">
@@ -17451,10 +17470,28 @@
       <c r="A92" s="35">
         <v>88</v>
       </c>
+      <c r="B92" s="67">
+        <v>46001</v>
+      </c>
+      <c r="C92" s="62">
+        <v>930</v>
+      </c>
+      <c r="D92" s="52" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="93" spans="1:4" ht="18.75">
       <c r="A93" s="35">
         <v>89</v>
+      </c>
+      <c r="B93" s="67">
+        <v>46005</v>
+      </c>
+      <c r="C93" s="62">
+        <v>1400</v>
+      </c>
+      <c r="D93" s="52" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="18.75">
@@ -17639,38 +17676,38 @@
   <sheetData>
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="112" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
       <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="90"/>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
     </row>
     <row r="4" spans="1:17" ht="37.5">
       <c r="A4" s="12" t="s">
@@ -18200,38 +18237,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" ht="26.25">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="111"/>
+      <c r="AE2" s="111"/>
     </row>
     <row r="3" spans="1:32" ht="18.75">
       <c r="B3" s="10"/>
@@ -22513,7 +22550,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22528,37 +22565,37 @@
   <sheetData>
     <row r="1" spans="1:20" ht="26.25">
       <c r="B1" s="18"/>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
     </row>
     <row r="2" spans="1:20" ht="26.25">
       <c r="B2" s="18"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
     </row>
     <row r="3" spans="1:20">
       <c r="B3" s="23"/>
@@ -23122,11 +23159,11 @@
       </c>
       <c r="O13" s="28">
         <f>Apartment13!D13</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P13" s="28">
         <f>Apartment14!D13</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="23.25">
@@ -23184,11 +23221,11 @@
       </c>
       <c r="O14" s="28">
         <f>Apartment13!D14</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P14" s="28">
         <f>Apartment14!D14</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="23.25">
@@ -23246,11 +23283,11 @@
       </c>
       <c r="O15" s="28">
         <f>Apartment13!D15</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P15" s="28">
         <f>Apartment14!D15</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="23.25">
@@ -23308,11 +23345,11 @@
       </c>
       <c r="O16" s="28">
         <f>Apartment13!D16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P16" s="28">
         <f>Apartment14!D16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="23.25">
@@ -23370,11 +23407,11 @@
       </c>
       <c r="O17" s="28">
         <f>Apartment13!D17</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="28">
         <f>Apartment14!D17</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="18.75">
@@ -23628,28 +23665,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="26.25">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
     </row>
     <row r="3" spans="1:14" ht="18.75">
       <c r="C3" s="90"/>
-      <c r="G3" s="116" t="s">
+      <c r="G3" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
     </row>
     <row r="4" spans="1:14" ht="56.25">
       <c r="A4" s="12" t="s">
@@ -24013,12 +24050,12 @@
       </c>
       <c r="C17" s="101">
         <f>Apartment13!D4</f>
-        <v>640</v>
+        <v>1140</v>
       </c>
       <c r="D17" s="102"/>
       <c r="E17" s="104">
         <f t="shared" si="0"/>
-        <v>-640</v>
+        <v>-1140</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>56</v>
@@ -24040,12 +24077,12 @@
       </c>
       <c r="C18" s="101">
         <f>Apartment14!D4</f>
-        <v>640</v>
+        <v>1140</v>
       </c>
       <c r="D18" s="102"/>
       <c r="E18" s="104">
         <f t="shared" si="0"/>
-        <v>-640</v>
+        <v>-1140</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>57</v>
@@ -24253,7 +24290,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24268,23 +24305,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="97"/>
@@ -24311,7 +24348,7 @@
       <c r="C4" s="69"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>640</v>
+        <v>1140</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -24544,10 +24581,12 @@
       <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="108">
-        <v>45981</v>
-      </c>
-      <c r="D13" s="35"/>
+      <c r="C13" s="58">
+        <v>46006</v>
+      </c>
+      <c r="D13" s="35">
+        <v>100</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="52">
         <v>100</v>
@@ -24569,10 +24608,12 @@
       <c r="B14" s="8">
         <v>9</v>
       </c>
-      <c r="C14" s="108">
-        <v>45981</v>
-      </c>
-      <c r="D14" s="35"/>
+      <c r="C14" s="58">
+        <v>46006</v>
+      </c>
+      <c r="D14" s="35">
+        <v>100</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="52">
         <v>100</v>
@@ -24594,10 +24635,12 @@
       <c r="B15" s="8">
         <v>10</v>
       </c>
-      <c r="C15" s="70">
-        <v>45990</v>
-      </c>
-      <c r="D15" s="35"/>
+      <c r="C15" s="58">
+        <v>46006</v>
+      </c>
+      <c r="D15" s="35">
+        <v>100</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="52">
         <v>100</v>
@@ -24619,10 +24662,12 @@
       <c r="B16" s="8">
         <v>11</v>
       </c>
-      <c r="C16" s="70">
-        <v>45990</v>
-      </c>
-      <c r="D16" s="35"/>
+      <c r="C16" s="58">
+        <v>46006</v>
+      </c>
+      <c r="D16" s="35">
+        <v>100</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="52">
         <v>100</v>
@@ -24644,10 +24689,12 @@
       <c r="B17" s="8">
         <v>12</v>
       </c>
-      <c r="C17" s="70">
-        <v>46022</v>
-      </c>
-      <c r="D17" s="8"/>
+      <c r="C17" s="58">
+        <v>46006</v>
+      </c>
+      <c r="D17" s="35">
+        <v>100</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="52">
         <v>100</v>
@@ -24946,23 +24993,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="82"/>
@@ -25619,7 +25666,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="C13" sqref="C13:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25634,23 +25681,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="64"/>
@@ -25677,7 +25724,7 @@
       <c r="C4" s="56"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>640</v>
+        <v>1140</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -25911,9 +25958,11 @@
         <v>8</v>
       </c>
       <c r="C13" s="58">
-        <v>45981</v>
-      </c>
-      <c r="D13" s="35"/>
+        <v>46006</v>
+      </c>
+      <c r="D13" s="35">
+        <v>100</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="52">
         <v>100</v>
@@ -25936,9 +25985,11 @@
         <v>9</v>
       </c>
       <c r="C14" s="58">
-        <v>45981</v>
-      </c>
-      <c r="D14" s="35"/>
+        <v>46006</v>
+      </c>
+      <c r="D14" s="35">
+        <v>100</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="52">
         <v>100</v>
@@ -25961,9 +26012,11 @@
         <v>10</v>
       </c>
       <c r="C15" s="58">
-        <v>45990</v>
-      </c>
-      <c r="D15" s="35"/>
+        <v>46006</v>
+      </c>
+      <c r="D15" s="35">
+        <v>100</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="52">
         <v>100</v>
@@ -25986,9 +26039,11 @@
         <v>11</v>
       </c>
       <c r="C16" s="58">
-        <v>45990</v>
-      </c>
-      <c r="D16" s="35"/>
+        <v>46006</v>
+      </c>
+      <c r="D16" s="35">
+        <v>100</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="52">
         <v>100</v>
@@ -26011,9 +26066,11 @@
         <v>12</v>
       </c>
       <c r="C17" s="58">
-        <v>46022</v>
-      </c>
-      <c r="D17" s="35"/>
+        <v>46006</v>
+      </c>
+      <c r="D17" s="35">
+        <v>100</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="52">
         <v>100</v>
@@ -26067,14 +26124,14 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="117" t="s">
+      <c r="I20" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
     </row>
     <row r="21" spans="1:17" ht="23.25">
       <c r="A21" s="8"/>
@@ -26085,14 +26142,14 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="117" t="s">
+      <c r="I21" s="116" t="s">
         <v>295</v>
       </c>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="117"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
     </row>
     <row r="22" spans="1:17" ht="18.75">
       <c r="A22" s="8"/>
@@ -26130,13 +26187,13 @@
       <c r="G23" s="54"/>
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="118"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
       <c r="Q23" s="51"/>
     </row>
     <row r="24" spans="1:17" ht="18.75">
@@ -26151,13 +26208,13 @@
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="118"/>
-      <c r="P24" s="118"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="117"/>
       <c r="Q24" s="51"/>
     </row>
     <row r="25" spans="1:17" ht="36" customHeight="1">
@@ -26172,13 +26229,13 @@
       </c>
       <c r="H25" s="54"/>
       <c r="I25" s="54"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="118"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
       <c r="Q25" s="51"/>
     </row>
     <row r="26" spans="1:17" ht="23.25">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="346">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1073,6 +1073,12 @@
   </si>
   <si>
     <t>تحت حساب صيانة الموتور تم تغيير الاوتوماتيك ايطالى سعره 1200جنيه ومصنعية 200جنيه ، بدل الاتوماتيك اللى اتحرق</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة الموتور تركيب شيك بلف جديد ووصلات كتير + تركيب وصلة جديدة للموتور بتاع منال بحيث لا يتاثر موتور العمارة بموتور منال + مصنعية 600 جنيه</t>
+  </si>
+  <si>
+    <t>تحت حساب شراء مفتاح باتشينو عند الموتور لسهولة فتح وقفل الكهرباء عن الموتور</t>
   </si>
 </sst>
 </file>
@@ -2285,24 +2291,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="157497984"/>
-        <c:axId val="157524352"/>
+        <c:axId val="164244480"/>
+        <c:axId val="164274944"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="157497984"/>
+        <c:axId val="164244480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157524352"/>
+        <c:crossAx val="164274944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="157524352"/>
+        <c:axId val="164274944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,7 +2316,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157497984"/>
+        <c:crossAx val="164244480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15530,7 +15536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -15600,11 +15606,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>22339</v>
+        <v>25029</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>5144</v>
+        <v>2454</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15962,8 +15968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView rightToLeft="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15998,7 +16004,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>22339</v>
+        <v>25029</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -17498,10 +17504,28 @@
       <c r="A94" s="35">
         <v>90</v>
       </c>
+      <c r="B94" s="67">
+        <v>46006</v>
+      </c>
+      <c r="C94" s="62">
+        <v>2500</v>
+      </c>
+      <c r="D94" s="52" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="18.75">
       <c r="A95" s="35">
         <v>91</v>
+      </c>
+      <c r="B95" s="67">
+        <v>46006</v>
+      </c>
+      <c r="C95" s="62">
+        <v>190</v>
+      </c>
+      <c r="D95" s="52" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="18.75">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="21"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="355">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -466,12 +466,6 @@
     <t>متحصلات شهور سنة 2023 لكل شقة</t>
   </si>
   <si>
-    <t>حساب صيانة شهر يناير /2023</t>
-  </si>
-  <si>
-    <t>حساب صيانة شهر فبراير /2023</t>
-  </si>
-  <si>
     <t>م/نادية</t>
   </si>
   <si>
@@ -1079,6 +1073,39 @@
   </si>
   <si>
     <t>تحت حساب شراء مفتاح باتشينو عند الموتور لسهولة فتح وقفل الكهرباء عن الموتور</t>
+  </si>
+  <si>
+    <t>تحت حساب كهرباء شهر ديسمبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب رسوم الدفع للكهرباء عن طريق فودافون كاش</t>
+  </si>
+  <si>
+    <t>تحت حساب كاش باك من فودافون كاش للدفع الالكترونى</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة سنة 2025 بالكامل (تحاسب على نصف المبلغ لعدم الاشغال)</t>
+  </si>
+  <si>
+    <t>حساب صيانة شهر يناير /2025</t>
+  </si>
+  <si>
+    <t>حساب صيانة شهر فبراير /2025</t>
+  </si>
+  <si>
+    <t>دائن</t>
+  </si>
+  <si>
+    <t>مدين</t>
+  </si>
+  <si>
+    <t>رسوم</t>
+  </si>
+  <si>
+    <t>اجمالى</t>
+  </si>
+  <si>
+    <t>رصيد</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1647,9 +1674,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="2"/>
@@ -2291,24 +2315,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="164244480"/>
-        <c:axId val="164274944"/>
+        <c:axId val="160219136"/>
+        <c:axId val="160220672"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="164244480"/>
+        <c:axId val="160219136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164274944"/>
+        <c:crossAx val="160220672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="164274944"/>
+        <c:axId val="160220672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,7 +2340,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164244480"/>
+        <c:crossAx val="160219136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2700,23 +2724,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="91"/>
@@ -3395,14 +3419,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F17"/>
+    <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="4.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
@@ -3410,23 +3434,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -3453,7 +3477,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="98">
         <f>SUM(D6:D2001)</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -3497,14 +3521,18 @@
       <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="99"/>
+      <c r="C6" s="9">
+        <v>46007</v>
+      </c>
+      <c r="D6" s="99">
+        <v>100</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8">
         <v>100</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>141</v>
+        <v>348</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -3520,14 +3548,18 @@
       <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="99"/>
+      <c r="C7" s="53">
+        <v>46007</v>
+      </c>
+      <c r="D7" s="99">
+        <v>100</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="52">
         <v>100</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>142</v>
+        <v>349</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -3543,8 +3575,12 @@
       <c r="B8" s="8">
         <v>3</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="99"/>
+      <c r="C8" s="53">
+        <v>46007</v>
+      </c>
+      <c r="D8" s="99">
+        <v>100</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="52">
         <v>100</v>
@@ -3566,8 +3602,12 @@
       <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="99"/>
+      <c r="C9" s="53">
+        <v>46007</v>
+      </c>
+      <c r="D9" s="99">
+        <v>100</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="52">
         <v>100</v>
@@ -3589,8 +3629,12 @@
       <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="99"/>
+      <c r="C10" s="53">
+        <v>46007</v>
+      </c>
+      <c r="D10" s="99">
+        <v>100</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="52">
         <v>100</v>
@@ -3612,8 +3656,12 @@
       <c r="B11" s="8">
         <v>6</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="99"/>
+      <c r="C11" s="53">
+        <v>46007</v>
+      </c>
+      <c r="D11" s="99">
+        <v>100</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="52">
         <v>100</v>
@@ -3635,8 +3683,12 @@
       <c r="B12" s="8">
         <v>7</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="100"/>
+      <c r="C12" s="53">
+        <v>46007</v>
+      </c>
+      <c r="D12" s="99">
+        <v>100</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="52">
         <v>100</v>
@@ -3658,8 +3710,12 @@
       <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="100"/>
+      <c r="C13" s="53">
+        <v>46007</v>
+      </c>
+      <c r="D13" s="99">
+        <v>100</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="52">
         <v>100</v>
@@ -3681,8 +3737,12 @@
       <c r="B14" s="8">
         <v>9</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="100"/>
+      <c r="C14" s="53">
+        <v>46007</v>
+      </c>
+      <c r="D14" s="99">
+        <v>100</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="52">
         <v>100</v>
@@ -3704,8 +3764,12 @@
       <c r="B15" s="8">
         <v>10</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="100"/>
+      <c r="C15" s="53">
+        <v>46007</v>
+      </c>
+      <c r="D15" s="99">
+        <v>100</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="52">
         <v>100</v>
@@ -3727,8 +3791,12 @@
       <c r="B16" s="8">
         <v>11</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="100"/>
+      <c r="C16" s="53">
+        <v>46007</v>
+      </c>
+      <c r="D16" s="99">
+        <v>100</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="52">
         <v>100</v>
@@ -3750,8 +3818,12 @@
       <c r="B17" s="8">
         <v>12</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="100"/>
+      <c r="C17" s="53">
+        <v>46007</v>
+      </c>
+      <c r="D17" s="99">
+        <v>100</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="52">
         <v>100</v>
@@ -4050,23 +4122,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="55"/>
@@ -4148,7 +4220,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -4737,23 +4809,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:22" ht="57.75">
       <c r="C3" s="64"/>
@@ -4772,16 +4844,16 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="112" t="s">
+      <c r="O3" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
     </row>
     <row r="4" spans="1:22" ht="18.75">
       <c r="C4" s="56"/>
@@ -4831,12 +4903,12 @@
       <c r="Q5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="118" t="s">
+      <c r="R5" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="120"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="119"/>
     </row>
     <row r="6" spans="1:22" ht="18.75">
       <c r="A6" s="8">
@@ -4856,7 +4928,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -4890,7 +4962,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -5075,10 +5147,10 @@
         <f>SUM(Q6:Q11)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="121"/>
-      <c r="S12" s="122"/>
-      <c r="T12" s="122"/>
-      <c r="U12" s="123"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="122"/>
     </row>
     <row r="13" spans="1:22" ht="18.75">
       <c r="A13" s="8">
@@ -5549,23 +5621,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="82"/>
@@ -5647,7 +5719,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -5674,7 +5746,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -5701,7 +5773,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -5728,7 +5800,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -5755,7 +5827,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -5782,7 +5854,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -5809,7 +5881,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -5917,7 +5989,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -5944,7 +6016,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -6236,23 +6308,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="64"/>
@@ -6334,7 +6406,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -6361,7 +6433,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -6388,7 +6460,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -6415,7 +6487,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -6442,7 +6514,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -6469,7 +6541,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -6496,7 +6568,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -6523,7 +6595,7 @@
         <v>200</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -6550,7 +6622,7 @@
         <v>200</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -6577,7 +6649,7 @@
         <v>200</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -6604,7 +6676,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -6631,7 +6703,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -6923,23 +6995,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -7021,7 +7093,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -7048,7 +7120,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -7324,7 +7396,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -7612,23 +7684,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="82"/>
@@ -7710,7 +7782,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -7735,7 +7807,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -8278,23 +8350,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -8430,7 +8502,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -8457,7 +8529,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -8484,7 +8556,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -8511,7 +8583,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -8538,7 +8610,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -8565,7 +8637,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -8592,7 +8664,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -8619,7 +8691,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -8646,7 +8718,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -8673,7 +8745,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -8967,26 +9039,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
-      <c r="C3" s="107"/>
+      <c r="C3" s="106"/>
       <c r="D3" s="18" t="s">
         <v>8</v>
       </c>
@@ -8994,17 +9066,17 @@
       <c r="F3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
     </row>
     <row r="4" spans="1:17" ht="18.75">
       <c r="C4" s="69"/>
@@ -9119,7 +9191,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -9146,7 +9218,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -9173,7 +9245,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -9200,7 +9272,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -9227,7 +9299,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -9254,7 +9326,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -9281,7 +9353,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -9308,7 +9380,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -9335,7 +9407,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -9362,7 +9434,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -9655,23 +9727,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="82"/>
@@ -9753,7 +9825,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -9780,7 +9852,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -9807,7 +9879,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -9834,7 +9906,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -9861,7 +9933,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -9888,7 +9960,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -9915,7 +9987,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -9942,7 +10014,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -9969,7 +10041,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -9996,7 +10068,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -10023,7 +10095,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -10050,7 +10122,7 @@
         <v>50</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -10337,44 +10409,44 @@
     <col min="2" max="2" width="6" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="73" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="73" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="103"/>
+    <col min="5" max="5" width="9.140625" style="102"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
-      <c r="C2" s="112" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
+      <c r="C2" s="111" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
       <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="90"/>
-      <c r="F3" s="113" t="s">
-        <v>250</v>
-      </c>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
+      <c r="F3" s="112" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
     </row>
     <row r="4" spans="1:17" ht="37.5">
       <c r="A4" s="12" t="s">
@@ -10401,7 +10473,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75">
@@ -10411,13 +10483,13 @@
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="101">
-        <v>100</v>
-      </c>
-      <c r="D5" s="102">
-        <v>100</v>
-      </c>
-      <c r="E5" s="104">
+      <c r="C5" s="100">
+        <v>100</v>
+      </c>
+      <c r="D5" s="101">
+        <v>100</v>
+      </c>
+      <c r="E5" s="103">
         <f>D5-C5</f>
         <v>0</v>
       </c>
@@ -10425,12 +10497,12 @@
         <v>45736</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75">
@@ -10440,13 +10512,13 @@
       <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="101">
-        <v>100</v>
-      </c>
-      <c r="D6" s="102">
-        <v>100</v>
-      </c>
-      <c r="E6" s="104">
+      <c r="C6" s="100">
+        <v>100</v>
+      </c>
+      <c r="D6" s="101">
+        <v>100</v>
+      </c>
+      <c r="E6" s="103">
         <f t="shared" ref="E6:E18" si="0">D6-C6</f>
         <v>0</v>
       </c>
@@ -10454,12 +10526,12 @@
         <v>45733</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75">
@@ -10469,13 +10541,13 @@
       <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="101">
-        <v>100</v>
-      </c>
-      <c r="D7" s="102">
-        <v>100</v>
-      </c>
-      <c r="E7" s="104">
+      <c r="C7" s="100">
+        <v>100</v>
+      </c>
+      <c r="D7" s="101">
+        <v>100</v>
+      </c>
+      <c r="E7" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10483,7 +10555,7 @@
         <v>45750</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -10496,13 +10568,13 @@
       <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="101">
-        <v>100</v>
-      </c>
-      <c r="D8" s="102">
-        <v>100</v>
-      </c>
-      <c r="E8" s="104">
+      <c r="C8" s="100">
+        <v>100</v>
+      </c>
+      <c r="D8" s="101">
+        <v>100</v>
+      </c>
+      <c r="E8" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10510,7 +10582,7 @@
         <v>45733</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -10523,13 +10595,13 @@
       <c r="B9" s="8">
         <v>5</v>
       </c>
-      <c r="C9" s="101">
+      <c r="C9" s="100">
         <v>200</v>
       </c>
-      <c r="D9" s="102">
+      <c r="D9" s="101">
         <v>200</v>
       </c>
-      <c r="E9" s="104">
+      <c r="E9" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10537,7 +10609,7 @@
         <v>45733</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -10550,13 +10622,13 @@
       <c r="B10" s="8">
         <v>6</v>
       </c>
-      <c r="C10" s="101">
+      <c r="C10" s="100">
         <v>200</v>
       </c>
-      <c r="D10" s="102">
+      <c r="D10" s="101">
         <v>200</v>
       </c>
-      <c r="E10" s="104">
+      <c r="E10" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10564,7 +10636,7 @@
         <v>45733</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -10577,19 +10649,19 @@
       <c r="B11" s="8">
         <v>7</v>
       </c>
-      <c r="C11" s="101">
+      <c r="C11" s="100">
         <v>200</v>
       </c>
-      <c r="D11" s="102">
+      <c r="D11" s="101">
         <v>200</v>
       </c>
-      <c r="E11" s="104">
+      <c r="E11" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -10602,13 +10674,13 @@
       <c r="B12" s="8">
         <v>8</v>
       </c>
-      <c r="C12" s="101">
+      <c r="C12" s="100">
         <v>0</v>
       </c>
-      <c r="D12" s="102">
+      <c r="D12" s="101">
         <v>0</v>
       </c>
-      <c r="E12" s="104">
+      <c r="E12" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10616,11 +10688,11 @@
         <v>45733</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -10631,13 +10703,13 @@
       <c r="B13" s="8">
         <v>9</v>
       </c>
-      <c r="C13" s="101">
+      <c r="C13" s="100">
         <v>200</v>
       </c>
-      <c r="D13" s="102">
+      <c r="D13" s="101">
         <v>200</v>
       </c>
-      <c r="E13" s="104">
+      <c r="E13" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10645,7 +10717,7 @@
         <v>45733</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -10658,13 +10730,13 @@
       <c r="B14" s="8">
         <v>10</v>
       </c>
-      <c r="C14" s="101">
+      <c r="C14" s="100">
         <v>200</v>
       </c>
-      <c r="D14" s="102">
+      <c r="D14" s="101">
         <v>200</v>
       </c>
-      <c r="E14" s="104">
+      <c r="E14" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10672,7 +10744,7 @@
         <v>45733</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -10685,13 +10757,13 @@
       <c r="B15" s="8">
         <v>11</v>
       </c>
-      <c r="C15" s="101">
+      <c r="C15" s="100">
         <v>200</v>
       </c>
-      <c r="D15" s="102">
+      <c r="D15" s="101">
         <v>200</v>
       </c>
-      <c r="E15" s="104">
+      <c r="E15" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10699,7 +10771,7 @@
         <v>45733</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -10712,13 +10784,13 @@
       <c r="B16" s="8">
         <v>12</v>
       </c>
-      <c r="C16" s="101">
+      <c r="C16" s="100">
         <v>200</v>
       </c>
-      <c r="D16" s="102">
+      <c r="D16" s="101">
         <v>200</v>
       </c>
-      <c r="E16" s="104">
+      <c r="E16" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10726,7 +10798,7 @@
         <v>45733</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -10739,13 +10811,13 @@
       <c r="B17" s="8">
         <v>13</v>
       </c>
-      <c r="C17" s="101">
+      <c r="C17" s="100">
         <v>200</v>
       </c>
-      <c r="D17" s="102">
+      <c r="D17" s="101">
         <v>200</v>
       </c>
-      <c r="E17" s="104">
+      <c r="E17" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10753,7 +10825,7 @@
         <v>45733</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -10766,13 +10838,13 @@
       <c r="B18" s="8">
         <v>14</v>
       </c>
-      <c r="C18" s="101">
+      <c r="C18" s="100">
         <v>200</v>
       </c>
-      <c r="D18" s="102">
+      <c r="D18" s="101">
         <v>200</v>
       </c>
-      <c r="E18" s="104">
+      <c r="E18" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10780,7 +10852,7 @@
         <v>45733</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -10791,7 +10863,7 @@
       <c r="B19" s="8"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
-      <c r="E19" s="105"/>
+      <c r="E19" s="104"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -10803,7 +10875,7 @@
       <c r="B20" s="8"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
-      <c r="E20" s="105"/>
+      <c r="E20" s="104"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -10815,7 +10887,7 @@
       <c r="B21" s="8"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
-      <c r="E21" s="105"/>
+      <c r="E21" s="104"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -10827,7 +10899,7 @@
       <c r="B22" s="8"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
-      <c r="E22" s="105"/>
+      <c r="E22" s="104"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -10839,7 +10911,7 @@
       <c r="B23" s="8"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
-      <c r="E23" s="105"/>
+      <c r="E23" s="104"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -10851,7 +10923,7 @@
       <c r="B24" s="8"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
-      <c r="E24" s="105"/>
+      <c r="E24" s="104"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -10863,7 +10935,7 @@
       <c r="B25" s="8"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
-      <c r="E25" s="105"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -10875,7 +10947,7 @@
       <c r="B26" s="8"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
-      <c r="E26" s="105"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -10887,7 +10959,7 @@
       <c r="B27" s="8"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
-      <c r="E27" s="105"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -10899,7 +10971,7 @@
       <c r="B28" s="8"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
-      <c r="E28" s="105"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -10911,7 +10983,7 @@
       <c r="B29" s="8"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
-      <c r="E29" s="105"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -10923,7 +10995,7 @@
       <c r="B30" s="8"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
-      <c r="E30" s="105"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -10935,7 +11007,7 @@
       <c r="B31" s="8"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
-      <c r="E31" s="105"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -10947,7 +11019,7 @@
       <c r="B32" s="8"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
-      <c r="E32" s="105"/>
+      <c r="E32" s="104"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -10959,7 +11031,7 @@
       <c r="B33" s="8"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
-      <c r="E33" s="105"/>
+      <c r="E33" s="104"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -10995,23 +11067,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="1"/>
@@ -11046,7 +11118,7 @@
         <v>1200</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="56.25">
@@ -11096,7 +11168,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -11123,7 +11195,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -11150,7 +11222,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -11177,7 +11249,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -11204,7 +11276,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -11231,7 +11303,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -11258,7 +11330,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -11285,7 +11357,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -11312,7 +11384,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -11339,7 +11411,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -11366,7 +11438,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -11393,7 +11465,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -11671,7 +11743,7 @@
   <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11688,76 +11760,76 @@
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
       <c r="A2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="108" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="108" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="D2" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="E2" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="F2" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="G2" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="H2" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="I2" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="J2" s="108" t="s">
         <v>199</v>
       </c>
-      <c r="I2" s="109" t="s">
+      <c r="K2" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="J2" s="109" t="s">
+      <c r="L2" s="108" t="s">
         <v>201</v>
       </c>
-      <c r="K2" s="109" t="s">
+      <c r="M2" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="L2" s="109" t="s">
+      <c r="N2" s="108" t="s">
         <v>203</v>
       </c>
-      <c r="M2" s="109" t="s">
+      <c r="O2" s="108" t="s">
         <v>204</v>
       </c>
-      <c r="N2" s="109" t="s">
+      <c r="P2" s="108" t="s">
         <v>205</v>
       </c>
-      <c r="O2" s="109" t="s">
+      <c r="Q2" s="108" t="s">
         <v>206</v>
       </c>
-      <c r="P2" s="109" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q2" s="109" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="3" spans="1:17" ht="26.25">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
     </row>
     <row r="4" spans="1:17" ht="18.75">
       <c r="B4" s="56" t="s">
@@ -11765,7 +11837,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>21880</v>
+        <v>23080</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -11823,13 +11895,13 @@
       </c>
       <c r="D6" s="52"/>
       <c r="E6" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F6" s="52">
         <v>12</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -11859,7 +11931,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -11884,13 +11956,13 @@
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F8" s="52">
         <v>4</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -11915,13 +11987,13 @@
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F9" s="52">
         <v>3</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -11945,13 +12017,13 @@
         <v>200</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F10" s="52">
         <v>8</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -11981,7 +12053,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -12006,13 +12078,13 @@
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F12" s="52">
         <v>4</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -12037,13 +12109,13 @@
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F13" s="52">
         <v>3</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -12068,13 +12140,13 @@
       </c>
       <c r="D14" s="52"/>
       <c r="E14" s="52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F14" s="52">
         <v>2</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -12098,13 +12170,13 @@
         <v>400</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F15" s="52">
         <v>8</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -12134,7 +12206,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -12159,13 +12231,13 @@
       </c>
       <c r="D17" s="52"/>
       <c r="E17" s="52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F17" s="52">
         <v>4</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -12190,13 +12262,13 @@
       </c>
       <c r="D18" s="52"/>
       <c r="E18" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F18" s="52">
         <v>3</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -12221,13 +12293,13 @@
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F19" s="52">
         <v>1</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -12251,11 +12323,11 @@
         <v>2200</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F20" s="52"/>
       <c r="G20" s="52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -12280,13 +12352,13 @@
       </c>
       <c r="D21" s="52"/>
       <c r="E21" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F21" s="52">
         <v>12</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -12316,7 +12388,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -12341,13 +12413,13 @@
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F23" s="52">
         <v>4</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -12372,13 +12444,13 @@
       </c>
       <c r="D24" s="52"/>
       <c r="E24" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F24" s="52">
         <v>3</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -12403,13 +12475,13 @@
       </c>
       <c r="D25" s="52"/>
       <c r="E25" s="52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F25" s="52">
         <v>2</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -12434,13 +12506,13 @@
       </c>
       <c r="D26" s="52"/>
       <c r="E26" s="52" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F26" s="52">
         <v>6</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -12470,7 +12542,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -12495,13 +12567,13 @@
       </c>
       <c r="D28" s="52"/>
       <c r="E28" s="52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F28" s="52">
         <v>4</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -12526,13 +12598,13 @@
       </c>
       <c r="D29" s="52"/>
       <c r="E29" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F29" s="52">
         <v>3</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -12557,13 +12629,13 @@
       </c>
       <c r="D30" s="52"/>
       <c r="E30" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="G30" s="52" t="s">
         <v>271</v>
-      </c>
-      <c r="F30" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>273</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -12587,13 +12659,13 @@
         <v>400</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F31" s="52">
         <v>8</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -12623,7 +12695,7 @@
         <v>7</v>
       </c>
       <c r="G32" s="52" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -12648,13 +12720,13 @@
       </c>
       <c r="D33" s="52"/>
       <c r="E33" s="52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F33" s="52">
         <v>4</v>
       </c>
       <c r="G33" s="52" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -12679,13 +12751,13 @@
       </c>
       <c r="D34" s="52"/>
       <c r="E34" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F34" s="52">
         <v>3</v>
       </c>
       <c r="G34" s="52" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -12710,13 +12782,13 @@
       </c>
       <c r="D35" s="52"/>
       <c r="E35" s="52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F35" s="52">
         <v>1</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
@@ -12741,13 +12813,13 @@
       </c>
       <c r="D36" s="52"/>
       <c r="E36" s="52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F36" s="52">
         <v>2</v>
       </c>
       <c r="G36" s="52" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H36" s="51"/>
       <c r="I36" s="51"/>
@@ -12772,13 +12844,13 @@
       </c>
       <c r="D37" s="52"/>
       <c r="E37" s="52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F37" s="52">
         <v>9</v>
       </c>
       <c r="G37" s="52" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
@@ -12808,7 +12880,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="52" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H38" s="51"/>
       <c r="I38" s="51"/>
@@ -12833,13 +12905,13 @@
       </c>
       <c r="D39" s="52"/>
       <c r="E39" s="52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F39" s="52">
         <v>4</v>
       </c>
       <c r="G39" s="52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H39" s="51"/>
       <c r="I39" s="51"/>
@@ -12864,13 +12936,13 @@
       </c>
       <c r="D40" s="52"/>
       <c r="E40" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F40" s="52">
         <v>3</v>
       </c>
       <c r="G40" s="52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H40" s="51"/>
       <c r="I40" s="51"/>
@@ -12895,13 +12967,13 @@
       </c>
       <c r="D41" s="52"/>
       <c r="E41" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F41" s="52">
         <v>12</v>
       </c>
       <c r="G41" s="52" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="51"/>
@@ -12925,13 +12997,13 @@
         <v>400</v>
       </c>
       <c r="E42" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F42" s="52">
         <v>8</v>
       </c>
       <c r="G42" s="52" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -12956,13 +13028,13 @@
       </c>
       <c r="D43" s="52"/>
       <c r="E43" s="52" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -12992,7 +13064,7 @@
         <v>7</v>
       </c>
       <c r="G44" s="52" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -13017,13 +13089,13 @@
       </c>
       <c r="D45" s="52"/>
       <c r="E45" s="52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F45" s="52">
         <v>4</v>
       </c>
       <c r="G45" s="52" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -13048,13 +13120,13 @@
       </c>
       <c r="D46" s="52"/>
       <c r="E46" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F46" s="52">
         <v>3</v>
       </c>
       <c r="G46" s="52" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
@@ -13084,7 +13156,7 @@
         <v>7</v>
       </c>
       <c r="G47" s="52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H47" s="51"/>
       <c r="I47" s="51"/>
@@ -13109,13 +13181,13 @@
       </c>
       <c r="D48" s="52"/>
       <c r="E48" s="52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F48" s="52">
         <v>4</v>
       </c>
       <c r="G48" s="52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H48" s="51"/>
       <c r="I48" s="51"/>
@@ -13140,13 +13212,13 @@
       </c>
       <c r="D49" s="52"/>
       <c r="E49" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F49" s="52">
         <v>3</v>
       </c>
       <c r="G49" s="52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H49" s="51"/>
       <c r="I49" s="51"/>
@@ -13171,13 +13243,13 @@
       </c>
       <c r="D50" s="52"/>
       <c r="E50" s="52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F50" s="52">
         <v>1</v>
       </c>
       <c r="G50" s="52" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H50" s="51"/>
       <c r="I50" s="51"/>
@@ -13207,7 +13279,7 @@
         <v>7</v>
       </c>
       <c r="G51" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="51"/>
@@ -13232,13 +13304,13 @@
       </c>
       <c r="D52" s="52"/>
       <c r="E52" s="52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F52" s="52">
         <v>4</v>
       </c>
       <c r="G52" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
@@ -13263,13 +13335,13 @@
       </c>
       <c r="D53" s="52"/>
       <c r="E53" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F53" s="52">
         <v>3</v>
       </c>
       <c r="G53" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H53" s="51"/>
       <c r="I53" s="51"/>
@@ -13294,13 +13366,13 @@
       </c>
       <c r="D54" s="52"/>
       <c r="E54" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F54" s="52">
         <v>12</v>
       </c>
       <c r="G54" s="52" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H54" s="51"/>
       <c r="I54" s="51"/>
@@ -13325,13 +13397,13 @@
       </c>
       <c r="D55" s="52"/>
       <c r="E55" s="52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F55" s="52">
         <v>2</v>
       </c>
       <c r="G55" s="52" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H55" s="51"/>
       <c r="I55" s="51"/>
@@ -13356,13 +13428,13 @@
       </c>
       <c r="D56" s="52"/>
       <c r="E56" s="52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F56" s="52">
         <v>2</v>
       </c>
       <c r="G56" s="52" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H56" s="51"/>
       <c r="I56" s="51"/>
@@ -13387,13 +13459,13 @@
       </c>
       <c r="D57" s="52"/>
       <c r="E57" s="52" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F57" s="52">
         <v>5</v>
       </c>
       <c r="G57" s="52" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -13423,7 +13495,7 @@
         <v>7</v>
       </c>
       <c r="G58" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H58" s="51"/>
       <c r="I58" s="51"/>
@@ -13448,13 +13520,13 @@
       </c>
       <c r="D59" s="52"/>
       <c r="E59" s="52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F59" s="52">
         <v>4</v>
       </c>
       <c r="G59" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H59" s="51"/>
       <c r="I59" s="51"/>
@@ -13479,13 +13551,13 @@
       </c>
       <c r="D60" s="52"/>
       <c r="E60" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F60" s="52">
         <v>3</v>
       </c>
       <c r="G60" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H60" s="51"/>
       <c r="I60" s="51"/>
@@ -13510,13 +13582,13 @@
       </c>
       <c r="D61" s="52"/>
       <c r="E61" s="52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F61" s="52">
         <v>2</v>
       </c>
       <c r="G61" s="52" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H61" s="51"/>
       <c r="I61" s="51"/>
@@ -13540,13 +13612,13 @@
         <v>400</v>
       </c>
       <c r="E62" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F62" s="52">
         <v>8</v>
       </c>
       <c r="G62" s="52" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H62" s="51"/>
       <c r="I62" s="51"/>
@@ -13576,7 +13648,7 @@
         <v>7</v>
       </c>
       <c r="G63" s="52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H63" s="51"/>
       <c r="I63" s="51"/>
@@ -13601,13 +13673,13 @@
       </c>
       <c r="D64" s="52"/>
       <c r="E64" s="52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F64" s="52">
         <v>4</v>
       </c>
       <c r="G64" s="52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H64" s="51"/>
       <c r="I64" s="51"/>
@@ -13632,13 +13704,13 @@
       </c>
       <c r="D65" s="52"/>
       <c r="E65" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F65" s="52">
         <v>3</v>
       </c>
       <c r="G65" s="52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H65" s="51"/>
       <c r="I65" s="51"/>
@@ -13663,13 +13735,13 @@
       </c>
       <c r="D66" s="52"/>
       <c r="E66" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F66" s="52">
         <v>8</v>
       </c>
       <c r="G66" s="52" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H66" s="51"/>
       <c r="I66" s="51"/>
@@ -13694,13 +13766,13 @@
       </c>
       <c r="D67" s="52"/>
       <c r="E67" s="52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F67" s="52">
         <v>1</v>
       </c>
       <c r="G67" s="52" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H67" s="51"/>
       <c r="I67" s="51"/>
@@ -13725,13 +13797,13 @@
       </c>
       <c r="D68" s="52"/>
       <c r="E68" s="52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F68" s="52">
         <v>9</v>
       </c>
       <c r="G68" s="52" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H68" s="51"/>
       <c r="I68" s="51"/>
@@ -13756,13 +13828,13 @@
       </c>
       <c r="D69" s="52"/>
       <c r="E69" s="52" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F69" s="52" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G69" s="52" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H69" s="51"/>
       <c r="I69" s="51"/>
@@ -13779,12 +13851,22 @@
       <c r="A70" s="52">
         <v>65</v>
       </c>
-      <c r="B70" s="58"/>
-      <c r="C70" s="62"/>
+      <c r="B70" s="58">
+        <v>46007</v>
+      </c>
+      <c r="C70" s="62">
+        <v>1200</v>
+      </c>
       <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
+      <c r="E70" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="F70" s="52">
+        <v>11</v>
+      </c>
+      <c r="G70" s="52" t="s">
+        <v>347</v>
+      </c>
       <c r="H70" s="51"/>
       <c r="I70" s="51"/>
       <c r="J70" s="51"/>
@@ -15536,8 +15618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15551,25 +15633,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="26.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
     </row>
     <row r="3" spans="1:15" ht="18.75">
       <c r="B3" s="48" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C3" s="74">
         <v>5603</v>
@@ -15602,15 +15684,15 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>21880</v>
+        <v>23080</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>25029</v>
+        <v>26381</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>2454</v>
+        <v>2302</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15966,10 +16048,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:T104"/>
+  <dimension ref="A2:T114"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView rightToLeft="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15982,21 +16064,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="26.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
     </row>
     <row r="3" spans="1:20" ht="18.75">
       <c r="B3" s="65" t="s">
@@ -16004,7 +16086,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>25029</v>
+        <v>26381</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16027,7 +16109,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="S4" s="51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="18.75">
@@ -16041,7 +16123,7 @@
         <v>150</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
@@ -16063,7 +16145,7 @@
         <v>111</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -16087,7 +16169,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -16111,7 +16193,7 @@
         <v>570</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -16135,7 +16217,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
@@ -16157,7 +16239,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -16181,7 +16263,7 @@
         <v>400</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -16205,7 +16287,7 @@
         <v>100</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -16223,7 +16305,7 @@
         <v>66</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="S13">
         <v>4</v>
@@ -16240,7 +16322,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -16257,7 +16339,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -16280,7 +16362,7 @@
         <v>570</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S16">
         <v>6</v>
@@ -16297,7 +16379,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -16320,7 +16402,7 @@
         <v>400</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -16343,7 +16425,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -16362,7 +16444,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -16389,7 +16471,7 @@
         <v>2450</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -16412,7 +16494,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -16435,7 +16517,7 @@
         <v>570</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -16458,7 +16540,7 @@
         <v>61</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -16481,7 +16563,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -16501,7 +16583,7 @@
         <v>400</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -16518,7 +16600,7 @@
         <v>60</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -16541,7 +16623,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -16561,7 +16643,7 @@
         <v>200</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -16581,7 +16663,7 @@
         <v>136</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -16601,7 +16683,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -16621,7 +16703,7 @@
         <v>570</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -16641,7 +16723,7 @@
         <v>400</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -16650,7 +16732,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="T33" s="51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="18.75">
@@ -16664,7 +16746,7 @@
         <v>100</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -16684,7 +16766,7 @@
         <v>20</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="18.75">
@@ -16698,21 +16780,21 @@
         <v>136</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="18.75">
       <c r="A37" s="35">
         <v>33</v>
       </c>
-      <c r="B37" s="108">
+      <c r="B37" s="107">
         <v>45789</v>
       </c>
       <c r="C37" s="62">
         <v>20</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="18.75">
@@ -16726,7 +16808,7 @@
         <v>670</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="18.75">
@@ -16740,7 +16822,7 @@
         <v>40</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="18.75">
@@ -16754,7 +16836,7 @@
         <v>400</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -16769,7 +16851,7 @@
         <v>670</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="18.75">
@@ -16783,7 +16865,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="18.75">
@@ -16797,7 +16879,7 @@
         <v>68</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="18.75">
@@ -16811,7 +16893,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="18.75">
@@ -16825,7 +16907,7 @@
         <v>20</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="18.75">
@@ -16839,7 +16921,7 @@
         <v>400</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="18.75">
@@ -16853,7 +16935,7 @@
         <v>126</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="18.75">
@@ -16867,7 +16949,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75">
@@ -16881,7 +16963,7 @@
         <v>680</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.75">
@@ -16895,7 +16977,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18.75">
@@ -16909,7 +16991,7 @@
         <v>130</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="18.75">
@@ -16923,7 +17005,7 @@
         <v>400</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="18.75">
@@ -16937,7 +17019,7 @@
         <v>100</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="18.75">
@@ -16951,7 +17033,7 @@
         <v>20</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18.75">
@@ -16965,7 +17047,7 @@
         <v>125</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18.75">
@@ -16979,7 +17061,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18.75">
@@ -16993,7 +17075,7 @@
         <v>20</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18.75">
@@ -17007,7 +17089,7 @@
         <v>670</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18.75">
@@ -17021,7 +17103,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="18.75">
@@ -17035,7 +17117,7 @@
         <v>25</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18.75">
@@ -17049,7 +17131,7 @@
         <v>25</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18.75">
@@ -17063,7 +17145,7 @@
         <v>400</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18.75">
@@ -17077,7 +17159,7 @@
         <v>10</v>
       </c>
       <c r="D63" s="52" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="18.75">
@@ -17091,7 +17173,7 @@
         <v>15</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="18.75">
@@ -17105,7 +17187,7 @@
         <v>150</v>
       </c>
       <c r="D65" s="52" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18.75">
@@ -17119,7 +17201,7 @@
         <v>50</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18.75">
@@ -17133,7 +17215,7 @@
         <v>20</v>
       </c>
       <c r="D67" s="52" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18.75">
@@ -17147,7 +17229,7 @@
         <v>111</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="18.75">
@@ -17161,7 +17243,7 @@
         <v>670</v>
       </c>
       <c r="D69" s="52" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="18.75">
@@ -17175,7 +17257,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="52" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="18.75">
@@ -17189,7 +17271,7 @@
         <v>400</v>
       </c>
       <c r="D71" s="52" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="18.75">
@@ -17203,7 +17285,7 @@
         <v>45</v>
       </c>
       <c r="D72" s="52" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="18.75">
@@ -17217,7 +17299,7 @@
         <v>830</v>
       </c>
       <c r="D73" s="52" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="18.75">
@@ -17231,7 +17313,7 @@
         <v>400</v>
       </c>
       <c r="D74" s="52" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="18.75">
@@ -17245,7 +17327,7 @@
         <v>323</v>
       </c>
       <c r="D75" s="52" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="18.75">
@@ -17259,7 +17341,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="52" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="18.75">
@@ -17273,7 +17355,7 @@
         <v>20</v>
       </c>
       <c r="D77" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="18.75">
@@ -17287,7 +17369,7 @@
         <v>20</v>
       </c>
       <c r="D78" s="52" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="18.75">
@@ -17301,7 +17383,7 @@
         <v>1150</v>
       </c>
       <c r="D79" s="52" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="18.75">
@@ -17315,7 +17397,7 @@
         <v>150</v>
       </c>
       <c r="D80" s="52" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="18.75">
@@ -17329,7 +17411,7 @@
         <v>150</v>
       </c>
       <c r="D81" s="52" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="18.75">
@@ -17337,13 +17419,13 @@
         <v>78</v>
       </c>
       <c r="B82" s="67" t="s">
-        <v>326</v>
-      </c>
-      <c r="C82" s="110">
+        <v>324</v>
+      </c>
+      <c r="C82" s="109">
         <v>-70</v>
       </c>
       <c r="D82" s="52" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="18.75">
@@ -17357,7 +17439,7 @@
         <v>80</v>
       </c>
       <c r="D83" s="52" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="18.75">
@@ -17371,7 +17453,7 @@
         <v>849</v>
       </c>
       <c r="D84" s="52" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="18.75">
@@ -17385,7 +17467,7 @@
         <v>20</v>
       </c>
       <c r="D85" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="18.75">
@@ -17399,7 +17481,7 @@
         <v>5</v>
       </c>
       <c r="D86" s="52" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="18.75">
@@ -17413,7 +17495,7 @@
         <v>50</v>
       </c>
       <c r="D87" s="52" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="18.75">
@@ -17427,7 +17509,7 @@
         <v>150</v>
       </c>
       <c r="D88" s="52" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="18.75">
@@ -17441,7 +17523,7 @@
         <v>930</v>
       </c>
       <c r="D89" s="52" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="18.75">
@@ -17455,7 +17537,7 @@
         <v>100</v>
       </c>
       <c r="D90" s="52" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="18.75">
@@ -17469,7 +17551,7 @@
         <v>500</v>
       </c>
       <c r="D91" s="52" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="18.75">
@@ -17483,7 +17565,7 @@
         <v>930</v>
       </c>
       <c r="D92" s="52" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="18.75">
@@ -17497,7 +17579,7 @@
         <v>1400</v>
       </c>
       <c r="D93" s="52" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="18.75">
@@ -17511,7 +17593,7 @@
         <v>2500</v>
       </c>
       <c r="D94" s="52" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="18.75">
@@ -17525,53 +17607,139 @@
         <v>190</v>
       </c>
       <c r="D95" s="52" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="18.75">
       <c r="A96" s="35">
         <v>92</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="18.75">
+      <c r="B96" s="67">
+        <v>46008</v>
+      </c>
+      <c r="C96" s="62">
+        <v>1434</v>
+      </c>
+      <c r="D96" s="52" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="18.75">
       <c r="A97" s="35">
         <v>93</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="18.75">
+      <c r="B97" s="67">
+        <v>46008</v>
+      </c>
+      <c r="C97" s="62">
+        <v>18</v>
+      </c>
+      <c r="D97" s="52" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="18.75">
       <c r="A98" s="35">
         <v>94</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="18.75">
+      <c r="B98" s="67">
+        <v>46008</v>
+      </c>
+      <c r="C98" s="109">
+        <v>-100</v>
+      </c>
+      <c r="D98" s="52" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="18.75">
       <c r="A99" s="35">
         <v>95</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="18.75">
+      <c r="B99" s="67"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="52"/>
+    </row>
+    <row r="100" spans="1:4" ht="18.75">
       <c r="A100" s="35">
         <v>96</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="18.75">
+      <c r="B100" s="67"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="52"/>
+    </row>
+    <row r="101" spans="1:4" ht="18.75">
       <c r="A101" s="35">
         <v>97</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="18.75">
+      <c r="B101" s="67"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="52"/>
+    </row>
+    <row r="102" spans="1:4" ht="18.75">
       <c r="A102" s="35">
         <v>98</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="18.75">
+      <c r="B102" s="67"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="52"/>
+    </row>
+    <row r="103" spans="1:4" ht="18.75">
       <c r="A103" s="35">
         <v>99</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" ht="18.75">
+      <c r="B103" s="67"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="52"/>
+    </row>
+    <row r="104" spans="1:4" ht="18.75">
       <c r="A104" s="35">
         <v>100</v>
       </c>
+      <c r="B104" s="67"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="52"/>
+    </row>
+    <row r="105" spans="1:4" ht="18.75">
+      <c r="B105" s="67"/>
+      <c r="C105" s="62"/>
+      <c r="D105" s="52"/>
+    </row>
+    <row r="106" spans="1:4" ht="18.75">
+      <c r="B106" s="67"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="52"/>
+    </row>
+    <row r="107" spans="1:4" ht="18.75">
+      <c r="B107" s="67"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="52"/>
+    </row>
+    <row r="108" spans="1:4" ht="18.75">
+      <c r="B108" s="67"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="52"/>
+    </row>
+    <row r="109" spans="1:4" ht="18.75">
+      <c r="B109" s="67"/>
+      <c r="C109" s="62"/>
+      <c r="D109" s="52"/>
+    </row>
+    <row r="110" spans="1:4" ht="18.75">
+      <c r="C110" s="62"/>
+      <c r="D110" s="52"/>
+    </row>
+    <row r="111" spans="1:4" ht="18.75">
+      <c r="C111" s="62"/>
+    </row>
+    <row r="112" spans="1:4" ht="18.75">
+      <c r="C112" s="62"/>
+    </row>
+    <row r="113" spans="3:3" ht="18.75">
+      <c r="C113" s="62"/>
+    </row>
+    <row r="114" spans="3:3" ht="18.75">
+      <c r="C114" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17594,7 +17762,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B1" s="51"/>
     </row>
@@ -17603,7 +17771,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -17611,7 +17779,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -17619,7 +17787,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -17627,7 +17795,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -17635,7 +17803,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -17643,7 +17811,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -17651,7 +17819,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -17659,7 +17827,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -17669,12 +17837,69 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="H6:K12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="8:11">
+      <c r="I6" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="8:11">
+      <c r="H7" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="8:11">
+      <c r="H8" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="9" spans="8:11">
+      <c r="H9" s="51" t="s">
+        <v>352</v>
+      </c>
+      <c r="J9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="8:11">
+      <c r="H11" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="I11">
+        <f>SUM(I7:I10)</f>
+        <v>1200</v>
+      </c>
+      <c r="J11">
+        <f>SUM(J7:J10)</f>
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="12" spans="8:11">
+      <c r="H12" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="K12">
+        <f>J11-I11</f>
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17693,45 +17918,45 @@
     <col min="2" max="2" width="6" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="73" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="73" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="103"/>
+    <col min="5" max="5" width="9.140625" style="102"/>
     <col min="6" max="6" width="14.85546875" style="51" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
-      <c r="C2" s="112" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
+      <c r="C2" s="111" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
       <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="90"/>
-      <c r="F3" s="113" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
+      <c r="F3" s="112" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
     </row>
     <row r="4" spans="1:17" ht="37.5">
       <c r="A4" s="12" t="s">
@@ -17766,15 +17991,15 @@
       <c r="B5" s="52">
         <v>1</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="104">
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="103">
         <f>D5-C5</f>
         <v>0</v>
       </c>
       <c r="F5" s="53"/>
       <c r="G5" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -17787,15 +18012,15 @@
       <c r="B6" s="52">
         <v>2</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="104">
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="103">
         <f t="shared" ref="E6:E18" si="0">D6-C6</f>
         <v>0</v>
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -17808,15 +18033,15 @@
       <c r="B7" s="52">
         <v>3</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="104">
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -17829,15 +18054,15 @@
       <c r="B8" s="52">
         <v>4</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="104">
+      <c r="C8" s="100"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -17850,15 +18075,15 @@
       <c r="B9" s="52">
         <v>5</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="104">
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -17871,15 +18096,15 @@
       <c r="B10" s="52">
         <v>6</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="104">
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -17892,15 +18117,15 @@
       <c r="B11" s="52">
         <v>7</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="104">
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -17913,15 +18138,15 @@
       <c r="B12" s="52">
         <v>8</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="104">
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -17934,15 +18159,15 @@
       <c r="B13" s="52">
         <v>9</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="104">
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -17955,15 +18180,15 @@
       <c r="B14" s="52">
         <v>10</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="104">
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="53"/>
       <c r="G14" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -17976,15 +18201,15 @@
       <c r="B15" s="52">
         <v>11</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="104">
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="53"/>
       <c r="G15" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -17997,15 +18222,15 @@
       <c r="B16" s="52">
         <v>12</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="104">
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -18018,15 +18243,15 @@
       <c r="B17" s="52">
         <v>13</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="104">
+      <c r="C17" s="100"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="53"/>
       <c r="G17" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -18039,15 +18264,15 @@
       <c r="B18" s="52">
         <v>14</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="104">
+      <c r="C18" s="100"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="53"/>
       <c r="G18" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -18058,7 +18283,7 @@
       <c r="B19" s="52"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
-      <c r="E19" s="105"/>
+      <c r="E19" s="104"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -18070,7 +18295,7 @@
       <c r="B20" s="52"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
-      <c r="E20" s="105"/>
+      <c r="E20" s="104"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -18082,7 +18307,7 @@
       <c r="B21" s="52"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
-      <c r="E21" s="105"/>
+      <c r="E21" s="104"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -18094,7 +18319,7 @@
       <c r="B22" s="52"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
-      <c r="E22" s="105"/>
+      <c r="E22" s="104"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -18106,7 +18331,7 @@
       <c r="B23" s="52"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
-      <c r="E23" s="105"/>
+      <c r="E23" s="104"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -18118,7 +18343,7 @@
       <c r="B24" s="52"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
-      <c r="E24" s="105"/>
+      <c r="E24" s="104"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -18130,7 +18355,7 @@
       <c r="B25" s="52"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
-      <c r="E25" s="105"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -18142,7 +18367,7 @@
       <c r="B26" s="52"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
-      <c r="E26" s="105"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -18154,7 +18379,7 @@
       <c r="B27" s="52"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
-      <c r="E27" s="105"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -18166,7 +18391,7 @@
       <c r="B28" s="52"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
-      <c r="E28" s="105"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -18178,7 +18403,7 @@
       <c r="B29" s="52"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
-      <c r="E29" s="105"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -18190,7 +18415,7 @@
       <c r="B30" s="52"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
-      <c r="E30" s="105"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -18202,7 +18427,7 @@
       <c r="B31" s="52"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
-      <c r="E31" s="105"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -18214,7 +18439,7 @@
       <c r="B32" s="52"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
-      <c r="E32" s="105"/>
+      <c r="E32" s="104"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -18226,7 +18451,7 @@
       <c r="B33" s="52"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
-      <c r="E33" s="105"/>
+      <c r="E33" s="104"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -18261,38 +18486,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" ht="26.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="111"/>
-      <c r="AD2" s="111"/>
-      <c r="AE2" s="111"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
     </row>
     <row r="3" spans="1:32" ht="18.75">
       <c r="B3" s="10"/>
@@ -22574,7 +22799,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22589,37 +22814,37 @@
   <sheetData>
     <row r="1" spans="1:20" ht="26.25">
       <c r="B1" s="18"/>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
     </row>
     <row r="2" spans="1:20" ht="26.25">
       <c r="B2" s="18"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
     </row>
     <row r="3" spans="1:20">
       <c r="B3" s="23"/>
@@ -22741,7 +22966,7 @@
       </c>
       <c r="M6" s="28">
         <f>Apartment11!D6</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N6" s="28">
         <f>Apartment12!D6</f>
@@ -22803,7 +23028,7 @@
       </c>
       <c r="M7" s="28">
         <f>Apartment11!D7</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N7" s="28">
         <f>Apartment12!D7</f>
@@ -22865,7 +23090,7 @@
       </c>
       <c r="M8" s="28">
         <f>Apartment11!D8</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="28">
         <f>Apartment12!D8</f>
@@ -22927,7 +23152,7 @@
       </c>
       <c r="M9" s="28">
         <f>Apartment11!D9</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="28">
         <f>Apartment12!D9</f>
@@ -22989,7 +23214,7 @@
       </c>
       <c r="M10" s="28">
         <f>Apartment11!D10</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="28">
         <f>Apartment12!D10</f>
@@ -23051,7 +23276,7 @@
       </c>
       <c r="M11" s="28">
         <f>Apartment11!D11</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N11" s="28">
         <f>Apartment12!D11</f>
@@ -23113,7 +23338,7 @@
       </c>
       <c r="M12" s="28">
         <f>Apartment11!D12</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="28">
         <f>Apartment12!D12</f>
@@ -23175,7 +23400,7 @@
       </c>
       <c r="M13" s="28">
         <f>Apartment11!D13</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N13" s="28">
         <f>Apartment12!D13</f>
@@ -23237,7 +23462,7 @@
       </c>
       <c r="M14" s="28">
         <f>Apartment11!D14</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14" s="28">
         <f>Apartment12!D14</f>
@@ -23299,7 +23524,7 @@
       </c>
       <c r="M15" s="28">
         <f>Apartment11!D15</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="28">
         <f>Apartment12!D15</f>
@@ -23361,7 +23586,7 @@
       </c>
       <c r="M16" s="28">
         <f>Apartment11!D16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N16" s="28">
         <f>Apartment12!D16</f>
@@ -23423,7 +23648,7 @@
       </c>
       <c r="M17" s="28">
         <f>Apartment11!D17</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="28">
         <f>Apartment12!D17</f>
@@ -23682,35 +23907,35 @@
     <col min="1" max="2" width="4.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="73" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="73" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="103"/>
+    <col min="5" max="5" width="9.140625" style="102"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
     </row>
     <row r="3" spans="1:14" ht="18.75">
       <c r="C3" s="90"/>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
     </row>
     <row r="4" spans="1:14" ht="56.25">
       <c r="A4" s="12" t="s">
@@ -23749,21 +23974,21 @@
       <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="C5" s="101">
+      <c r="C5" s="100">
         <f>Apartment1!D4</f>
         <v>1200</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="104">
+      <c r="D5" s="101"/>
+      <c r="E5" s="103">
         <f>D5-C5</f>
         <v>-1200</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="101"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="104">
+      <c r="G5" s="100"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="103">
         <f>H5-G5</f>
         <v>0</v>
       </c>
@@ -23776,21 +24001,21 @@
       <c r="B6" s="20">
         <v>2</v>
       </c>
-      <c r="C6" s="101">
+      <c r="C6" s="100">
         <f>Apartment2!D4</f>
         <v>600</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="104">
+      <c r="D6" s="101"/>
+      <c r="E6" s="103">
         <f t="shared" ref="E6:E18" si="0">D6-C6</f>
         <v>-600</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="101"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="104">
+      <c r="G6" s="100"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="103">
         <f t="shared" ref="I6:I18" si="1">H6-G6</f>
         <v>0</v>
       </c>
@@ -23803,21 +24028,21 @@
       <c r="B7" s="20">
         <v>3</v>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="100">
         <f>Apartment3!D4</f>
         <v>1200</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="104">
+      <c r="D7" s="101"/>
+      <c r="E7" s="103">
         <f t="shared" si="0"/>
         <v>-1200</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="101"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="104">
+      <c r="G7" s="100"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -23830,21 +24055,21 @@
       <c r="B8" s="20">
         <v>4</v>
       </c>
-      <c r="C8" s="101">
+      <c r="C8" s="100">
         <f>Apartment4!D4</f>
         <v>1200</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="104">
+      <c r="D8" s="101"/>
+      <c r="E8" s="103">
         <f t="shared" si="0"/>
         <v>-1200</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="104">
+      <c r="G8" s="100"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -23857,21 +24082,21 @@
       <c r="B9" s="20">
         <v>5</v>
       </c>
-      <c r="C9" s="101">
+      <c r="C9" s="100">
         <f>Apartment5!D4</f>
         <v>2400</v>
       </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="104">
+      <c r="D9" s="101"/>
+      <c r="E9" s="103">
         <f t="shared" si="0"/>
         <v>-2400</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="104">
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -23884,21 +24109,21 @@
       <c r="B10" s="20">
         <v>6</v>
       </c>
-      <c r="C10" s="101">
+      <c r="C10" s="100">
         <f>Apartment6!D4</f>
         <v>2400</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="104">
+      <c r="D10" s="101"/>
+      <c r="E10" s="103">
         <f t="shared" si="0"/>
         <v>-2400</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="104">
+      <c r="G10" s="100"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -23911,21 +24136,21 @@
       <c r="B11" s="20">
         <v>7</v>
       </c>
-      <c r="C11" s="101">
+      <c r="C11" s="100">
         <f>Apartment7!D4</f>
         <v>2400</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="104">
+      <c r="D11" s="101"/>
+      <c r="E11" s="103">
         <f t="shared" si="0"/>
         <v>-2400</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="101"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="104">
+      <c r="G11" s="100"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -23938,21 +24163,21 @@
       <c r="B12" s="20">
         <v>8</v>
       </c>
-      <c r="C12" s="101">
+      <c r="C12" s="100">
         <f>Apartment8!D4</f>
         <v>2400</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="104">
+      <c r="D12" s="101"/>
+      <c r="E12" s="103">
         <f t="shared" si="0"/>
         <v>-2400</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="101"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="104">
+      <c r="G12" s="100"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -23965,21 +24190,21 @@
       <c r="B13" s="20">
         <v>9</v>
       </c>
-      <c r="C13" s="101">
+      <c r="C13" s="100">
         <f>Apartment9!D4</f>
         <v>1200</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="104">
+      <c r="D13" s="101"/>
+      <c r="E13" s="103">
         <f t="shared" si="0"/>
         <v>-1200</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="101"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="104">
+      <c r="G13" s="100"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -23992,21 +24217,21 @@
       <c r="B14" s="20">
         <v>10</v>
       </c>
-      <c r="C14" s="101">
+      <c r="C14" s="100">
         <f>Apartment10!D4</f>
         <v>0</v>
       </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="104">
+      <c r="D14" s="101"/>
+      <c r="E14" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="101"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="104">
+      <c r="G14" s="100"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -24019,21 +24244,21 @@
       <c r="B15" s="20">
         <v>11</v>
       </c>
-      <c r="C15" s="101">
+      <c r="C15" s="100">
         <f>Apartment11!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="104">
+        <v>1200</v>
+      </c>
+      <c r="D15" s="101"/>
+      <c r="E15" s="103">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="101"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="104">
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -24046,20 +24271,20 @@
       <c r="B16" s="20">
         <v>12</v>
       </c>
-      <c r="C16" s="101">
+      <c r="C16" s="100">
         <v>0</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="104">
+      <c r="D16" s="101"/>
+      <c r="E16" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="101"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="104">
+      <c r="G16" s="100"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -24072,21 +24297,21 @@
       <c r="B17" s="20">
         <v>13</v>
       </c>
-      <c r="C17" s="101">
+      <c r="C17" s="100">
         <f>Apartment13!D4</f>
         <v>1140</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="104">
+      <c r="D17" s="101"/>
+      <c r="E17" s="103">
         <f t="shared" si="0"/>
         <v>-1140</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="101"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="104">
+      <c r="G17" s="100"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -24099,21 +24324,21 @@
       <c r="B18" s="20">
         <v>14</v>
       </c>
-      <c r="C18" s="101">
+      <c r="C18" s="100">
         <f>Apartment14!D4</f>
         <v>1140</v>
       </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="104">
+      <c r="D18" s="101"/>
+      <c r="E18" s="103">
         <f t="shared" si="0"/>
         <v>-1140</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="101"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="104">
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -24124,7 +24349,7 @@
       <c r="B19" s="8"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
-      <c r="E19" s="105"/>
+      <c r="E19" s="104"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -24136,7 +24361,7 @@
       <c r="B20" s="8"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
-      <c r="E20" s="105"/>
+      <c r="E20" s="104"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -24148,7 +24373,7 @@
       <c r="B21" s="8"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
-      <c r="E21" s="105"/>
+      <c r="E21" s="104"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -24160,7 +24385,7 @@
       <c r="B22" s="8"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
-      <c r="E22" s="105"/>
+      <c r="E22" s="104"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -24172,7 +24397,7 @@
       <c r="B23" s="8"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
-      <c r="E23" s="105"/>
+      <c r="E23" s="104"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -24184,7 +24409,7 @@
       <c r="B24" s="8"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
-      <c r="E24" s="105"/>
+      <c r="E24" s="104"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -24196,7 +24421,7 @@
       <c r="B25" s="8"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
-      <c r="E25" s="105"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -24208,7 +24433,7 @@
       <c r="B26" s="8"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
-      <c r="E26" s="105"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -24220,7 +24445,7 @@
       <c r="B27" s="8"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
-      <c r="E27" s="105"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -24232,7 +24457,7 @@
       <c r="B28" s="8"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
-      <c r="E28" s="105"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -24244,7 +24469,7 @@
       <c r="B29" s="8"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
-      <c r="E29" s="105"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -24256,7 +24481,7 @@
       <c r="B30" s="8"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
-      <c r="E30" s="105"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -24268,7 +24493,7 @@
       <c r="B31" s="8"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
-      <c r="E31" s="105"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -24280,7 +24505,7 @@
       <c r="B32" s="8"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
-      <c r="E32" s="105"/>
+      <c r="E32" s="104"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -24292,7 +24517,7 @@
       <c r="B33" s="8"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
-      <c r="E33" s="105"/>
+      <c r="E33" s="104"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -24329,23 +24554,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="97"/>
@@ -24427,7 +24652,7 @@
         <v>85</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -24724,7 +24949,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -25017,23 +25242,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="82"/>
@@ -25115,7 +25340,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -25705,23 +25930,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:17" ht="57.75">
       <c r="C3" s="64"/>
@@ -26148,14 +26373,14 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="116" t="s">
+      <c r="I20" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
     </row>
     <row r="21" spans="1:17" ht="23.25">
       <c r="A21" s="8"/>
@@ -26166,14 +26391,14 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="116" t="s">
-        <v>295</v>
-      </c>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
+      <c r="I21" s="115" t="s">
+        <v>293</v>
+      </c>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="115"/>
     </row>
     <row r="22" spans="1:17" ht="18.75">
       <c r="A22" s="8"/>
@@ -26211,13 +26436,13 @@
       <c r="G23" s="54"/>
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="116"/>
       <c r="Q23" s="51"/>
     </row>
     <row r="24" spans="1:17" ht="18.75">
@@ -26232,13 +26457,13 @@
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="117"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="116"/>
       <c r="Q24" s="51"/>
     </row>
     <row r="25" spans="1:17" ht="36" customHeight="1">
@@ -26253,13 +26478,13 @@
       </c>
       <c r="H25" s="54"/>
       <c r="I25" s="54"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="117"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="116"/>
+      <c r="O25" s="116"/>
+      <c r="P25" s="116"/>
       <c r="Q25" s="51"/>
     </row>
     <row r="26" spans="1:17" ht="23.25">
@@ -26287,7 +26512,7 @@
       <c r="O26" s="40"/>
       <c r="P26" s="40"/>
       <c r="Q26" s="51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="18.75">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="24"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="357">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -1106,6 +1106,12 @@
   </si>
   <si>
     <t>رصيد</t>
+  </si>
+  <si>
+    <t>تحت حساب نظافة السلم لام احمد عن شهر ديسمبر /2025 ، لم يسلم ليها بعد انما تم حسابه حتى يتم ترحيل الحساب للسنة الجديدة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحت حساب صيانة سنة 2025 بالكامل وسنة 2026، 2027 بالكامل بوقع 450 جنيه للشقتين، بمعنى 150جنيه لشقة 10 الغير مشغولة و 300جنيه لشقة 6 المشغولة، ملحوظة: تم ايداع 5الآف جنيه فى حساب وائل فى البنك فى شهادة بعائد 14% سنوى يصرف كل شهر، و يستحق عنه كل شهر مبلغ 58جنيه سوف يتم اثباتها واضافتها فى ملف سنة 2026 </t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1743,6 +1749,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2315,24 +2324,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="160219136"/>
-        <c:axId val="160220672"/>
+        <c:axId val="147851520"/>
+        <c:axId val="147853312"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="160219136"/>
+        <c:axId val="147851520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160220672"/>
+        <c:crossAx val="147853312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="160220672"/>
+        <c:axId val="147853312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2340,7 +2349,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160219136"/>
+        <c:crossAx val="147851520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4106,8 +4115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView rightToLeft="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4165,12 +4174,12 @@
       <c r="C4" s="69"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
         <f>SUM(F6:F2001)</f>
-        <v>2400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="56.25">
@@ -4213,11 +4222,11 @@
         <v>45318</v>
       </c>
       <c r="D6" s="35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G6" s="52" t="s">
         <v>211</v>
@@ -4240,11 +4249,11 @@
         <v>45318</v>
       </c>
       <c r="D7" s="35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="8">
-        <v>200</v>
+      <c r="F7" s="52">
+        <v>100</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>99</v>
@@ -4267,11 +4276,11 @@
         <v>45318</v>
       </c>
       <c r="D8" s="35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="8">
-        <v>200</v>
+      <c r="F8" s="52">
+        <v>100</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>100</v>
@@ -4294,11 +4303,11 @@
         <v>45318</v>
       </c>
       <c r="D9" s="35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="8">
-        <v>200</v>
+      <c r="F9" s="52">
+        <v>100</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>101</v>
@@ -4321,11 +4330,11 @@
         <v>45318</v>
       </c>
       <c r="D10" s="35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="8">
-        <v>200</v>
+      <c r="F10" s="52">
+        <v>100</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>102</v>
@@ -4348,11 +4357,11 @@
         <v>45318</v>
       </c>
       <c r="D11" s="35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="8">
-        <v>200</v>
+      <c r="F11" s="52">
+        <v>100</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>103</v>
@@ -4375,11 +4384,11 @@
         <v>45569</v>
       </c>
       <c r="D12" s="35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="8">
-        <v>200</v>
+      <c r="F12" s="52">
+        <v>100</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>104</v>
@@ -4402,11 +4411,11 @@
         <v>45569</v>
       </c>
       <c r="D13" s="35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="8">
-        <v>200</v>
+      <c r="F13" s="52">
+        <v>100</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>105</v>
@@ -4429,11 +4438,11 @@
         <v>45569</v>
       </c>
       <c r="D14" s="35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="8">
-        <v>200</v>
+      <c r="F14" s="52">
+        <v>100</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>106</v>
@@ -4456,11 +4465,11 @@
         <v>45569</v>
       </c>
       <c r="D15" s="35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="8">
-        <v>200</v>
+      <c r="F15" s="52">
+        <v>100</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>107</v>
@@ -4483,11 +4492,11 @@
         <v>45569</v>
       </c>
       <c r="D16" s="35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="8">
-        <v>200</v>
+      <c r="F16" s="52">
+        <v>100</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>108</v>
@@ -4510,11 +4519,11 @@
         <v>45569</v>
       </c>
       <c r="D17" s="35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="8">
-        <v>200</v>
+      <c r="F17" s="52">
+        <v>100</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>109</v>
@@ -11742,8 +11751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11837,7 +11846,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>23080</v>
+        <v>35080</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -13882,12 +13891,22 @@
       <c r="A71" s="52">
         <v>66</v>
       </c>
-      <c r="B71" s="58"/>
-      <c r="C71" s="62"/>
+      <c r="B71" s="58">
+        <v>46009</v>
+      </c>
+      <c r="C71" s="62">
+        <v>12000</v>
+      </c>
       <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
+      <c r="E71" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="F71" s="52">
+        <v>10</v>
+      </c>
+      <c r="G71" s="52" t="s">
+        <v>356</v>
+      </c>
       <c r="H71" s="51"/>
       <c r="I71" s="51"/>
       <c r="J71" s="51"/>
@@ -15684,15 +15703,15 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>23080</v>
+        <v>35080</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>26381</v>
+        <v>26781</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>2302</v>
+        <v>13902</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -16050,8 +16069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T114"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView rightToLeft="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16086,7 +16105,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>26381</v>
+        <v>26781</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -17656,9 +17675,15 @@
       <c r="A99" s="35">
         <v>95</v>
       </c>
-      <c r="B99" s="67"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="52"/>
+      <c r="B99" s="123">
+        <v>46011</v>
+      </c>
+      <c r="C99" s="109">
+        <v>400</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="100" spans="1:4" ht="18.75">
       <c r="A100" s="35">
@@ -17839,7 +17864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="H6:K12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -22962,7 +22987,7 @@
       </c>
       <c r="L6" s="28">
         <f>Apartment10!D6</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M6" s="28">
         <f>Apartment11!D6</f>
@@ -23024,7 +23049,7 @@
       </c>
       <c r="L7" s="28">
         <f>Apartment10!D7</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M7" s="28">
         <f>Apartment11!D7</f>
@@ -23086,7 +23111,7 @@
       </c>
       <c r="L8" s="28">
         <f>Apartment10!D8</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="28">
         <f>Apartment11!D8</f>
@@ -23148,7 +23173,7 @@
       </c>
       <c r="L9" s="28">
         <f>Apartment10!D9</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="28">
         <f>Apartment11!D9</f>
@@ -23210,7 +23235,7 @@
       </c>
       <c r="L10" s="28">
         <f>Apartment10!D10</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="28">
         <f>Apartment11!D10</f>
@@ -23272,7 +23297,7 @@
       </c>
       <c r="L11" s="28">
         <f>Apartment10!D11</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M11" s="28">
         <f>Apartment11!D11</f>
@@ -23334,7 +23359,7 @@
       </c>
       <c r="L12" s="28">
         <f>Apartment10!D12</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="28">
         <f>Apartment11!D12</f>
@@ -23396,7 +23421,7 @@
       </c>
       <c r="L13" s="28">
         <f>Apartment10!D13</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M13" s="28">
         <f>Apartment11!D13</f>
@@ -23458,7 +23483,7 @@
       </c>
       <c r="L14" s="28">
         <f>Apartment10!D14</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="28">
         <f>Apartment11!D14</f>
@@ -23520,7 +23545,7 @@
       </c>
       <c r="L15" s="28">
         <f>Apartment10!D15</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="28">
         <f>Apartment11!D15</f>
@@ -23582,7 +23607,7 @@
       </c>
       <c r="L16" s="28">
         <f>Apartment10!D16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M16" s="28">
         <f>Apartment11!D16</f>
@@ -23644,7 +23669,7 @@
       </c>
       <c r="L17" s="28">
         <f>Apartment10!D17</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="28">
         <f>Apartment11!D17</f>
@@ -24219,12 +24244,12 @@
       </c>
       <c r="C14" s="100">
         <f>Apartment10!D4</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="D14" s="101"/>
       <c r="E14" s="103">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>52</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="20"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -1108,10 +1108,10 @@
     <t>رصيد</t>
   </si>
   <si>
-    <t>تحت حساب نظافة السلم لام احمد عن شهر ديسمبر /2025 ، لم يسلم ليها بعد انما تم حسابه حتى يتم ترحيل الحساب للسنة الجديدة</t>
-  </si>
-  <si>
     <t xml:space="preserve">تحت حساب صيانة سنة 2025 بالكامل وسنة 2026، 2027 بالكامل بوقع 450 جنيه للشقتين، بمعنى 150جنيه لشقة 10 الغير مشغولة و 300جنيه لشقة 6 المشغولة، ملحوظة: تم ايداع 5الآف جنيه فى حساب وائل فى البنك فى شهادة بعائد 14% سنوى يصرف كل شهر، و يستحق عنه كل شهر مبلغ 58جنيه سوف يتم اثباتها واضافتها فى ملف سنة 2026 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحت حساب نظافة السلم لام احمد عن شهر ديسمبر /2025 </t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1749,9 +1749,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2324,24 +2321,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="147851520"/>
-        <c:axId val="147853312"/>
+        <c:axId val="79121408"/>
+        <c:axId val="79151872"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="147851520"/>
+        <c:axId val="79121408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147853312"/>
+        <c:crossAx val="79151872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="147853312"/>
+        <c:axId val="79151872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2349,7 +2346,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147851520"/>
+        <c:crossAx val="79121408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11751,7 +11748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A56" workbookViewId="0">
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
@@ -13905,7 +13902,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="52" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H71" s="51"/>
       <c r="I71" s="51"/>
@@ -16069,8 +16066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T114"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17675,14 +17672,14 @@
       <c r="A99" s="35">
         <v>95</v>
       </c>
-      <c r="B99" s="123">
+      <c r="B99" s="67">
         <v>46011</v>
       </c>
-      <c r="C99" s="109">
+      <c r="C99" s="62">
         <v>400</v>
       </c>
-      <c r="D99" s="41" t="s">
-        <v>355</v>
+      <c r="D99" s="52" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="18.75">
